--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2SexyContent\Web\DesktopModules\ToSIC_SexyContent\src\sxc-develop\source-editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2sxc-ui\src\sxc-develop\source-editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11473"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="snippets" sheetId="1" r:id="rId1"/>
@@ -1651,9 +1651,6 @@
     <t>@(${1:var}.${2:prop}.Count &gt; 0 ? ${1:var}.${2:prop}[0].Render() : "")</t>
   </si>
   <si>
-    <t>@(${1:var}.${2:prop}.Count &gt; 0 ? ${1:var}.${2:prop}[0].Title : "")</t>
-  </si>
-  <si>
     <t>&lt;repeat repeat="${1:Employee} in Data:${2:Default}"&gt;...[${1}:Title]...&lt;/repeat&gt;</t>
   </si>
   <si>
@@ -1873,6 +1870,9 @@
   </si>
   <si>
     <t>read API docs: https://github.com/2sic/2sxc/wiki/Razor-Data</t>
+  </si>
+  <si>
+    <t>@(${1:var}.${2:prop}.Count &gt; 0 ? ${1:var}.${2:prop}[0].EntityTitle : "")</t>
   </si>
 </sst>
 </file>
@@ -2228,22 +2228,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.46875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.52734375" customWidth="1"/>
-    <col min="5" max="5" width="54.41015625" customWidth="1"/>
-    <col min="6" max="6" width="40.52734375" customWidth="1"/>
-    <col min="7" max="7" width="44.234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2263,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>477</v>
       </c>
@@ -2286,10 +2286,10 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -2309,10 +2309,10 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>477</v>
       </c>
@@ -2332,10 +2332,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>477</v>
       </c>
@@ -2355,10 +2355,10 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>477</v>
       </c>
@@ -2378,10 +2378,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -2401,10 +2401,10 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>457</v>
       </c>
@@ -2412,19 +2412,19 @@
         <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G8" t="s">
         <v>595</v>
       </c>
-      <c r="G8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43" hidden="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>457</v>
       </c>
@@ -2432,19 +2432,19 @@
         <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
@@ -2452,19 +2452,19 @@
         <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>457</v>
       </c>
@@ -2472,19 +2472,19 @@
         <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>457</v>
       </c>
@@ -2492,19 +2492,19 @@
         <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F12" t="s">
         <v>555</v>
       </c>
-      <c r="F12" t="s">
-        <v>556</v>
-      </c>
       <c r="G12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>458</v>
       </c>
@@ -2518,13 +2518,13 @@
         <v>307</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>458</v>
       </c>
@@ -2535,10 +2535,10 @@
         <v>456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="86" hidden="1" x14ac:dyDescent="0.5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>458</v>
       </c>
@@ -2549,19 +2549,19 @@
         <v>461</v>
       </c>
       <c r="D15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15" t="s">
         <v>566</v>
       </c>
-      <c r="F15" t="s">
-        <v>567</v>
-      </c>
       <c r="G15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>317</v>
       </c>
@@ -2575,10 +2575,10 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>317</v>
       </c>
@@ -2592,10 +2592,10 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>317</v>
       </c>
@@ -2609,10 +2609,10 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>317</v>
       </c>
@@ -2626,10 +2626,10 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>317</v>
       </c>
@@ -2643,10 +2643,10 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>317</v>
       </c>
@@ -2660,10 +2660,10 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>317</v>
       </c>
@@ -2677,10 +2677,10 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>317</v>
       </c>
@@ -2694,10 +2694,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>317</v>
       </c>
@@ -2711,10 +2711,10 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>317</v>
       </c>
@@ -2728,10 +2728,10 @@
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>317</v>
       </c>
@@ -2745,10 +2745,10 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>317</v>
       </c>
@@ -2762,10 +2762,10 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
@@ -2779,10 +2779,10 @@
         <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>317</v>
       </c>
@@ -2796,10 +2796,10 @@
         <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>317</v>
       </c>
@@ -2813,10 +2813,10 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>317</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>317</v>
       </c>
@@ -2847,10 +2847,10 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>317</v>
       </c>
@@ -2864,10 +2864,10 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>317</v>
       </c>
@@ -2881,10 +2881,10 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
@@ -2898,10 +2898,10 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>317</v>
       </c>
@@ -2915,10 +2915,10 @@
         <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>317</v>
       </c>
@@ -2932,10 +2932,10 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>317</v>
       </c>
@@ -2949,10 +2949,10 @@
         <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
@@ -2966,10 +2966,10 @@
         <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>317</v>
       </c>
@@ -2983,10 +2983,10 @@
         <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>317</v>
       </c>
@@ -3000,10 +3000,10 @@
         <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
@@ -3017,10 +3017,10 @@
         <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>317</v>
       </c>
@@ -3034,10 +3034,10 @@
         <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
@@ -3051,10 +3051,10 @@
         <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>317</v>
       </c>
@@ -3068,10 +3068,10 @@
         <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>317</v>
       </c>
@@ -3085,10 +3085,10 @@
         <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>317</v>
       </c>
@@ -3102,10 +3102,10 @@
         <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>317</v>
       </c>
@@ -3119,10 +3119,10 @@
         <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -3136,10 +3136,10 @@
         <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>317</v>
       </c>
@@ -3153,10 +3153,10 @@
         <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>317</v>
       </c>
@@ -3170,10 +3170,10 @@
         <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>317</v>
       </c>
@@ -3187,10 +3187,10 @@
         <v>103</v>
       </c>
       <c r="G52" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>317</v>
       </c>
@@ -3204,10 +3204,10 @@
         <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>317</v>
       </c>
@@ -3221,10 +3221,10 @@
         <v>105</v>
       </c>
       <c r="G54" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>317</v>
       </c>
@@ -3238,10 +3238,10 @@
         <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>317</v>
       </c>
@@ -3255,10 +3255,10 @@
         <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>317</v>
       </c>
@@ -3272,10 +3272,10 @@
         <v>111</v>
       </c>
       <c r="G57" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>317</v>
       </c>
@@ -3289,10 +3289,10 @@
         <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>317</v>
       </c>
@@ -3309,10 +3309,10 @@
         <v>440</v>
       </c>
       <c r="G59" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>317</v>
       </c>
@@ -3326,10 +3326,10 @@
         <v>116</v>
       </c>
       <c r="G60" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>317</v>
       </c>
@@ -3343,10 +3343,10 @@
         <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>317</v>
       </c>
@@ -3360,10 +3360,10 @@
         <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>317</v>
       </c>
@@ -3377,10 +3377,10 @@
         <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>317</v>
       </c>
@@ -3394,10 +3394,10 @@
         <v>124</v>
       </c>
       <c r="G64" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
@@ -3411,10 +3411,10 @@
         <v>126</v>
       </c>
       <c r="G65" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -3428,10 +3428,10 @@
         <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>317</v>
       </c>
@@ -3445,10 +3445,10 @@
         <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>317</v>
       </c>
@@ -3462,10 +3462,10 @@
         <v>132</v>
       </c>
       <c r="G68" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>317</v>
       </c>
@@ -3479,10 +3479,10 @@
         <v>134</v>
       </c>
       <c r="G69" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>317</v>
       </c>
@@ -3496,10 +3496,10 @@
         <v>136</v>
       </c>
       <c r="G70" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>317</v>
       </c>
@@ -3513,10 +3513,10 @@
         <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>317</v>
       </c>
@@ -3530,10 +3530,10 @@
         <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>317</v>
       </c>
@@ -3547,10 +3547,10 @@
         <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>317</v>
       </c>
@@ -3564,10 +3564,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>317</v>
       </c>
@@ -3581,10 +3581,10 @@
         <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>317</v>
       </c>
@@ -3598,10 +3598,10 @@
         <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>317</v>
       </c>
@@ -3615,10 +3615,10 @@
         <v>149</v>
       </c>
       <c r="G77" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>317</v>
       </c>
@@ -3632,10 +3632,10 @@
         <v>151</v>
       </c>
       <c r="G78" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>317</v>
       </c>
@@ -3649,10 +3649,10 @@
         <v>153</v>
       </c>
       <c r="G79" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>317</v>
       </c>
@@ -3666,10 +3666,10 @@
         <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>317</v>
       </c>
@@ -3683,10 +3683,10 @@
         <v>157</v>
       </c>
       <c r="G81" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>317</v>
       </c>
@@ -3700,10 +3700,10 @@
         <v>159</v>
       </c>
       <c r="G82" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>317</v>
       </c>
@@ -3717,10 +3717,10 @@
         <v>160</v>
       </c>
       <c r="G83" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>317</v>
       </c>
@@ -3734,10 +3734,10 @@
         <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>317</v>
       </c>
@@ -3751,10 +3751,10 @@
         <v>163</v>
       </c>
       <c r="G85" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>317</v>
       </c>
@@ -3768,10 +3768,10 @@
         <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
@@ -3785,10 +3785,10 @@
         <v>167</v>
       </c>
       <c r="G87" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>317</v>
       </c>
@@ -3802,10 +3802,10 @@
         <v>169</v>
       </c>
       <c r="G88" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>317</v>
       </c>
@@ -3819,10 +3819,10 @@
         <v>171</v>
       </c>
       <c r="G89" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>317</v>
       </c>
@@ -3836,10 +3836,10 @@
         <v>173</v>
       </c>
       <c r="G90" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>317</v>
       </c>
@@ -3853,10 +3853,10 @@
         <v>175</v>
       </c>
       <c r="G91" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>317</v>
       </c>
@@ -3870,10 +3870,10 @@
         <v>176</v>
       </c>
       <c r="G92" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>317</v>
       </c>
@@ -3887,10 +3887,10 @@
         <v>178</v>
       </c>
       <c r="G93" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>317</v>
       </c>
@@ -3904,10 +3904,10 @@
         <v>180</v>
       </c>
       <c r="G94" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>317</v>
       </c>
@@ -3921,10 +3921,10 @@
         <v>182</v>
       </c>
       <c r="G95" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>317</v>
       </c>
@@ -3938,10 +3938,10 @@
         <v>184</v>
       </c>
       <c r="G96" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>317</v>
       </c>
@@ -3955,10 +3955,10 @@
         <v>186</v>
       </c>
       <c r="G97" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>317</v>
       </c>
@@ -3972,10 +3972,10 @@
         <v>188</v>
       </c>
       <c r="G98" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>317</v>
       </c>
@@ -3989,10 +3989,10 @@
         <v>189</v>
       </c>
       <c r="G99" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>317</v>
       </c>
@@ -4006,10 +4006,10 @@
         <v>191</v>
       </c>
       <c r="G100" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>317</v>
       </c>
@@ -4026,10 +4026,10 @@
         <v>309</v>
       </c>
       <c r="G101" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>317</v>
       </c>
@@ -4046,10 +4046,10 @@
         <v>310</v>
       </c>
       <c r="G102" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
@@ -4063,10 +4063,10 @@
         <v>197</v>
       </c>
       <c r="G103" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>317</v>
       </c>
@@ -4080,10 +4080,10 @@
         <v>199</v>
       </c>
       <c r="G104" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>317</v>
       </c>
@@ -4097,10 +4097,10 @@
         <v>201</v>
       </c>
       <c r="G105" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>317</v>
       </c>
@@ -4114,10 +4114,10 @@
         <v>203</v>
       </c>
       <c r="G106" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>317</v>
       </c>
@@ -4131,10 +4131,10 @@
         <v>204</v>
       </c>
       <c r="G107" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>317</v>
       </c>
@@ -4148,10 +4148,10 @@
         <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>317</v>
       </c>
@@ -4165,10 +4165,10 @@
         <v>208</v>
       </c>
       <c r="G109" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>317</v>
       </c>
@@ -4182,10 +4182,10 @@
         <v>210</v>
       </c>
       <c r="G110" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>317</v>
       </c>
@@ -4199,10 +4199,10 @@
         <v>212</v>
       </c>
       <c r="G111" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>317</v>
       </c>
@@ -4216,10 +4216,10 @@
         <v>214</v>
       </c>
       <c r="G112" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>317</v>
       </c>
@@ -4233,10 +4233,10 @@
         <v>216</v>
       </c>
       <c r="G113" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>317</v>
       </c>
@@ -4250,10 +4250,10 @@
         <v>218</v>
       </c>
       <c r="G114" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>317</v>
       </c>
@@ -4267,10 +4267,10 @@
         <v>220</v>
       </c>
       <c r="G115" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>317</v>
       </c>
@@ -4287,10 +4287,10 @@
         <v>311</v>
       </c>
       <c r="G116" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>317</v>
       </c>
@@ -4304,10 +4304,10 @@
         <v>223</v>
       </c>
       <c r="G117" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>317</v>
       </c>
@@ -4324,10 +4324,10 @@
         <v>312</v>
       </c>
       <c r="G118" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>317</v>
       </c>
@@ -4341,10 +4341,10 @@
         <v>227</v>
       </c>
       <c r="G119" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>317</v>
       </c>
@@ -4358,10 +4358,10 @@
         <v>229</v>
       </c>
       <c r="G120" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>317</v>
       </c>
@@ -4375,10 +4375,10 @@
         <v>231</v>
       </c>
       <c r="G121" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>317</v>
       </c>
@@ -4392,10 +4392,10 @@
         <v>233</v>
       </c>
       <c r="G122" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>317</v>
       </c>
@@ -4409,10 +4409,10 @@
         <v>235</v>
       </c>
       <c r="G123" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>317</v>
       </c>
@@ -4426,10 +4426,10 @@
         <v>237</v>
       </c>
       <c r="G124" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>317</v>
       </c>
@@ -4443,10 +4443,10 @@
         <v>239</v>
       </c>
       <c r="G125" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4460,10 +4460,10 @@
         <v>241</v>
       </c>
       <c r="G126" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>317</v>
       </c>
@@ -4477,10 +4477,10 @@
         <v>243</v>
       </c>
       <c r="G127" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>317</v>
       </c>
@@ -4497,10 +4497,10 @@
         <v>313</v>
       </c>
       <c r="G128" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>317</v>
       </c>
@@ -4514,10 +4514,10 @@
         <v>247</v>
       </c>
       <c r="G129" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>317</v>
       </c>
@@ -4531,10 +4531,10 @@
         <v>249</v>
       </c>
       <c r="G130" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>317</v>
       </c>
@@ -4548,10 +4548,10 @@
         <v>251</v>
       </c>
       <c r="G131" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>317</v>
       </c>
@@ -4565,10 +4565,10 @@
         <v>253</v>
       </c>
       <c r="G132" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>317</v>
       </c>
@@ -4582,10 +4582,10 @@
         <v>255</v>
       </c>
       <c r="G133" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>317</v>
       </c>
@@ -4599,10 +4599,10 @@
         <v>257</v>
       </c>
       <c r="G134" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>317</v>
       </c>
@@ -4616,10 +4616,10 @@
         <v>259</v>
       </c>
       <c r="G135" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>317</v>
       </c>
@@ -4633,10 +4633,10 @@
         <v>261</v>
       </c>
       <c r="G136" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>317</v>
       </c>
@@ -4650,10 +4650,10 @@
         <v>263</v>
       </c>
       <c r="G137" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>317</v>
       </c>
@@ -4667,10 +4667,10 @@
         <v>265</v>
       </c>
       <c r="G138" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>317</v>
       </c>
@@ -4684,10 +4684,10 @@
         <v>267</v>
       </c>
       <c r="G139" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>317</v>
       </c>
@@ -4701,10 +4701,10 @@
         <v>269</v>
       </c>
       <c r="G140" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>317</v>
       </c>
@@ -4718,10 +4718,10 @@
         <v>271</v>
       </c>
       <c r="G141" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>317</v>
       </c>
@@ -4735,10 +4735,10 @@
         <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>317</v>
       </c>
@@ -4752,10 +4752,10 @@
         <v>275</v>
       </c>
       <c r="G143" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>317</v>
       </c>
@@ -4769,10 +4769,10 @@
         <v>277</v>
       </c>
       <c r="G144" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>441</v>
       </c>
@@ -4786,10 +4786,10 @@
         <v>279</v>
       </c>
       <c r="G145" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>441</v>
       </c>
@@ -4803,10 +4803,10 @@
         <v>280</v>
       </c>
       <c r="G146" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>441</v>
       </c>
@@ -4820,10 +4820,10 @@
         <v>282</v>
       </c>
       <c r="G147" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>441</v>
       </c>
@@ -4837,10 +4837,10 @@
         <v>284</v>
       </c>
       <c r="G148" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>441</v>
       </c>
@@ -4854,10 +4854,10 @@
         <v>285</v>
       </c>
       <c r="G149" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>441</v>
       </c>
@@ -4871,10 +4871,10 @@
         <v>287</v>
       </c>
       <c r="G150" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>441</v>
       </c>
@@ -4888,10 +4888,10 @@
         <v>289</v>
       </c>
       <c r="G151" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>441</v>
       </c>
@@ -4905,10 +4905,10 @@
         <v>291</v>
       </c>
       <c r="G152" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>441</v>
       </c>
@@ -4925,10 +4925,10 @@
         <v>314</v>
       </c>
       <c r="G153" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>441</v>
       </c>
@@ -4942,10 +4942,10 @@
         <v>294</v>
       </c>
       <c r="G154" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>441</v>
       </c>
@@ -4962,10 +4962,10 @@
         <v>315</v>
       </c>
       <c r="G155" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>441</v>
       </c>
@@ -4979,10 +4979,10 @@
         <v>298</v>
       </c>
       <c r="G156" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>441</v>
       </c>
@@ -4996,10 +4996,10 @@
         <v>300</v>
       </c>
       <c r="G157" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>441</v>
       </c>
@@ -5016,10 +5016,10 @@
         <v>316</v>
       </c>
       <c r="G158" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="57.35" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>441</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="86" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>441</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>441</v>
       </c>
@@ -5055,19 +5055,19 @@
         <v>474</v>
       </c>
       <c r="C161" t="s">
+        <v>585</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" t="s">
         <v>587</v>
       </c>
-      <c r="F161" t="s">
-        <v>588</v>
-      </c>
       <c r="G161" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>441</v>
       </c>
@@ -5075,19 +5075,19 @@
         <v>474</v>
       </c>
       <c r="C162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F162" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G162" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="86" x14ac:dyDescent="0.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>441</v>
       </c>
@@ -5095,16 +5095,16 @@
         <v>474</v>
       </c>
       <c r="C163" t="s">
+        <v>590</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="F163" t="s">
         <v>592</v>
       </c>
-      <c r="F163" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>459</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>459</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>459</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>459</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>459</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>459</v>
       </c>
@@ -5185,41 +5185,41 @@
         <v>460</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B170" t="s">
+        <v>578</v>
+      </c>
+      <c r="C170" t="s">
         <v>579</v>
       </c>
-      <c r="C170" t="s">
-        <v>580</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F170" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B171" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C171" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F171" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -5233,10 +5233,10 @@
         <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>355</v>
       </c>
@@ -5247,13 +5247,13 @@
         <v>361</v>
       </c>
       <c r="E173" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F173" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>356</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -5278,10 +5278,10 @@
         <v>456</v>
       </c>
       <c r="E175" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>356</v>
       </c>
@@ -5292,13 +5292,13 @@
         <v>321</v>
       </c>
       <c r="E176" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F176" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>356</v>
       </c>
@@ -5312,10 +5312,10 @@
         <v>323</v>
       </c>
       <c r="F177" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>356</v>
       </c>
@@ -5329,10 +5329,10 @@
         <v>325</v>
       </c>
       <c r="F178" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -5346,10 +5346,10 @@
         <v>327</v>
       </c>
       <c r="F179" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -5363,10 +5363,10 @@
         <v>329</v>
       </c>
       <c r="F180" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>356</v>
       </c>
@@ -5380,10 +5380,10 @@
         <v>331</v>
       </c>
       <c r="F181" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>356</v>
       </c>
@@ -5397,10 +5397,10 @@
         <v>333</v>
       </c>
       <c r="F182" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>356</v>
       </c>
@@ -5414,10 +5414,10 @@
         <v>335</v>
       </c>
       <c r="F183" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>356</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>356</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>478</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>478</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>478</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>478</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>478</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>478</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>357</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>357</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>357</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>357</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>357</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>357</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>357</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>357</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>357</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>357</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>357</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>357</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>357</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>357</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>357</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>357</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>357</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>357</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>357</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>357</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>357</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>357</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>357</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>357</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>357</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>357</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>423</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>423</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>423</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>423</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>423</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>423</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>424</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>424</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>424</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>424</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>424</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>464</v>
       </c>
@@ -6286,10 +6286,10 @@
         <v>468</v>
       </c>
       <c r="E235" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>484</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>484</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>466</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>466</v>
       </c>
@@ -6348,10 +6348,10 @@
         <v>468</v>
       </c>
       <c r="E239" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>479</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="129" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>479</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>479</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>479</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>479</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>479</v>
       </c>
@@ -6450,41 +6450,41 @@
         <v>502</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B246" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C246" t="s">
+        <v>574</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F246" t="s">
         <v>575</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F246" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B247" t="s">
+        <v>570</v>
+      </c>
+      <c r="C247" t="s">
         <v>571</v>
       </c>
-      <c r="C247" t="s">
+      <c r="E247" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="F247" t="s">
         <v>573</v>
       </c>
-      <c r="F247" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="100.35" x14ac:dyDescent="0.5">
+    </row>
+    <row r="248" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>479</v>
       </c>
@@ -6495,13 +6495,13 @@
         <v>508</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F248" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="86" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>479</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>479</v>
       </c>
@@ -6529,13 +6529,13 @@
         <v>511</v>
       </c>
       <c r="E250" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F250" t="s">
         <v>569</v>
       </c>
-      <c r="F250" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>479</v>
       </c>
@@ -6546,13 +6546,13 @@
         <v>513</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F251" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>479</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>479</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>479</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>479</v>
       </c>
@@ -6614,13 +6614,13 @@
         <v>529</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="F255" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>479</v>
       </c>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -1753,14 +1753,6 @@
     <t>&lt;link rel="stylesheet" href="@App.Path/dist/AppCatalog.css" data-enableoptimizations="100"/&gt;</t>
   </si>
   <si>
-    <t>@foreach(var ${1:cont} in AsDynamic(Data["${2:Default}"])){
-    &lt;div class="sc-element"&gt;
-        @${1}.EntityTitle
-        @$Edit.Toolbar({1})
-    &lt;/div&gt;
-}</t>
-  </si>
-  <si>
     <t>simple loop to show all items in the default list</t>
   </si>
   <si>
@@ -1873,6 +1865,14 @@
   </si>
   <si>
     <t>@(${1:var}.${2:prop}.Count &gt; 0 ? ${1:var}.${2:prop}[0].EntityTitle : "")</t>
+  </si>
+  <si>
+    <t>@foreach(var ${1:cont} in AsDynamic(Data["${2:Default}"])){
+    &lt;div class="sc-element"&gt;
+        @${1}.EntityTitle
+        @Edit.Toolbar(${1})
+    &lt;/div&gt;
+}</t>
   </si>
 </sst>
 </file>
@@ -1936,20 +1936,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G256" totalsRowShown="0">
-  <autoFilter ref="A1:G256">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="@\InputType"/>
-        <filter val="@C#"/>
-        <filter val="@Html"/>
-        <filter val="@List"/>
-        <filter val="@User"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G256"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2228,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,10 +2250,10 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>477</v>
       </c>
@@ -2286,10 +2273,10 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -2309,10 +2296,10 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>477</v>
       </c>
@@ -2332,10 +2319,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>477</v>
       </c>
@@ -2355,10 +2342,10 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>477</v>
       </c>
@@ -2378,10 +2365,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -2401,10 +2388,10 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>457</v>
       </c>
@@ -2418,13 +2405,13 @@
         <v>547</v>
       </c>
       <c r="F8" t="s">
+        <v>593</v>
+      </c>
+      <c r="G8" t="s">
         <v>594</v>
       </c>
-      <c r="G8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>457</v>
       </c>
@@ -2441,10 +2428,10 @@
         <v>544</v>
       </c>
       <c r="G9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
@@ -2461,10 +2448,10 @@
         <v>551</v>
       </c>
       <c r="G10" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>457</v>
       </c>
@@ -2481,10 +2468,10 @@
         <v>551</v>
       </c>
       <c r="G11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>457</v>
       </c>
@@ -2501,7 +2488,7 @@
         <v>555</v>
       </c>
       <c r="G12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2538,7 +2525,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>458</v>
       </c>
@@ -2549,19 +2536,19 @@
         <v>461</v>
       </c>
       <c r="D15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F15" t="s">
         <v>565</v>
       </c>
-      <c r="F15" t="s">
-        <v>566</v>
-      </c>
       <c r="G15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>317</v>
       </c>
@@ -2575,10 +2562,10 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>317</v>
       </c>
@@ -2592,10 +2579,10 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>317</v>
       </c>
@@ -2609,10 +2596,10 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>317</v>
       </c>
@@ -2626,10 +2613,10 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>317</v>
       </c>
@@ -2643,10 +2630,10 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>317</v>
       </c>
@@ -2660,10 +2647,10 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>317</v>
       </c>
@@ -2677,10 +2664,10 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>317</v>
       </c>
@@ -2694,10 +2681,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>317</v>
       </c>
@@ -2711,10 +2698,10 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>317</v>
       </c>
@@ -2728,10 +2715,10 @@
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>317</v>
       </c>
@@ -2745,10 +2732,10 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>317</v>
       </c>
@@ -2762,10 +2749,10 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
@@ -2779,10 +2766,10 @@
         <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>317</v>
       </c>
@@ -2796,10 +2783,10 @@
         <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>317</v>
       </c>
@@ -2813,10 +2800,10 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>317</v>
       </c>
@@ -2830,10 +2817,10 @@
         <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>317</v>
       </c>
@@ -2847,10 +2834,10 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>317</v>
       </c>
@@ -2864,10 +2851,10 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>317</v>
       </c>
@@ -2881,10 +2868,10 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
@@ -2898,10 +2885,10 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>317</v>
       </c>
@@ -2915,10 +2902,10 @@
         <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>317</v>
       </c>
@@ -2932,10 +2919,10 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>317</v>
       </c>
@@ -2949,10 +2936,10 @@
         <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
@@ -2966,10 +2953,10 @@
         <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>317</v>
       </c>
@@ -2983,10 +2970,10 @@
         <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>317</v>
       </c>
@@ -3000,10 +2987,10 @@
         <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
@@ -3017,10 +3004,10 @@
         <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>317</v>
       </c>
@@ -3034,10 +3021,10 @@
         <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
@@ -3051,10 +3038,10 @@
         <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>317</v>
       </c>
@@ -3068,10 +3055,10 @@
         <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>317</v>
       </c>
@@ -3085,10 +3072,10 @@
         <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>317</v>
       </c>
@@ -3102,10 +3089,10 @@
         <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>317</v>
       </c>
@@ -3119,10 +3106,10 @@
         <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -3136,10 +3123,10 @@
         <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>317</v>
       </c>
@@ -3153,10 +3140,10 @@
         <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>317</v>
       </c>
@@ -3170,10 +3157,10 @@
         <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>317</v>
       </c>
@@ -3187,10 +3174,10 @@
         <v>103</v>
       </c>
       <c r="G52" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>317</v>
       </c>
@@ -3204,10 +3191,10 @@
         <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>317</v>
       </c>
@@ -3221,10 +3208,10 @@
         <v>105</v>
       </c>
       <c r="G54" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>317</v>
       </c>
@@ -3238,10 +3225,10 @@
         <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>317</v>
       </c>
@@ -3255,10 +3242,10 @@
         <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>317</v>
       </c>
@@ -3272,10 +3259,10 @@
         <v>111</v>
       </c>
       <c r="G57" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>317</v>
       </c>
@@ -3289,10 +3276,10 @@
         <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>317</v>
       </c>
@@ -3309,10 +3296,10 @@
         <v>440</v>
       </c>
       <c r="G59" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>317</v>
       </c>
@@ -3326,10 +3313,10 @@
         <v>116</v>
       </c>
       <c r="G60" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>317</v>
       </c>
@@ -3343,10 +3330,10 @@
         <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>317</v>
       </c>
@@ -3360,10 +3347,10 @@
         <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>317</v>
       </c>
@@ -3377,10 +3364,10 @@
         <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>317</v>
       </c>
@@ -3394,10 +3381,10 @@
         <v>124</v>
       </c>
       <c r="G64" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
@@ -3411,10 +3398,10 @@
         <v>126</v>
       </c>
       <c r="G65" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -3428,10 +3415,10 @@
         <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>317</v>
       </c>
@@ -3445,10 +3432,10 @@
         <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>317</v>
       </c>
@@ -3462,10 +3449,10 @@
         <v>132</v>
       </c>
       <c r="G68" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>317</v>
       </c>
@@ -3479,10 +3466,10 @@
         <v>134</v>
       </c>
       <c r="G69" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>317</v>
       </c>
@@ -3496,10 +3483,10 @@
         <v>136</v>
       </c>
       <c r="G70" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>317</v>
       </c>
@@ -3513,10 +3500,10 @@
         <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>317</v>
       </c>
@@ -3530,10 +3517,10 @@
         <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>317</v>
       </c>
@@ -3547,10 +3534,10 @@
         <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>317</v>
       </c>
@@ -3564,10 +3551,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>317</v>
       </c>
@@ -3581,10 +3568,10 @@
         <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>317</v>
       </c>
@@ -3598,10 +3585,10 @@
         <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>317</v>
       </c>
@@ -3615,10 +3602,10 @@
         <v>149</v>
       </c>
       <c r="G77" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>317</v>
       </c>
@@ -3632,10 +3619,10 @@
         <v>151</v>
       </c>
       <c r="G78" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>317</v>
       </c>
@@ -3649,10 +3636,10 @@
         <v>153</v>
       </c>
       <c r="G79" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>317</v>
       </c>
@@ -3666,10 +3653,10 @@
         <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>317</v>
       </c>
@@ -3683,10 +3670,10 @@
         <v>157</v>
       </c>
       <c r="G81" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>317</v>
       </c>
@@ -3700,10 +3687,10 @@
         <v>159</v>
       </c>
       <c r="G82" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>317</v>
       </c>
@@ -3717,10 +3704,10 @@
         <v>160</v>
       </c>
       <c r="G83" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>317</v>
       </c>
@@ -3734,10 +3721,10 @@
         <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>317</v>
       </c>
@@ -3751,10 +3738,10 @@
         <v>163</v>
       </c>
       <c r="G85" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>317</v>
       </c>
@@ -3768,10 +3755,10 @@
         <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
@@ -3785,10 +3772,10 @@
         <v>167</v>
       </c>
       <c r="G87" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>317</v>
       </c>
@@ -3802,10 +3789,10 @@
         <v>169</v>
       </c>
       <c r="G88" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>317</v>
       </c>
@@ -3819,10 +3806,10 @@
         <v>171</v>
       </c>
       <c r="G89" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>317</v>
       </c>
@@ -3836,10 +3823,10 @@
         <v>173</v>
       </c>
       <c r="G90" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>317</v>
       </c>
@@ -3853,10 +3840,10 @@
         <v>175</v>
       </c>
       <c r="G91" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>317</v>
       </c>
@@ -3870,10 +3857,10 @@
         <v>176</v>
       </c>
       <c r="G92" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>317</v>
       </c>
@@ -3887,10 +3874,10 @@
         <v>178</v>
       </c>
       <c r="G93" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>317</v>
       </c>
@@ -3904,10 +3891,10 @@
         <v>180</v>
       </c>
       <c r="G94" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>317</v>
       </c>
@@ -3921,10 +3908,10 @@
         <v>182</v>
       </c>
       <c r="G95" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>317</v>
       </c>
@@ -3938,10 +3925,10 @@
         <v>184</v>
       </c>
       <c r="G96" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>317</v>
       </c>
@@ -3955,10 +3942,10 @@
         <v>186</v>
       </c>
       <c r="G97" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>317</v>
       </c>
@@ -3972,10 +3959,10 @@
         <v>188</v>
       </c>
       <c r="G98" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>317</v>
       </c>
@@ -3989,10 +3976,10 @@
         <v>189</v>
       </c>
       <c r="G99" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>317</v>
       </c>
@@ -4006,10 +3993,10 @@
         <v>191</v>
       </c>
       <c r="G100" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>317</v>
       </c>
@@ -4026,10 +4013,10 @@
         <v>309</v>
       </c>
       <c r="G101" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>317</v>
       </c>
@@ -4046,10 +4033,10 @@
         <v>310</v>
       </c>
       <c r="G102" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
@@ -4063,10 +4050,10 @@
         <v>197</v>
       </c>
       <c r="G103" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>317</v>
       </c>
@@ -4080,10 +4067,10 @@
         <v>199</v>
       </c>
       <c r="G104" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>317</v>
       </c>
@@ -4097,10 +4084,10 @@
         <v>201</v>
       </c>
       <c r="G105" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>317</v>
       </c>
@@ -4114,10 +4101,10 @@
         <v>203</v>
       </c>
       <c r="G106" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>317</v>
       </c>
@@ -4131,10 +4118,10 @@
         <v>204</v>
       </c>
       <c r="G107" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>317</v>
       </c>
@@ -4148,10 +4135,10 @@
         <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>317</v>
       </c>
@@ -4165,10 +4152,10 @@
         <v>208</v>
       </c>
       <c r="G109" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>317</v>
       </c>
@@ -4182,10 +4169,10 @@
         <v>210</v>
       </c>
       <c r="G110" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>317</v>
       </c>
@@ -4199,10 +4186,10 @@
         <v>212</v>
       </c>
       <c r="G111" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>317</v>
       </c>
@@ -4216,10 +4203,10 @@
         <v>214</v>
       </c>
       <c r="G112" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>317</v>
       </c>
@@ -4233,10 +4220,10 @@
         <v>216</v>
       </c>
       <c r="G113" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>317</v>
       </c>
@@ -4250,10 +4237,10 @@
         <v>218</v>
       </c>
       <c r="G114" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>317</v>
       </c>
@@ -4267,10 +4254,10 @@
         <v>220</v>
       </c>
       <c r="G115" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>317</v>
       </c>
@@ -4287,10 +4274,10 @@
         <v>311</v>
       </c>
       <c r="G116" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>317</v>
       </c>
@@ -4304,10 +4291,10 @@
         <v>223</v>
       </c>
       <c r="G117" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>317</v>
       </c>
@@ -4324,10 +4311,10 @@
         <v>312</v>
       </c>
       <c r="G118" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>317</v>
       </c>
@@ -4341,10 +4328,10 @@
         <v>227</v>
       </c>
       <c r="G119" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>317</v>
       </c>
@@ -4358,10 +4345,10 @@
         <v>229</v>
       </c>
       <c r="G120" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>317</v>
       </c>
@@ -4375,10 +4362,10 @@
         <v>231</v>
       </c>
       <c r="G121" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>317</v>
       </c>
@@ -4392,10 +4379,10 @@
         <v>233</v>
       </c>
       <c r="G122" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>317</v>
       </c>
@@ -4409,10 +4396,10 @@
         <v>235</v>
       </c>
       <c r="G123" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>317</v>
       </c>
@@ -4426,10 +4413,10 @@
         <v>237</v>
       </c>
       <c r="G124" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>317</v>
       </c>
@@ -4443,10 +4430,10 @@
         <v>239</v>
       </c>
       <c r="G125" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4460,10 +4447,10 @@
         <v>241</v>
       </c>
       <c r="G126" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>317</v>
       </c>
@@ -4477,10 +4464,10 @@
         <v>243</v>
       </c>
       <c r="G127" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>317</v>
       </c>
@@ -4497,10 +4484,10 @@
         <v>313</v>
       </c>
       <c r="G128" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>317</v>
       </c>
@@ -4514,10 +4501,10 @@
         <v>247</v>
       </c>
       <c r="G129" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>317</v>
       </c>
@@ -4531,10 +4518,10 @@
         <v>249</v>
       </c>
       <c r="G130" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>317</v>
       </c>
@@ -4548,10 +4535,10 @@
         <v>251</v>
       </c>
       <c r="G131" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>317</v>
       </c>
@@ -4565,10 +4552,10 @@
         <v>253</v>
       </c>
       <c r="G132" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>317</v>
       </c>
@@ -4582,10 +4569,10 @@
         <v>255</v>
       </c>
       <c r="G133" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>317</v>
       </c>
@@ -4599,10 +4586,10 @@
         <v>257</v>
       </c>
       <c r="G134" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>317</v>
       </c>
@@ -4616,10 +4603,10 @@
         <v>259</v>
       </c>
       <c r="G135" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>317</v>
       </c>
@@ -4633,10 +4620,10 @@
         <v>261</v>
       </c>
       <c r="G136" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>317</v>
       </c>
@@ -4650,10 +4637,10 @@
         <v>263</v>
       </c>
       <c r="G137" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>317</v>
       </c>
@@ -4667,10 +4654,10 @@
         <v>265</v>
       </c>
       <c r="G138" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>317</v>
       </c>
@@ -4684,10 +4671,10 @@
         <v>267</v>
       </c>
       <c r="G139" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>317</v>
       </c>
@@ -4701,10 +4688,10 @@
         <v>269</v>
       </c>
       <c r="G140" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>317</v>
       </c>
@@ -4718,10 +4705,10 @@
         <v>271</v>
       </c>
       <c r="G141" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>317</v>
       </c>
@@ -4735,10 +4722,10 @@
         <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>317</v>
       </c>
@@ -4752,10 +4739,10 @@
         <v>275</v>
       </c>
       <c r="G143" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>317</v>
       </c>
@@ -4769,10 +4756,10 @@
         <v>277</v>
       </c>
       <c r="G144" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>441</v>
       </c>
@@ -4786,10 +4773,10 @@
         <v>279</v>
       </c>
       <c r="G145" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>441</v>
       </c>
@@ -4803,10 +4790,10 @@
         <v>280</v>
       </c>
       <c r="G146" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>441</v>
       </c>
@@ -4820,10 +4807,10 @@
         <v>282</v>
       </c>
       <c r="G147" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>441</v>
       </c>
@@ -4837,10 +4824,10 @@
         <v>284</v>
       </c>
       <c r="G148" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>441</v>
       </c>
@@ -4854,10 +4841,10 @@
         <v>285</v>
       </c>
       <c r="G149" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>441</v>
       </c>
@@ -4871,10 +4858,10 @@
         <v>287</v>
       </c>
       <c r="G150" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>441</v>
       </c>
@@ -4888,10 +4875,10 @@
         <v>289</v>
       </c>
       <c r="G151" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>441</v>
       </c>
@@ -4905,10 +4892,10 @@
         <v>291</v>
       </c>
       <c r="G152" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>441</v>
       </c>
@@ -4925,10 +4912,10 @@
         <v>314</v>
       </c>
       <c r="G153" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>441</v>
       </c>
@@ -4942,10 +4929,10 @@
         <v>294</v>
       </c>
       <c r="G154" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>441</v>
       </c>
@@ -4962,10 +4949,10 @@
         <v>315</v>
       </c>
       <c r="G155" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>441</v>
       </c>
@@ -4979,10 +4966,10 @@
         <v>298</v>
       </c>
       <c r="G156" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>441</v>
       </c>
@@ -4996,10 +4983,10 @@
         <v>300</v>
       </c>
       <c r="G157" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>441</v>
       </c>
@@ -5016,7 +5003,7 @@
         <v>316</v>
       </c>
       <c r="G158" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5047,7 +5034,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>441</v>
       </c>
@@ -5055,19 +5042,19 @@
         <v>474</v>
       </c>
       <c r="C161" t="s">
+        <v>584</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" t="s">
         <v>586</v>
       </c>
-      <c r="F161" t="s">
-        <v>587</v>
-      </c>
       <c r="G161" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>441</v>
       </c>
@@ -5075,16 +5062,16 @@
         <v>474</v>
       </c>
       <c r="C162" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5095,13 +5082,13 @@
         <v>474</v>
       </c>
       <c r="C163" t="s">
+        <v>589</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="F163" t="s">
         <v>591</v>
-      </c>
-      <c r="F163" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5190,16 +5177,16 @@
         <v>459</v>
       </c>
       <c r="B170" t="s">
+        <v>577</v>
+      </c>
+      <c r="C170" t="s">
         <v>578</v>
       </c>
-      <c r="C170" t="s">
-        <v>579</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F170" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5207,19 +5194,19 @@
         <v>459</v>
       </c>
       <c r="B171" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C171" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F171" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -5236,7 +5223,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>355</v>
       </c>
@@ -5253,7 +5240,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>356</v>
       </c>
@@ -5267,7 +5254,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -5281,7 +5268,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>356</v>
       </c>
@@ -5298,7 +5285,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>356</v>
       </c>
@@ -5315,7 +5302,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>356</v>
       </c>
@@ -5332,7 +5319,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -5349,7 +5336,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -5366,7 +5353,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>356</v>
       </c>
@@ -5383,7 +5370,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>356</v>
       </c>
@@ -5400,7 +5387,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>356</v>
       </c>
@@ -5417,7 +5404,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>356</v>
       </c>
@@ -5431,7 +5418,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>356</v>
       </c>
@@ -5445,7 +5432,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>478</v>
       </c>
@@ -5462,7 +5449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>478</v>
       </c>
@@ -5479,7 +5466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>478</v>
       </c>
@@ -5496,7 +5483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>478</v>
       </c>
@@ -5513,7 +5500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>478</v>
       </c>
@@ -5530,7 +5517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>478</v>
       </c>
@@ -5547,7 +5534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>357</v>
       </c>
@@ -5564,7 +5551,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>357</v>
       </c>
@@ -5581,7 +5568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>357</v>
       </c>
@@ -5598,7 +5585,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>357</v>
       </c>
@@ -5615,7 +5602,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>357</v>
       </c>
@@ -5632,7 +5619,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>357</v>
       </c>
@@ -5649,7 +5636,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>357</v>
       </c>
@@ -5666,7 +5653,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>357</v>
       </c>
@@ -5683,7 +5670,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>357</v>
       </c>
@@ -5700,7 +5687,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>357</v>
       </c>
@@ -5717,7 +5704,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>357</v>
       </c>
@@ -5734,7 +5721,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>357</v>
       </c>
@@ -5751,7 +5738,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>357</v>
       </c>
@@ -5768,7 +5755,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>357</v>
       </c>
@@ -5785,7 +5772,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>357</v>
       </c>
@@ -5802,7 +5789,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>357</v>
       </c>
@@ -5819,7 +5806,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -5836,7 +5823,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -5853,7 +5840,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>357</v>
       </c>
@@ -5870,7 +5857,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>357</v>
       </c>
@@ -5887,7 +5874,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>357</v>
       </c>
@@ -5904,7 +5891,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -5921,7 +5908,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>357</v>
       </c>
@@ -5938,7 +5925,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>357</v>
       </c>
@@ -5955,7 +5942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>357</v>
       </c>
@@ -5972,7 +5959,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>357</v>
       </c>
@@ -5989,7 +5976,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>357</v>
       </c>
@@ -6006,7 +5993,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -6023,7 +6010,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>357</v>
       </c>
@@ -6040,7 +6027,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>357</v>
       </c>
@@ -6057,7 +6044,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -6074,7 +6061,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>423</v>
       </c>
@@ -6091,7 +6078,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>423</v>
       </c>
@@ -6108,7 +6095,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>423</v>
       </c>
@@ -6125,7 +6112,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>423</v>
       </c>
@@ -6142,7 +6129,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>423</v>
       </c>
@@ -6159,7 +6146,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>423</v>
       </c>
@@ -6176,7 +6163,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>424</v>
       </c>
@@ -6193,7 +6180,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>424</v>
       </c>
@@ -6210,7 +6197,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>424</v>
       </c>
@@ -6227,7 +6214,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>424</v>
       </c>
@@ -6244,7 +6231,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>424</v>
       </c>
@@ -6261,7 +6248,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -6275,7 +6262,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>464</v>
       </c>
@@ -6289,7 +6276,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>484</v>
       </c>
@@ -6306,7 +6293,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>484</v>
       </c>
@@ -6455,16 +6442,16 @@
         <v>479</v>
       </c>
       <c r="B246" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C246" t="s">
+        <v>573</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F246" t="s">
         <v>574</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F246" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6472,16 +6459,16 @@
         <v>479</v>
       </c>
       <c r="B247" t="s">
+        <v>569</v>
+      </c>
+      <c r="C247" t="s">
         <v>570</v>
       </c>
-      <c r="C247" t="s">
+      <c r="E247" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="F247" t="s">
         <v>572</v>
-      </c>
-      <c r="F247" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6529,10 +6516,10 @@
         <v>511</v>
       </c>
       <c r="E250" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F250" t="s">
         <v>568</v>
-      </c>
-      <c r="F250" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6614,7 +6601,7 @@
         <v>529</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F255" t="s">
         <v>530</v>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="612">
   <si>
     <t>set</t>
   </si>
@@ -1724,9 +1724,6 @@
     <t>Toolbar for an item</t>
   </si>
   <si>
-    <t>ToolbarFloat for an item</t>
-  </si>
-  <si>
     <t>Toolbar for item with edit / replace only</t>
   </si>
   <si>
@@ -1873,6 +1870,53 @@
         @Edit.Toolbar(${1})
     &lt;/div&gt;
 }</t>
+  </si>
+  <si>
+    <t>Toolbar float for an item</t>
+  </si>
+  <si>
+    <t>Toolbar float left</t>
+  </si>
+  <si>
+    <t>&lt;div class="sc-element"&gt;
+    @Edit.Toolbar(${1:Content}, settings: new { hover = "left" })
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Toolbar hover right all the time</t>
+  </si>
+  <si>
+    <t>&lt;div class="sc-element"&gt;
+    @Edit.Toolbar(${1:Content}, settings: new { show = "always" })
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sc-element"&gt;
+    @Edit.Toolbar(${1:Content}, settings: new { hover = "none" })
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Toolbar floating left</t>
+  </si>
+  <si>
+    <t>Toolbar floating right, always (not waiting for mouse-over)</t>
+  </si>
+  <si>
+    <t>Toolbar not floating, even if within an sc-element tag</t>
+  </si>
+  <si>
+    <t>Toolbar inline (force no-hover)</t>
+  </si>
+  <si>
+    <t>Toolbar w/custom CSS-classes</t>
+  </si>
+  <si>
+    <t>Add custom css-classes to the toolbar</t>
+  </si>
+  <si>
+    <t>&lt;div class="sc-element"&gt;
+    @Edit.Toolbar(${1:Content}, settings: new { classes = "${2:myCustomCssClass,anotherClass}" })
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1979,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G256" totalsRowShown="0">
-  <autoFilter ref="A1:G256"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G260" totalsRowShown="0">
+  <autoFilter ref="A1:G260"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2213,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,7 +2317,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,7 +2340,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2319,7 +2363,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2342,7 +2386,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,7 +2409,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,7 +2432,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2405,10 +2449,10 @@
         <v>547</v>
       </c>
       <c r="F8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8" t="s">
         <v>593</v>
-      </c>
-      <c r="G8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2419,7 +2463,7 @@
         <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>548</v>
@@ -2428,10 +2472,10 @@
         <v>544</v>
       </c>
       <c r="G9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
@@ -2439,19 +2483,19 @@
         <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>553</v>
+        <v>600</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="F10" t="s">
-        <v>551</v>
+        <v>605</v>
       </c>
       <c r="G10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>457</v>
       </c>
@@ -2459,19 +2503,19 @@
         <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>552</v>
+        <v>602</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="F11" t="s">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="G11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>457</v>
       </c>
@@ -2479,141 +2523,153 @@
         <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>560</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>554</v>
+        <v>608</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="F12" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="G12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>549</v>
+        <v>609</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="G13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" t="s">
+        <v>551</v>
+      </c>
+      <c r="G14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>461</v>
-      </c>
-      <c r="D15" t="s">
-        <v>566</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>599</v>
+        <v>558</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="F15" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="G15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>317</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
+        <v>559</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F16" t="s">
+        <v>555</v>
       </c>
       <c r="G16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="D17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
+        <v>461</v>
+      </c>
+      <c r="D19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F19" t="s">
+        <v>564</v>
       </c>
       <c r="G19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2624,13 +2680,13 @@
         <v>303</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2641,13 +2697,13 @@
         <v>303</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2658,13 +2714,13 @@
         <v>303</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,13 +2731,13 @@
         <v>303</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,13 +2748,13 @@
         <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,13 +2765,13 @@
         <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2726,13 +2782,13 @@
         <v>303</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,13 +2799,13 @@
         <v>303</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,13 +2816,13 @@
         <v>303</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,13 +2833,13 @@
         <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,13 +2850,13 @@
         <v>303</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,13 +2867,13 @@
         <v>303</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,13 +2884,13 @@
         <v>303</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,13 +2901,13 @@
         <v>303</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2862,13 +2918,13 @@
         <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,13 +2935,13 @@
         <v>303</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,13 +2952,13 @@
         <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,13 +2969,13 @@
         <v>303</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2930,13 +2986,13 @@
         <v>303</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2947,13 +3003,13 @@
         <v>303</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2964,13 +3020,13 @@
         <v>303</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2981,13 +3037,13 @@
         <v>303</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,13 +3054,13 @@
         <v>303</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3015,13 +3071,13 @@
         <v>303</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3032,13 +3088,13 @@
         <v>303</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,13 +3105,13 @@
         <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,13 +3122,13 @@
         <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,13 +3139,13 @@
         <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3100,13 +3156,13 @@
         <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3117,13 +3173,13 @@
         <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,13 +3190,13 @@
         <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,13 +3207,13 @@
         <v>303</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,16 +3221,16 @@
         <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3182,16 +3238,16 @@
         <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3199,16 +3255,16 @@
         <v>317</v>
       </c>
       <c r="B54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3216,16 +3272,16 @@
         <v>317</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3236,13 +3292,13 @@
         <v>304</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,13 +3309,13 @@
         <v>304</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,13 +3326,13 @@
         <v>304</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3287,16 +3343,13 @@
         <v>304</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" t="s">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,13 +3360,13 @@
         <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,13 +3377,13 @@
         <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,13 +3394,13 @@
         <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,13 +3411,16 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
+        <v>440</v>
       </c>
       <c r="G63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,13 +3431,13 @@
         <v>304</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,13 +3448,13 @@
         <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,13 +3465,13 @@
         <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,13 +3482,13 @@
         <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3443,13 +3499,13 @@
         <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,13 +3516,13 @@
         <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3477,13 +3533,13 @@
         <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3494,13 +3550,13 @@
         <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G71" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,13 +3567,13 @@
         <v>304</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3528,13 +3584,13 @@
         <v>304</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G73" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3545,13 +3601,13 @@
         <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G74" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3562,13 +3618,13 @@
         <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3579,13 +3635,13 @@
         <v>304</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3596,13 +3652,13 @@
         <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3613,13 +3669,13 @@
         <v>304</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G78" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3630,13 +3686,13 @@
         <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G79" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3647,13 +3703,13 @@
         <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G80" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,13 +3720,13 @@
         <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G81" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,13 +3737,13 @@
         <v>304</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,13 +3754,13 @@
         <v>304</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3715,13 +3771,13 @@
         <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G84" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,13 +3788,13 @@
         <v>304</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G85" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,13 +3805,13 @@
         <v>304</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G86" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3766,13 +3822,13 @@
         <v>304</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G87" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3783,13 +3839,13 @@
         <v>304</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G88" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3800,13 +3856,13 @@
         <v>304</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3817,13 +3873,13 @@
         <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3834,13 +3890,13 @@
         <v>304</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G91" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,13 +3907,13 @@
         <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G92" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3868,13 +3924,13 @@
         <v>304</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G93" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,16 +3938,16 @@
         <v>317</v>
       </c>
       <c r="B94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G94" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,16 +3955,16 @@
         <v>317</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G95" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3916,16 +3972,16 @@
         <v>317</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="E96" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3933,16 +3989,16 @@
         <v>317</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G97" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3953,13 +4009,13 @@
         <v>305</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,13 +4026,13 @@
         <v>305</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3987,13 +4043,13 @@
         <v>305</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4004,16 +4060,13 @@
         <v>305</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="G101" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4024,16 +4077,13 @@
         <v>305</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="G102" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,13 +4094,13 @@
         <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G103" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4061,13 +4111,13 @@
         <v>305</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G104" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,13 +4128,16 @@
         <v>305</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="F105" t="s">
+        <v>309</v>
       </c>
       <c r="G105" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,13 +4148,16 @@
         <v>305</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="F106" t="s">
+        <v>310</v>
       </c>
       <c r="G106" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,13 +4168,13 @@
         <v>305</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="E107" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4129,13 +4185,13 @@
         <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G108" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4146,13 +4202,13 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E109" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G109" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4163,13 +4219,13 @@
         <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G110" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,13 +4236,13 @@
         <v>305</v>
       </c>
       <c r="C111" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G111" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,13 +4253,13 @@
         <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E112" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G112" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,13 +4270,13 @@
         <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E113" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G113" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4231,13 +4287,13 @@
         <v>305</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E114" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G114" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,13 +4304,13 @@
         <v>305</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E115" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,16 +4321,13 @@
         <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E116" t="s">
-        <v>222</v>
-      </c>
-      <c r="F116" t="s">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="G116" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,13 +4338,13 @@
         <v>305</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,16 +4355,13 @@
         <v>305</v>
       </c>
       <c r="C118" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="G118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4322,13 +4372,13 @@
         <v>305</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G119" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4339,13 +4389,16 @@
         <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="F120" t="s">
+        <v>311</v>
       </c>
       <c r="G120" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4356,13 +4409,13 @@
         <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G121" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4373,13 +4426,16 @@
         <v>305</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="F122" t="s">
+        <v>312</v>
       </c>
       <c r="G122" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4390,13 +4446,13 @@
         <v>305</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G123" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,13 +4463,13 @@
         <v>305</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4424,13 +4480,13 @@
         <v>305</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G125" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4441,13 +4497,13 @@
         <v>305</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G126" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4458,13 +4514,13 @@
         <v>305</v>
       </c>
       <c r="C127" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G127" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4475,16 +4531,13 @@
         <v>305</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="G128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4495,13 +4548,13 @@
         <v>305</v>
       </c>
       <c r="C129" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G129" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4512,13 +4565,13 @@
         <v>305</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G130" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4529,13 +4582,13 @@
         <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4546,13 +4599,16 @@
         <v>305</v>
       </c>
       <c r="C132" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>245</v>
+      </c>
+      <c r="F132" t="s">
+        <v>313</v>
       </c>
       <c r="G132" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,13 +4619,13 @@
         <v>305</v>
       </c>
       <c r="C133" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G133" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4580,13 +4636,13 @@
         <v>305</v>
       </c>
       <c r="C134" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4597,13 +4653,13 @@
         <v>305</v>
       </c>
       <c r="C135" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G135" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,13 +4670,13 @@
         <v>305</v>
       </c>
       <c r="C136" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4631,13 +4687,13 @@
         <v>305</v>
       </c>
       <c r="C137" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G137" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4648,13 +4704,13 @@
         <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G138" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,13 +4721,13 @@
         <v>305</v>
       </c>
       <c r="C139" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G139" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4682,13 +4738,13 @@
         <v>305</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G140" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,13 +4755,13 @@
         <v>305</v>
       </c>
       <c r="C141" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G141" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4716,13 +4772,13 @@
         <v>305</v>
       </c>
       <c r="C142" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G142" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4733,13 +4789,13 @@
         <v>305</v>
       </c>
       <c r="C143" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G143" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4750,81 +4806,81 @@
         <v>305</v>
       </c>
       <c r="C144" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G144" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C145" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G145" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C146" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="E146" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G146" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B147" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C147" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E147" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G147" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B148" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C148" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E148" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G148" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4835,13 +4891,13 @@
         <v>425</v>
       </c>
       <c r="C149" t="s">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G149" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4852,13 +4908,13 @@
         <v>425</v>
       </c>
       <c r="C150" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G150" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4869,13 +4925,13 @@
         <v>425</v>
       </c>
       <c r="C151" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,13 +4942,13 @@
         <v>425</v>
       </c>
       <c r="C152" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G152" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4903,16 +4959,13 @@
         <v>425</v>
       </c>
       <c r="C153" t="s">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="G153" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,13 +4976,13 @@
         <v>425</v>
       </c>
       <c r="C154" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E154" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G154" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,16 +4993,13 @@
         <v>425</v>
       </c>
       <c r="C155" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E155" t="s">
-        <v>296</v>
-      </c>
-      <c r="F155" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="G155" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,13 +5010,13 @@
         <v>425</v>
       </c>
       <c r="C156" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E156" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G156" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4977,13 +5027,16 @@
         <v>425</v>
       </c>
       <c r="C157" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E157" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="F157" t="s">
+        <v>314</v>
       </c>
       <c r="G157" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,47 +5044,53 @@
         <v>441</v>
       </c>
       <c r="B158" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C158" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="E158" t="s">
-        <v>302</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G158" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B159" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C159" t="s">
-        <v>475</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E159" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" t="s">
+        <v>315</v>
+      </c>
+      <c r="G159" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>503</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>504</v>
+        <v>297</v>
+      </c>
+      <c r="E160" t="s">
+        <v>298</v>
+      </c>
+      <c r="G160" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5039,19 +5098,16 @@
         <v>441</v>
       </c>
       <c r="B161" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C161" t="s">
-        <v>584</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F161" t="s">
-        <v>586</v>
+        <v>299</v>
+      </c>
+      <c r="E161" t="s">
+        <v>300</v>
       </c>
       <c r="G161" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5059,22 +5115,22 @@
         <v>441</v>
       </c>
       <c r="B162" t="s">
-        <v>474</v>
+        <v>306</v>
       </c>
       <c r="C162" t="s">
-        <v>587</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+      <c r="E162" t="s">
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>588</v>
+        <v>316</v>
       </c>
       <c r="G162" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>441</v>
       </c>
@@ -5082,75 +5138,84 @@
         <v>474</v>
       </c>
       <c r="C163" t="s">
-        <v>589</v>
+        <v>475</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F163" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B164" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C164" t="s">
-        <v>471</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B165" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C165" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="F165" t="s">
-        <v>524</v>
+        <v>585</v>
+      </c>
+      <c r="G165" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C166" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F166" t="s">
+        <v>587</v>
+      </c>
+      <c r="G166" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B167" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C167" t="s">
-        <v>469</v>
+        <v>588</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="F167" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>459</v>
       </c>
@@ -5158,148 +5223,145 @@
         <v>460</v>
       </c>
       <c r="C168" t="s">
-        <v>472</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B169" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>519</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F169" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B170" t="s">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="C170" t="s">
-        <v>578</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F170" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B171" t="s">
+        <v>460</v>
+      </c>
+      <c r="C171" t="s">
+        <v>469</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B172" t="s">
+        <v>460</v>
+      </c>
+      <c r="C172" t="s">
+        <v>472</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B173" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B174" t="s">
+        <v>576</v>
+      </c>
+      <c r="C174" t="s">
         <v>577</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E174" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="F174" t="s">
         <v>582</v>
       </c>
-      <c r="F171" t="s">
+    </row>
+    <row r="175" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B175" t="s">
+        <v>576</v>
+      </c>
+      <c r="C175" t="s">
+        <v>578</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>355</v>
-      </c>
-      <c r="B172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C172" t="s">
-        <v>360</v>
-      </c>
-      <c r="E172" t="s">
-        <v>319</v>
-      </c>
-      <c r="F172" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>355</v>
-      </c>
-      <c r="B173" t="s">
-        <v>359</v>
-      </c>
-      <c r="C173" t="s">
-        <v>361</v>
-      </c>
-      <c r="E173" t="s">
-        <v>535</v>
-      </c>
-      <c r="F173" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>356</v>
-      </c>
-      <c r="B174" t="s">
-        <v>58</v>
-      </c>
-      <c r="C174" t="s">
-        <v>455</v>
-      </c>
-      <c r="E174" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" t="s">
-        <v>58</v>
-      </c>
-      <c r="C175" t="s">
-        <v>456</v>
-      </c>
-      <c r="E175" t="s">
-        <v>536</v>
+      <c r="F175" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C176" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="E176" t="s">
-        <v>534</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B177" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C177" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>535</v>
       </c>
       <c r="F177" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,16 +5369,13 @@
         <v>356</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
-      </c>
-      <c r="F178" t="s">
-        <v>542</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5324,16 +5383,13 @@
         <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>326</v>
+        <v>456</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
-      </c>
-      <c r="F179" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5341,16 +5397,16 @@
         <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C180" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>534</v>
       </c>
       <c r="F180" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5361,13 +5417,13 @@
         <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F181" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,13 +5434,13 @@
         <v>358</v>
       </c>
       <c r="C182" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F182" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5395,13 +5451,13 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E183" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F183" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5412,10 +5468,13 @@
         <v>358</v>
       </c>
       <c r="C184" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>329</v>
+      </c>
+      <c r="F184" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5426,78 +5485,75 @@
         <v>358</v>
       </c>
       <c r="C185" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>331</v>
+      </c>
+      <c r="F185" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="E186" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F186" t="s">
-        <v>28</v>
+        <v>545</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C187" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F187" t="s">
-        <v>27</v>
+        <v>546</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="E188" t="s">
-        <v>342</v>
-      </c>
-      <c r="F188" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="E189" t="s">
-        <v>343</v>
-      </c>
-      <c r="F189" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5508,13 +5564,13 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,81 +5581,81 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E191" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B192" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="E192" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="F192" t="s">
-        <v>388</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B193" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="F193" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B194" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="E194" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="F194" t="s">
-        <v>392</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="E195" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F195" t="s">
-        <v>394</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5610,13 +5666,13 @@
         <v>303</v>
       </c>
       <c r="C196" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E196" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,13 +5683,13 @@
         <v>303</v>
       </c>
       <c r="C197" t="s">
-        <v>428</v>
+        <v>54</v>
       </c>
       <c r="E197" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,13 +5700,13 @@
         <v>303</v>
       </c>
       <c r="C198" t="s">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="E198" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5661,13 +5717,13 @@
         <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>174</v>
+        <v>426</v>
       </c>
       <c r="E199" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5678,13 +5734,13 @@
         <v>303</v>
       </c>
       <c r="C200" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E200" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5695,13 +5751,13 @@
         <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
       <c r="E201" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5709,16 +5765,16 @@
         <v>357</v>
       </c>
       <c r="B202" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C202" t="s">
-        <v>112</v>
+        <v>427</v>
       </c>
       <c r="E202" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5726,16 +5782,16 @@
         <v>357</v>
       </c>
       <c r="B203" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C203" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E203" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5743,16 +5799,16 @@
         <v>357</v>
       </c>
       <c r="B204" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E204" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="F204" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5760,16 +5816,16 @@
         <v>357</v>
       </c>
       <c r="B205" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>427</v>
+        <v>90</v>
       </c>
       <c r="E205" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5780,13 +5836,13 @@
         <v>304</v>
       </c>
       <c r="C206" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E206" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F206" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5797,13 +5853,13 @@
         <v>304</v>
       </c>
       <c r="C207" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="E207" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F207" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5814,13 +5870,13 @@
         <v>304</v>
       </c>
       <c r="C208" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E208" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F208" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,13 +5887,13 @@
         <v>304</v>
       </c>
       <c r="C209" t="s">
-        <v>162</v>
+        <v>427</v>
       </c>
       <c r="E209" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F209" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5848,13 +5904,13 @@
         <v>304</v>
       </c>
       <c r="C210" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E210" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F210" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,13 +5921,13 @@
         <v>304</v>
       </c>
       <c r="C211" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E211" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F211" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5882,13 +5938,13 @@
         <v>304</v>
       </c>
       <c r="C212" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="E212" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F212" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5896,16 +5952,16 @@
         <v>357</v>
       </c>
       <c r="B213" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C213" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E213" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="F213" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5913,16 +5969,16 @@
         <v>357</v>
       </c>
       <c r="B214" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C214" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="E214" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="F214" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5930,16 +5986,16 @@
         <v>357</v>
       </c>
       <c r="B215" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C215" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E215" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F215" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5947,16 +6003,16 @@
         <v>357</v>
       </c>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C216" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E216" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="F216" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5967,13 +6023,13 @@
         <v>305</v>
       </c>
       <c r="C217" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E217" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F217" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5984,13 +6040,13 @@
         <v>305</v>
       </c>
       <c r="C218" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="E218" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6001,13 +6057,13 @@
         <v>305</v>
       </c>
       <c r="C219" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="E219" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F219" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6018,13 +6074,13 @@
         <v>305</v>
       </c>
       <c r="C220" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E220" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,81 +6091,81 @@
         <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="E221" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F221" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="F222" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B223" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C223" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C224" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B225" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C225" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6120,13 +6176,13 @@
         <v>425</v>
       </c>
       <c r="C226" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,13 +6193,13 @@
         <v>425</v>
       </c>
       <c r="C227" t="s">
-        <v>430</v>
+        <v>205</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6151,84 +6207,84 @@
         <v>423</v>
       </c>
       <c r="B228" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C228" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B229" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C229" t="s">
-        <v>429</v>
+        <v>283</v>
       </c>
       <c r="E229" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F229" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B230" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C230" t="s">
-        <v>443</v>
+        <v>290</v>
       </c>
       <c r="E230" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="F230" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B231" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C231" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E231" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="F231" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B232" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="C232" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="E232" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="F232" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6236,83 +6292,89 @@
         <v>424</v>
       </c>
       <c r="B233" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C233" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B234" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C234" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>444</v>
+      </c>
+      <c r="F234" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>464</v>
+      <c r="A235" t="s">
+        <v>424</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C235" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="E235" t="s">
-        <v>563</v>
+        <v>446</v>
+      </c>
+      <c r="F235" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>484</v>
+      <c r="A236" t="s">
+        <v>424</v>
       </c>
       <c r="B236" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C236" t="s">
-        <v>482</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>495</v>
+        <v>449</v>
+      </c>
+      <c r="E236" t="s">
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="B237" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C237" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="E237" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>466</v>
+      <c r="A238" t="s">
+        <v>464</v>
       </c>
       <c r="B238" t="s">
         <v>462</v>
@@ -6321,12 +6383,12 @@
         <v>463</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B239" t="s">
         <v>462</v>
@@ -6335,123 +6397,117 @@
         <v>468</v>
       </c>
       <c r="E239" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B240" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C240" t="s">
-        <v>488</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="F240" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>484</v>
       </c>
       <c r="B241" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C241" t="s">
-        <v>489</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
+      </c>
+      <c r="E241" t="s">
+        <v>496</v>
       </c>
       <c r="F241" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B242" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C242" t="s">
-        <v>491</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>492</v>
+        <v>463</v>
+      </c>
+      <c r="E242" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B243" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C243" t="s">
-        <v>482</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F243" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="E243" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C244" t="s">
-        <v>483</v>
-      </c>
-      <c r="E244" t="s">
-        <v>494</v>
+        <v>488</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B245" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C245" t="s">
-        <v>500</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="F245" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B246" t="s">
-        <v>576</v>
+        <v>480</v>
       </c>
       <c r="C246" t="s">
-        <v>573</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F246" t="s">
-        <v>574</v>
+        <v>491</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,67 +6515,67 @@
         <v>479</v>
       </c>
       <c r="B247" t="s">
-        <v>569</v>
+        <v>481</v>
       </c>
       <c r="C247" t="s">
-        <v>570</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>571</v>
+        <v>482</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="F247" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B248" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C248" t="s">
-        <v>508</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>562</v>
+        <v>483</v>
+      </c>
+      <c r="E248" t="s">
+        <v>494</v>
       </c>
       <c r="F248" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B249" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C249" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="F249" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B250" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="C250" t="s">
-        <v>511</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>567</v>
+        <v>572</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="F250" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6527,53 +6583,53 @@
         <v>479</v>
       </c>
       <c r="B251" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="C251" t="s">
-        <v>513</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="F251" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B252" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C252" t="s">
-        <v>515</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F252" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B253" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C253" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F253" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>479</v>
       </c>
@@ -6581,13 +6637,13 @@
         <v>505</v>
       </c>
       <c r="C254" t="s">
-        <v>517</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="F254" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,16 +6651,16 @@
         <v>479</v>
       </c>
       <c r="B255" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C255" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="F255" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,15 +6668,83 @@
         <v>479</v>
       </c>
       <c r="B256" t="s">
+        <v>505</v>
+      </c>
+      <c r="C256" t="s">
+        <v>515</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F256" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B257" t="s">
+        <v>505</v>
+      </c>
+      <c r="C257" t="s">
+        <v>525</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F257" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B258" t="s">
+        <v>505</v>
+      </c>
+      <c r="C258" t="s">
+        <v>517</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F258" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B259" t="s">
+        <v>505</v>
+      </c>
+      <c r="C259" t="s">
+        <v>529</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F259" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B260" t="s">
         <v>506</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C260" t="s">
         <v>531</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F260" t="s">
         <v>532</v>
       </c>
     </row>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="635">
   <si>
     <t>set</t>
   </si>
@@ -1917,6 +1917,75 @@
     <t>&lt;div class="sc-element"&gt;
     @Edit.Toolbar(${1:Content}, settings: new { classes = "${2:myCustomCssClass,anotherClass}" })
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>a script tag which enables scripts-combinations / packing etc. at default position &amp; priority</t>
+  </si>
+  <si>
+    <t>a script tag which enables scripts-combinations / packing etc. at lower priority in the header</t>
+  </si>
+  <si>
+    <t>&lt;script src="@App.Path/dist/${1:myscripts}.js" type="text/javascript" data-enableoptimizations="500:head"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script src="@App.Path/dist/${1:myscripts}.js" type="text/javascript" data-enableoptimizations="bottom"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>a script tag which enables scripts-combinations / packing etc. at default priority at the bottom</t>
+  </si>
+  <si>
+    <t>&lt;script src="@App.Path/dist/${1:myscripts}.js" type="text/javascript" data-enableoptimizations="175:body"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>a script tag which enables scripts-combinations / packing etc. at custom priority at page-top (not header)</t>
+  </si>
+  <si>
+    <t>a css-tag which enables optimizations - with priority 100 (default) in def. position</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="@App.Path/dist/AppCatalog.css" data-enableoptimizations="body"/&gt;</t>
+  </si>
+  <si>
+    <t>a css-tag which enables optimizations - with priority default inside body</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="@App.Path/dist/AppCatalog.css" data-enableoptimizations="150:head"/&gt;</t>
+  </si>
+  <si>
+    <t>a css-tag which enables optimizations - with custom priority in head</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="@App.Path/dist/AppCatalog.css" data-enableoptimizations="bottom"/&gt;</t>
+  </si>
+  <si>
+    <t>a css-tag which enables optimizations - with def. priority at page bottom</t>
+  </si>
+  <si>
+    <t>read api-docs:https://github.com/2sic/2sxc/wiki/Template-Assets</t>
+  </si>
+  <si>
+    <t>script with optimization</t>
+  </si>
+  <si>
+    <t>script optimized into head</t>
+  </si>
+  <si>
+    <t>script optimized into bottom of page</t>
+  </si>
+  <si>
+    <t>script specifically in body</t>
+  </si>
+  <si>
+    <t>css, style-sheet with optimization</t>
+  </si>
+  <si>
+    <t>css, style-sheet loaded in body</t>
+  </si>
+  <si>
+    <t>css, style-sheet loaded in head</t>
+  </si>
+  <si>
+    <t>css, style-sheet loaded at bottom of page</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +2048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G260" totalsRowShown="0">
-  <autoFilter ref="A1:G260"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G266" totalsRowShown="0">
+  <autoFilter ref="A1:G266"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2257,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,7 +6486,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>484</v>
       </c>
@@ -6434,7 +6503,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
@@ -6442,13 +6511,19 @@
         <v>462</v>
       </c>
       <c r="C242" t="s">
-        <v>463</v>
+        <v>627</v>
       </c>
       <c r="E242" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>612</v>
+      </c>
+      <c r="G242" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>466</v>
       </c>
@@ -6456,228 +6531,252 @@
         <v>462</v>
       </c>
       <c r="C243" t="s">
-        <v>468</v>
+        <v>628</v>
       </c>
       <c r="E243" t="s">
+        <v>614</v>
+      </c>
+      <c r="F243" t="s">
+        <v>613</v>
+      </c>
+      <c r="G243" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B244" t="s">
+        <v>462</v>
+      </c>
+      <c r="C244" t="s">
+        <v>629</v>
+      </c>
+      <c r="E244" t="s">
+        <v>615</v>
+      </c>
+      <c r="F244" t="s">
+        <v>616</v>
+      </c>
+      <c r="G244" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B245" t="s">
+        <v>462</v>
+      </c>
+      <c r="C245" t="s">
+        <v>630</v>
+      </c>
+      <c r="E245" t="s">
+        <v>617</v>
+      </c>
+      <c r="F245" t="s">
+        <v>618</v>
+      </c>
+      <c r="G245" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B246" t="s">
+        <v>462</v>
+      </c>
+      <c r="C246" t="s">
+        <v>631</v>
+      </c>
+      <c r="E246" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B244" t="s">
-        <v>480</v>
-      </c>
-      <c r="C244" t="s">
-        <v>488</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F244" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B245" t="s">
-        <v>480</v>
-      </c>
-      <c r="C245" t="s">
-        <v>489</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F245" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B246" t="s">
-        <v>480</v>
-      </c>
-      <c r="C246" t="s">
-        <v>491</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>619</v>
+      </c>
+      <c r="G246" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B247" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C247" t="s">
-        <v>482</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>493</v>
+        <v>632</v>
+      </c>
+      <c r="E247" t="s">
+        <v>620</v>
       </c>
       <c r="F247" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="G247" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B248" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C248" t="s">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="E248" t="s">
-        <v>494</v>
+        <v>622</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="G248" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B249" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="C249" t="s">
-        <v>500</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>501</v>
+        <v>634</v>
+      </c>
+      <c r="E249" t="s">
+        <v>624</v>
       </c>
       <c r="F249" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="G249" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B250" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="C250" t="s">
-        <v>572</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>574</v>
+        <v>488</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F250" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B251" t="s">
-        <v>568</v>
+        <v>480</v>
       </c>
       <c r="C251" t="s">
-        <v>569</v>
+        <v>489</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="F251" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B252" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C252" t="s">
-        <v>508</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F252" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B253" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C253" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="F253" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B254" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C254" t="s">
-        <v>511</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>566</v>
+        <v>483</v>
+      </c>
+      <c r="E254" t="s">
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B255" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C255" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="F255" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B256" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="C256" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="F256" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,66 +6784,168 @@
         <v>479</v>
       </c>
       <c r="B257" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="C257" t="s">
-        <v>525</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="F257" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B258" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C258" t="s">
-        <v>517</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F258" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B259" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C259" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F259" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B260" t="s">
+        <v>505</v>
+      </c>
+      <c r="C260" t="s">
+        <v>511</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F260" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B261" t="s">
         <v>506</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
+        <v>513</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F261" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B262" t="s">
+        <v>505</v>
+      </c>
+      <c r="C262" t="s">
+        <v>515</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F262" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B263" t="s">
+        <v>505</v>
+      </c>
+      <c r="C263" t="s">
+        <v>525</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F263" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B264" t="s">
+        <v>505</v>
+      </c>
+      <c r="C264" t="s">
+        <v>517</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F264" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B265" t="s">
+        <v>505</v>
+      </c>
+      <c r="C265" t="s">
+        <v>529</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F265" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B266" t="s">
+        <v>506</v>
+      </c>
+      <c r="C266" t="s">
         <v>531</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F266" t="s">
         <v>532</v>
       </c>
     </row>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="638">
   <si>
     <t>set</t>
   </si>
@@ -1986,6 +1986,15 @@
   </si>
   <si>
     <t>css, style-sheet loaded at bottom of page</t>
+  </si>
+  <si>
+    <t>2sxc Scripts</t>
+  </si>
+  <si>
+    <t>standard 2sxc JS</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="/desktopmodules/tosic_sexycontent/js/2sxc.api.min.js" data-enableoptimizations="100"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -2048,8 +2057,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G266" totalsRowShown="0">
-  <autoFilter ref="A1:G266"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G267" totalsRowShown="0">
+  <autoFilter ref="A1:G267"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2326,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G266"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,24 +6672,27 @@
         <v>626</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B250" t="s">
-        <v>480</v>
+        <v>635</v>
       </c>
       <c r="C250" t="s">
-        <v>488</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>497</v>
+        <v>636</v>
+      </c>
+      <c r="E250" t="s">
+        <v>637</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="G250" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>479</v>
       </c>
@@ -6688,16 +6700,16 @@
         <v>480</v>
       </c>
       <c r="C251" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F251" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>479</v>
       </c>
@@ -6705,27 +6717,27 @@
         <v>480</v>
       </c>
       <c r="C252" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="F252" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B253" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C253" t="s">
-        <v>482</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F253" t="s">
-        <v>485</v>
+        <v>491</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6736,13 +6748,13 @@
         <v>481</v>
       </c>
       <c r="C254" t="s">
-        <v>483</v>
-      </c>
-      <c r="E254" t="s">
-        <v>494</v>
+        <v>482</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6750,16 +6762,16 @@
         <v>479</v>
       </c>
       <c r="B255" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C255" t="s">
-        <v>500</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>501</v>
+        <v>483</v>
+      </c>
+      <c r="E255" t="s">
+        <v>494</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6767,16 +6779,16 @@
         <v>479</v>
       </c>
       <c r="B256" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="C256" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>573</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6784,33 +6796,33 @@
         <v>479</v>
       </c>
       <c r="B257" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C257" t="s">
-        <v>569</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="F257" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B258" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="C258" t="s">
-        <v>508</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="F258" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6821,47 +6833,47 @@
         <v>506</v>
       </c>
       <c r="C259" t="s">
-        <v>509</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F259" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B260" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C260" t="s">
-        <v>511</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F260" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B261" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C261" t="s">
-        <v>513</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>560</v>
+        <v>511</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6869,16 +6881,16 @@
         <v>479</v>
       </c>
       <c r="B262" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C262" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="F262" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6889,13 +6901,13 @@
         <v>505</v>
       </c>
       <c r="C263" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F263" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6906,13 +6918,13 @@
         <v>505</v>
       </c>
       <c r="C264" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>518</v>
       </c>
       <c r="F264" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,13 +6935,13 @@
         <v>505</v>
       </c>
       <c r="C265" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>597</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,15 +6949,32 @@
         <v>479</v>
       </c>
       <c r="B266" t="s">
+        <v>505</v>
+      </c>
+      <c r="C266" t="s">
+        <v>529</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F266" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B267" t="s">
         <v>506</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>531</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F267" t="s">
         <v>532</v>
       </c>
     </row>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="651">
   <si>
     <t>set</t>
   </si>
@@ -1789,9 +1789,6 @@
     <t>string-url-path</t>
   </si>
   <si>
-    <t>ASP.net Page</t>
-  </si>
-  <si>
     <t>Set page title</t>
   </si>
   <si>
@@ -1988,13 +1985,57 @@
     <t>css, style-sheet loaded at bottom of page</t>
   </si>
   <si>
-    <t>2sxc Scripts</t>
-  </si>
-  <si>
     <t>standard 2sxc JS</t>
   </si>
   <si>
     <t>&lt;script type="text/javascript" src="/desktopmodules/tosic_sexycontent/js/2sxc.api.min.js" data-enableoptimizations="100"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>@ToSic.SexyContent.ContentBlocks.Render.All(${1:Content}, field: "${2:ContentBlocks}")</t>
+  </si>
+  <si>
+    <t>Render Very-Rich-Text</t>
+  </si>
+  <si>
+    <t>Render Virtual Pane on this item</t>
+  </si>
+  <si>
+    <t>Create an area, into which the editor can add apps/content-blocks</t>
+  </si>
+  <si>
+    <t>Render a wysiwyg-field containing content-block placeholders</t>
+  </si>
+  <si>
+    <t>read api-docs:https://github.com/2sic/2sxc/wiki/Razor-Content-Blocks
+tutorial blog:http://2sxc.org/en/blog/post/designing-articles-with-inner-content-blocks-new-in-8-4-like-modules-inside-modules</t>
+  </si>
+  <si>
+    <t>read api-docs:https://github.com/2sic/2sxc/wiki/Razor-Content-Blocks
+tutorial very-rich-text:http://2sxc.org/en/blog/post/tutorial-create-very-rich-text-inner-content-2-with-2sxc</t>
+  </si>
+  <si>
+    <t>@ToSic.SexyContent.ContentBlocks.Render.All(${1:Content}, field: "${2:BodyContentBlocks}", merge: ${3:Content.Body})</t>
+  </si>
+  <si>
+    <t>InnerContent</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>2sxcScripts</t>
+  </si>
+  <si>
+    <t>2sxc Angular1 JS</t>
+  </si>
+  <si>
+    <t>read api-docs:https://github.com/2sic/2sxc/wiki/AngularJs-1-Overview</t>
+  </si>
+  <si>
+    <t>angular1 - remember to also include the 2sxc</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="/desktopmodules/tosic_sexycontent/js/angularjs/angular.min.js" data-enableoptimizations="101"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2039,6 +2080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,8 +2099,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G267" totalsRowShown="0">
-  <autoFilter ref="A1:G267"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G270" totalsRowShown="0">
+  <autoFilter ref="A1:G270"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2335,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2414,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,8 +2436,8 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>595</v>
+      <c r="G2" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2417,8 +2459,8 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>595</v>
+      <c r="G3" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2440,8 +2482,8 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>595</v>
+      <c r="G4" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,8 +2505,8 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>595</v>
+      <c r="G5" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2486,8 +2528,8 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>595</v>
+      <c r="G6" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2509,8 +2551,8 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>595</v>
+      <c r="G7" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,10 +2569,10 @@
         <v>547</v>
       </c>
       <c r="F8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="G8" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2541,7 +2583,7 @@
         <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>548</v>
@@ -2549,8 +2591,8 @@
       <c r="F9" t="s">
         <v>544</v>
       </c>
-      <c r="G9" t="s">
-        <v>593</v>
+      <c r="G9" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2561,16 +2603,16 @@
         <v>359</v>
       </c>
       <c r="C10" t="s">
+        <v>599</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="F10" t="s">
-        <v>605</v>
-      </c>
-      <c r="G10" t="s">
-        <v>593</v>
+        <v>604</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2581,16 +2623,16 @@
         <v>359</v>
       </c>
       <c r="C11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="F11" t="s">
-        <v>606</v>
-      </c>
-      <c r="G11" t="s">
-        <v>593</v>
+        <v>605</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2601,16 +2643,16 @@
         <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F12" t="s">
-        <v>607</v>
-      </c>
-      <c r="G12" t="s">
-        <v>593</v>
+        <v>606</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2621,16 +2663,16 @@
         <v>359</v>
       </c>
       <c r="C13" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F13" t="s">
         <v>609</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F13" t="s">
-        <v>610</v>
-      </c>
-      <c r="G13" t="s">
-        <v>593</v>
+      <c r="G13" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,8 +2691,8 @@
       <c r="F14" t="s">
         <v>551</v>
       </c>
-      <c r="G14" t="s">
-        <v>593</v>
+      <c r="G14" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,8 +2711,8 @@
       <c r="F15" t="s">
         <v>551</v>
       </c>
-      <c r="G15" t="s">
-        <v>593</v>
+      <c r="G15" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,8 +2731,8 @@
       <c r="F16" t="s">
         <v>555</v>
       </c>
-      <c r="G16" t="s">
-        <v>593</v>
+      <c r="G16" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,6 +2754,7 @@
       <c r="F17" t="s">
         <v>308</v>
       </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2726,6 +2769,7 @@
       <c r="E18" s="2" t="s">
         <v>550</v>
       </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2741,13 +2785,13 @@
         <v>565</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F19" t="s">
         <v>564</v>
       </c>
-      <c r="G19" t="s">
-        <v>596</v>
+      <c r="G19" s="4" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,8 +2807,8 @@
       <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
-        <v>594</v>
+      <c r="G20" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,8 +2824,8 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
-        <v>594</v>
+      <c r="G21" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2797,8 +2841,8 @@
       <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
-        <v>594</v>
+      <c r="G22" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,8 +2858,8 @@
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s">
-        <v>594</v>
+      <c r="G23" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,8 +2875,8 @@
       <c r="E24" t="s">
         <v>39</v>
       </c>
-      <c r="G24" t="s">
-        <v>594</v>
+      <c r="G24" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,8 +2892,8 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="G25" t="s">
-        <v>594</v>
+      <c r="G25" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,8 +2909,8 @@
       <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="G26" t="s">
-        <v>594</v>
+      <c r="G26" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,8 +2926,8 @@
       <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
-        <v>594</v>
+      <c r="G27" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,8 +2943,8 @@
       <c r="E28" t="s">
         <v>47</v>
       </c>
-      <c r="G28" t="s">
-        <v>594</v>
+      <c r="G28" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,8 +2960,8 @@
       <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" t="s">
-        <v>594</v>
+      <c r="G29" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2933,8 +2977,8 @@
       <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="G30" t="s">
-        <v>594</v>
+      <c r="G30" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,8 +2994,8 @@
       <c r="E31" t="s">
         <v>53</v>
       </c>
-      <c r="G31" t="s">
-        <v>594</v>
+      <c r="G31" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,8 +3011,8 @@
       <c r="E32" t="s">
         <v>55</v>
       </c>
-      <c r="G32" t="s">
-        <v>594</v>
+      <c r="G32" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,8 +3028,8 @@
       <c r="E33" t="s">
         <v>57</v>
       </c>
-      <c r="G33" t="s">
-        <v>594</v>
+      <c r="G33" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,8 +3045,8 @@
       <c r="E34" t="s">
         <v>59</v>
       </c>
-      <c r="G34" t="s">
-        <v>594</v>
+      <c r="G34" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3018,8 +3062,8 @@
       <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="G35" t="s">
-        <v>594</v>
+      <c r="G35" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,8 +3079,8 @@
       <c r="E36" t="s">
         <v>63</v>
       </c>
-      <c r="G36" t="s">
-        <v>594</v>
+      <c r="G36" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,8 +3096,8 @@
       <c r="E37" t="s">
         <v>65</v>
       </c>
-      <c r="G37" t="s">
-        <v>594</v>
+      <c r="G37" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3069,8 +3113,8 @@
       <c r="E38" t="s">
         <v>67</v>
       </c>
-      <c r="G38" t="s">
-        <v>594</v>
+      <c r="G38" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3086,8 +3130,8 @@
       <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
-        <v>594</v>
+      <c r="G39" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3103,8 +3147,8 @@
       <c r="E40" t="s">
         <v>71</v>
       </c>
-      <c r="G40" t="s">
-        <v>594</v>
+      <c r="G40" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,8 +3164,8 @@
       <c r="E41" t="s">
         <v>73</v>
       </c>
-      <c r="G41" t="s">
-        <v>594</v>
+      <c r="G41" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,8 +3181,8 @@
       <c r="E42" t="s">
         <v>75</v>
       </c>
-      <c r="G42" t="s">
-        <v>594</v>
+      <c r="G42" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3154,8 +3198,8 @@
       <c r="E43" t="s">
         <v>77</v>
       </c>
-      <c r="G43" t="s">
-        <v>594</v>
+      <c r="G43" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,8 +3215,8 @@
       <c r="E44" t="s">
         <v>79</v>
       </c>
-      <c r="G44" t="s">
-        <v>594</v>
+      <c r="G44" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3188,8 +3232,8 @@
       <c r="E45" t="s">
         <v>81</v>
       </c>
-      <c r="G45" t="s">
-        <v>594</v>
+      <c r="G45" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,8 +3249,8 @@
       <c r="E46" t="s">
         <v>83</v>
       </c>
-      <c r="G46" t="s">
-        <v>594</v>
+      <c r="G46" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,8 +3266,8 @@
       <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="G47" t="s">
-        <v>594</v>
+      <c r="G47" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3239,8 +3283,8 @@
       <c r="E48" t="s">
         <v>87</v>
       </c>
-      <c r="G48" t="s">
-        <v>594</v>
+      <c r="G48" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3256,8 +3300,8 @@
       <c r="E49" t="s">
         <v>89</v>
       </c>
-      <c r="G49" t="s">
-        <v>594</v>
+      <c r="G49" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,8 +3317,8 @@
       <c r="E50" t="s">
         <v>91</v>
       </c>
-      <c r="G50" t="s">
-        <v>594</v>
+      <c r="G50" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,8 +3334,8 @@
       <c r="E51" t="s">
         <v>93</v>
       </c>
-      <c r="G51" t="s">
-        <v>594</v>
+      <c r="G51" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,8 +3351,8 @@
       <c r="E52" t="s">
         <v>95</v>
       </c>
-      <c r="G52" t="s">
-        <v>594</v>
+      <c r="G52" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,8 +3368,8 @@
       <c r="E53" t="s">
         <v>97</v>
       </c>
-      <c r="G53" t="s">
-        <v>594</v>
+      <c r="G53" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,8 +3385,8 @@
       <c r="E54" t="s">
         <v>99</v>
       </c>
-      <c r="G54" t="s">
-        <v>594</v>
+      <c r="G54" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,8 +3402,8 @@
       <c r="E55" t="s">
         <v>101</v>
       </c>
-      <c r="G55" t="s">
-        <v>594</v>
+      <c r="G55" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,8 +3419,8 @@
       <c r="E56" t="s">
         <v>103</v>
       </c>
-      <c r="G56" t="s">
-        <v>594</v>
+      <c r="G56" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,8 +3436,8 @@
       <c r="E57" t="s">
         <v>104</v>
       </c>
-      <c r="G57" t="s">
-        <v>594</v>
+      <c r="G57" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,8 +3453,8 @@
       <c r="E58" t="s">
         <v>105</v>
       </c>
-      <c r="G58" t="s">
-        <v>594</v>
+      <c r="G58" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,8 +3470,8 @@
       <c r="E59" t="s">
         <v>107</v>
       </c>
-      <c r="G59" t="s">
-        <v>594</v>
+      <c r="G59" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3443,8 +3487,8 @@
       <c r="E60" t="s">
         <v>109</v>
       </c>
-      <c r="G60" t="s">
-        <v>594</v>
+      <c r="G60" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,8 +3504,8 @@
       <c r="E61" t="s">
         <v>111</v>
       </c>
-      <c r="G61" t="s">
-        <v>594</v>
+      <c r="G61" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3477,8 +3521,8 @@
       <c r="E62" t="s">
         <v>113</v>
       </c>
-      <c r="G62" t="s">
-        <v>594</v>
+      <c r="G62" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,8 +3541,8 @@
       <c r="F63" t="s">
         <v>440</v>
       </c>
-      <c r="G63" t="s">
-        <v>594</v>
+      <c r="G63" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,8 +3558,8 @@
       <c r="E64" t="s">
         <v>116</v>
       </c>
-      <c r="G64" t="s">
-        <v>594</v>
+      <c r="G64" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3531,8 +3575,8 @@
       <c r="E65" t="s">
         <v>118</v>
       </c>
-      <c r="G65" t="s">
-        <v>594</v>
+      <c r="G65" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,8 +3592,8 @@
       <c r="E66" t="s">
         <v>120</v>
       </c>
-      <c r="G66" t="s">
-        <v>594</v>
+      <c r="G66" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,8 +3609,8 @@
       <c r="E67" t="s">
         <v>122</v>
       </c>
-      <c r="G67" t="s">
-        <v>594</v>
+      <c r="G67" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,8 +3626,8 @@
       <c r="E68" t="s">
         <v>124</v>
       </c>
-      <c r="G68" t="s">
-        <v>594</v>
+      <c r="G68" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,8 +3643,8 @@
       <c r="E69" t="s">
         <v>126</v>
       </c>
-      <c r="G69" t="s">
-        <v>594</v>
+      <c r="G69" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,8 +3660,8 @@
       <c r="E70" t="s">
         <v>128</v>
       </c>
-      <c r="G70" t="s">
-        <v>594</v>
+      <c r="G70" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,8 +3677,8 @@
       <c r="E71" t="s">
         <v>130</v>
       </c>
-      <c r="G71" t="s">
-        <v>594</v>
+      <c r="G71" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,8 +3694,8 @@
       <c r="E72" t="s">
         <v>132</v>
       </c>
-      <c r="G72" t="s">
-        <v>594</v>
+      <c r="G72" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,8 +3711,8 @@
       <c r="E73" t="s">
         <v>134</v>
       </c>
-      <c r="G73" t="s">
-        <v>594</v>
+      <c r="G73" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3684,8 +3728,8 @@
       <c r="E74" t="s">
         <v>136</v>
       </c>
-      <c r="G74" t="s">
-        <v>594</v>
+      <c r="G74" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,8 +3745,8 @@
       <c r="E75" t="s">
         <v>138</v>
       </c>
-      <c r="G75" t="s">
-        <v>594</v>
+      <c r="G75" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,8 +3762,8 @@
       <c r="E76" t="s">
         <v>140</v>
       </c>
-      <c r="G76" t="s">
-        <v>594</v>
+      <c r="G76" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,8 +3779,8 @@
       <c r="E77" t="s">
         <v>142</v>
       </c>
-      <c r="G77" t="s">
-        <v>594</v>
+      <c r="G77" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,8 +3796,8 @@
       <c r="E78" t="s">
         <v>144</v>
       </c>
-      <c r="G78" t="s">
-        <v>594</v>
+      <c r="G78" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,8 +3813,8 @@
       <c r="E79" t="s">
         <v>146</v>
       </c>
-      <c r="G79" t="s">
-        <v>594</v>
+      <c r="G79" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3786,8 +3830,8 @@
       <c r="E80" t="s">
         <v>148</v>
       </c>
-      <c r="G80" t="s">
-        <v>594</v>
+      <c r="G80" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3803,8 +3847,8 @@
       <c r="E81" t="s">
         <v>149</v>
       </c>
-      <c r="G81" t="s">
-        <v>594</v>
+      <c r="G81" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3820,8 +3864,8 @@
       <c r="E82" t="s">
         <v>151</v>
       </c>
-      <c r="G82" t="s">
-        <v>594</v>
+      <c r="G82" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,8 +3881,8 @@
       <c r="E83" t="s">
         <v>153</v>
       </c>
-      <c r="G83" t="s">
-        <v>594</v>
+      <c r="G83" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3854,8 +3898,8 @@
       <c r="E84" t="s">
         <v>155</v>
       </c>
-      <c r="G84" t="s">
-        <v>594</v>
+      <c r="G84" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,8 +3915,8 @@
       <c r="E85" t="s">
         <v>157</v>
       </c>
-      <c r="G85" t="s">
-        <v>594</v>
+      <c r="G85" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3888,8 +3932,8 @@
       <c r="E86" t="s">
         <v>159</v>
       </c>
-      <c r="G86" t="s">
-        <v>594</v>
+      <c r="G86" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,8 +3949,8 @@
       <c r="E87" t="s">
         <v>160</v>
       </c>
-      <c r="G87" t="s">
-        <v>594</v>
+      <c r="G87" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3922,8 +3966,8 @@
       <c r="E88" t="s">
         <v>161</v>
       </c>
-      <c r="G88" t="s">
-        <v>594</v>
+      <c r="G88" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,8 +3983,8 @@
       <c r="E89" t="s">
         <v>163</v>
       </c>
-      <c r="G89" t="s">
-        <v>594</v>
+      <c r="G89" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3956,8 +4000,8 @@
       <c r="E90" t="s">
         <v>165</v>
       </c>
-      <c r="G90" t="s">
-        <v>594</v>
+      <c r="G90" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,8 +4017,8 @@
       <c r="E91" t="s">
         <v>167</v>
       </c>
-      <c r="G91" t="s">
-        <v>594</v>
+      <c r="G91" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3990,8 +4034,8 @@
       <c r="E92" t="s">
         <v>169</v>
       </c>
-      <c r="G92" t="s">
-        <v>594</v>
+      <c r="G92" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4007,8 +4051,8 @@
       <c r="E93" t="s">
         <v>171</v>
       </c>
-      <c r="G93" t="s">
-        <v>594</v>
+      <c r="G93" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4024,8 +4068,8 @@
       <c r="E94" t="s">
         <v>173</v>
       </c>
-      <c r="G94" t="s">
-        <v>594</v>
+      <c r="G94" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4041,8 +4085,8 @@
       <c r="E95" t="s">
         <v>175</v>
       </c>
-      <c r="G95" t="s">
-        <v>594</v>
+      <c r="G95" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4058,8 +4102,8 @@
       <c r="E96" t="s">
         <v>176</v>
       </c>
-      <c r="G96" t="s">
-        <v>594</v>
+      <c r="G96" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,8 +4119,8 @@
       <c r="E97" t="s">
         <v>178</v>
       </c>
-      <c r="G97" t="s">
-        <v>594</v>
+      <c r="G97" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4092,8 +4136,8 @@
       <c r="E98" t="s">
         <v>180</v>
       </c>
-      <c r="G98" t="s">
-        <v>594</v>
+      <c r="G98" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4109,8 +4153,8 @@
       <c r="E99" t="s">
         <v>182</v>
       </c>
-      <c r="G99" t="s">
-        <v>594</v>
+      <c r="G99" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4126,8 +4170,8 @@
       <c r="E100" t="s">
         <v>184</v>
       </c>
-      <c r="G100" t="s">
-        <v>594</v>
+      <c r="G100" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4143,8 +4187,8 @@
       <c r="E101" t="s">
         <v>186</v>
       </c>
-      <c r="G101" t="s">
-        <v>594</v>
+      <c r="G101" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4160,8 +4204,8 @@
       <c r="E102" t="s">
         <v>188</v>
       </c>
-      <c r="G102" t="s">
-        <v>594</v>
+      <c r="G102" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4177,8 +4221,8 @@
       <c r="E103" t="s">
         <v>189</v>
       </c>
-      <c r="G103" t="s">
-        <v>594</v>
+      <c r="G103" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4194,8 +4238,8 @@
       <c r="E104" t="s">
         <v>191</v>
       </c>
-      <c r="G104" t="s">
-        <v>594</v>
+      <c r="G104" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,8 +4258,8 @@
       <c r="F105" t="s">
         <v>309</v>
       </c>
-      <c r="G105" t="s">
-        <v>594</v>
+      <c r="G105" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,8 +4278,8 @@
       <c r="F106" t="s">
         <v>310</v>
       </c>
-      <c r="G106" t="s">
-        <v>594</v>
+      <c r="G106" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,8 +4295,8 @@
       <c r="E107" t="s">
         <v>197</v>
       </c>
-      <c r="G107" t="s">
-        <v>594</v>
+      <c r="G107" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4268,8 +4312,8 @@
       <c r="E108" t="s">
         <v>199</v>
       </c>
-      <c r="G108" t="s">
-        <v>594</v>
+      <c r="G108" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,8 +4329,8 @@
       <c r="E109" t="s">
         <v>201</v>
       </c>
-      <c r="G109" t="s">
-        <v>594</v>
+      <c r="G109" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,8 +4346,8 @@
       <c r="E110" t="s">
         <v>203</v>
       </c>
-      <c r="G110" t="s">
-        <v>594</v>
+      <c r="G110" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,8 +4363,8 @@
       <c r="E111" t="s">
         <v>204</v>
       </c>
-      <c r="G111" t="s">
-        <v>594</v>
+      <c r="G111" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4336,8 +4380,8 @@
       <c r="E112" t="s">
         <v>206</v>
       </c>
-      <c r="G112" t="s">
-        <v>594</v>
+      <c r="G112" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4353,8 +4397,8 @@
       <c r="E113" t="s">
         <v>208</v>
       </c>
-      <c r="G113" t="s">
-        <v>594</v>
+      <c r="G113" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,8 +4414,8 @@
       <c r="E114" t="s">
         <v>210</v>
       </c>
-      <c r="G114" t="s">
-        <v>594</v>
+      <c r="G114" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,8 +4431,8 @@
       <c r="E115" t="s">
         <v>212</v>
       </c>
-      <c r="G115" t="s">
-        <v>594</v>
+      <c r="G115" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,8 +4448,8 @@
       <c r="E116" t="s">
         <v>214</v>
       </c>
-      <c r="G116" t="s">
-        <v>594</v>
+      <c r="G116" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,8 +4465,8 @@
       <c r="E117" t="s">
         <v>216</v>
       </c>
-      <c r="G117" t="s">
-        <v>594</v>
+      <c r="G117" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4438,8 +4482,8 @@
       <c r="E118" t="s">
         <v>218</v>
       </c>
-      <c r="G118" t="s">
-        <v>594</v>
+      <c r="G118" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4455,8 +4499,8 @@
       <c r="E119" t="s">
         <v>220</v>
       </c>
-      <c r="G119" t="s">
-        <v>594</v>
+      <c r="G119" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4475,8 +4519,8 @@
       <c r="F120" t="s">
         <v>311</v>
       </c>
-      <c r="G120" t="s">
-        <v>594</v>
+      <c r="G120" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4492,8 +4536,8 @@
       <c r="E121" t="s">
         <v>223</v>
       </c>
-      <c r="G121" t="s">
-        <v>594</v>
+      <c r="G121" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4512,8 +4556,8 @@
       <c r="F122" t="s">
         <v>312</v>
       </c>
-      <c r="G122" t="s">
-        <v>594</v>
+      <c r="G122" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4529,8 +4573,8 @@
       <c r="E123" t="s">
         <v>227</v>
       </c>
-      <c r="G123" t="s">
-        <v>594</v>
+      <c r="G123" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4546,8 +4590,8 @@
       <c r="E124" t="s">
         <v>229</v>
       </c>
-      <c r="G124" t="s">
-        <v>594</v>
+      <c r="G124" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,8 +4607,8 @@
       <c r="E125" t="s">
         <v>231</v>
       </c>
-      <c r="G125" t="s">
-        <v>594</v>
+      <c r="G125" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4580,8 +4624,8 @@
       <c r="E126" t="s">
         <v>233</v>
       </c>
-      <c r="G126" t="s">
-        <v>594</v>
+      <c r="G126" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4597,8 +4641,8 @@
       <c r="E127" t="s">
         <v>235</v>
       </c>
-      <c r="G127" t="s">
-        <v>594</v>
+      <c r="G127" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,8 +4658,8 @@
       <c r="E128" t="s">
         <v>237</v>
       </c>
-      <c r="G128" t="s">
-        <v>594</v>
+      <c r="G128" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4631,8 +4675,8 @@
       <c r="E129" t="s">
         <v>239</v>
       </c>
-      <c r="G129" t="s">
-        <v>594</v>
+      <c r="G129" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4648,8 +4692,8 @@
       <c r="E130" t="s">
         <v>241</v>
       </c>
-      <c r="G130" t="s">
-        <v>594</v>
+      <c r="G130" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,8 +4709,8 @@
       <c r="E131" t="s">
         <v>243</v>
       </c>
-      <c r="G131" t="s">
-        <v>594</v>
+      <c r="G131" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4685,8 +4729,8 @@
       <c r="F132" t="s">
         <v>313</v>
       </c>
-      <c r="G132" t="s">
-        <v>594</v>
+      <c r="G132" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4702,8 +4746,8 @@
       <c r="E133" t="s">
         <v>247</v>
       </c>
-      <c r="G133" t="s">
-        <v>594</v>
+      <c r="G133" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4719,8 +4763,8 @@
       <c r="E134" t="s">
         <v>249</v>
       </c>
-      <c r="G134" t="s">
-        <v>594</v>
+      <c r="G134" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4736,8 +4780,8 @@
       <c r="E135" t="s">
         <v>251</v>
       </c>
-      <c r="G135" t="s">
-        <v>594</v>
+      <c r="G135" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4753,8 +4797,8 @@
       <c r="E136" t="s">
         <v>253</v>
       </c>
-      <c r="G136" t="s">
-        <v>594</v>
+      <c r="G136" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4770,8 +4814,8 @@
       <c r="E137" t="s">
         <v>255</v>
       </c>
-      <c r="G137" t="s">
-        <v>594</v>
+      <c r="G137" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,8 +4831,8 @@
       <c r="E138" t="s">
         <v>257</v>
       </c>
-      <c r="G138" t="s">
-        <v>594</v>
+      <c r="G138" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4804,8 +4848,8 @@
       <c r="E139" t="s">
         <v>259</v>
       </c>
-      <c r="G139" t="s">
-        <v>594</v>
+      <c r="G139" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4821,8 +4865,8 @@
       <c r="E140" t="s">
         <v>261</v>
       </c>
-      <c r="G140" t="s">
-        <v>594</v>
+      <c r="G140" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4838,8 +4882,8 @@
       <c r="E141" t="s">
         <v>263</v>
       </c>
-      <c r="G141" t="s">
-        <v>594</v>
+      <c r="G141" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,8 +4899,8 @@
       <c r="E142" t="s">
         <v>265</v>
       </c>
-      <c r="G142" t="s">
-        <v>594</v>
+      <c r="G142" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,8 +4916,8 @@
       <c r="E143" t="s">
         <v>267</v>
       </c>
-      <c r="G143" t="s">
-        <v>594</v>
+      <c r="G143" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,8 +4933,8 @@
       <c r="E144" t="s">
         <v>269</v>
       </c>
-      <c r="G144" t="s">
-        <v>594</v>
+      <c r="G144" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,8 +4950,8 @@
       <c r="E145" t="s">
         <v>271</v>
       </c>
-      <c r="G145" t="s">
-        <v>594</v>
+      <c r="G145" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,8 +4967,8 @@
       <c r="E146" t="s">
         <v>273</v>
       </c>
-      <c r="G146" t="s">
-        <v>594</v>
+      <c r="G146" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,8 +4984,8 @@
       <c r="E147" t="s">
         <v>275</v>
       </c>
-      <c r="G147" t="s">
-        <v>594</v>
+      <c r="G147" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4957,8 +5001,8 @@
       <c r="E148" t="s">
         <v>277</v>
       </c>
-      <c r="G148" t="s">
-        <v>594</v>
+      <c r="G148" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,8 +5018,8 @@
       <c r="E149" t="s">
         <v>279</v>
       </c>
-      <c r="G149" t="s">
-        <v>594</v>
+      <c r="G149" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,8 +5035,8 @@
       <c r="E150" t="s">
         <v>280</v>
       </c>
-      <c r="G150" t="s">
-        <v>594</v>
+      <c r="G150" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,8 +5052,8 @@
       <c r="E151" t="s">
         <v>282</v>
       </c>
-      <c r="G151" t="s">
-        <v>594</v>
+      <c r="G151" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5025,8 +5069,8 @@
       <c r="E152" t="s">
         <v>284</v>
       </c>
-      <c r="G152" t="s">
-        <v>594</v>
+      <c r="G152" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5042,8 +5086,8 @@
       <c r="E153" t="s">
         <v>285</v>
       </c>
-      <c r="G153" t="s">
-        <v>594</v>
+      <c r="G153" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5059,8 +5103,8 @@
       <c r="E154" t="s">
         <v>287</v>
       </c>
-      <c r="G154" t="s">
-        <v>594</v>
+      <c r="G154" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5076,8 +5120,8 @@
       <c r="E155" t="s">
         <v>289</v>
       </c>
-      <c r="G155" t="s">
-        <v>594</v>
+      <c r="G155" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5093,8 +5137,8 @@
       <c r="E156" t="s">
         <v>291</v>
       </c>
-      <c r="G156" t="s">
-        <v>594</v>
+      <c r="G156" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,8 +5157,8 @@
       <c r="F157" t="s">
         <v>314</v>
       </c>
-      <c r="G157" t="s">
-        <v>594</v>
+      <c r="G157" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5130,8 +5174,8 @@
       <c r="E158" t="s">
         <v>294</v>
       </c>
-      <c r="G158" t="s">
-        <v>594</v>
+      <c r="G158" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5150,8 +5194,8 @@
       <c r="F159" t="s">
         <v>315</v>
       </c>
-      <c r="G159" t="s">
-        <v>594</v>
+      <c r="G159" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5167,8 +5211,8 @@
       <c r="E160" t="s">
         <v>298</v>
       </c>
-      <c r="G160" t="s">
-        <v>594</v>
+      <c r="G160" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5184,8 +5228,8 @@
       <c r="E161" t="s">
         <v>300</v>
       </c>
-      <c r="G161" t="s">
-        <v>594</v>
+      <c r="G161" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,8 +5248,8 @@
       <c r="F162" t="s">
         <v>316</v>
       </c>
-      <c r="G162" t="s">
-        <v>594</v>
+      <c r="G162" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5221,6 +5265,7 @@
       <c r="E163" s="3" t="s">
         <v>476</v>
       </c>
+      <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -5235,6 +5280,7 @@
       <c r="E164" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -5244,16 +5290,16 @@
         <v>474</v>
       </c>
       <c r="C165" t="s">
+        <v>582</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="F165" t="s">
         <v>584</v>
       </c>
-      <c r="F165" t="s">
-        <v>585</v>
-      </c>
-      <c r="G165" t="s">
-        <v>594</v>
+      <c r="G165" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5264,16 +5310,16 @@
         <v>474</v>
       </c>
       <c r="C166" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F166" t="s">
-        <v>587</v>
-      </c>
-      <c r="G166" t="s">
-        <v>594</v>
+        <v>586</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5284,14 +5330,15 @@
         <v>474</v>
       </c>
       <c r="C167" t="s">
+        <v>587</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="F167" t="s">
         <v>589</v>
       </c>
-      <c r="F167" t="s">
-        <v>590</v>
-      </c>
+      <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -5306,6 +5353,7 @@
       <c r="E168" s="1" t="s">
         <v>523</v>
       </c>
+      <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -5323,6 +5371,7 @@
       <c r="F169" t="s">
         <v>524</v>
       </c>
+      <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -5337,6 +5386,7 @@
       <c r="E170" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -5351,6 +5401,7 @@
       <c r="E171" s="3" t="s">
         <v>470</v>
       </c>
+      <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -5365,6 +5416,7 @@
       <c r="E172" s="3" t="s">
         <v>473</v>
       </c>
+      <c r="G172" s="4"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -5373,155 +5425,164 @@
       <c r="B173" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B174" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="C174" t="s">
-        <v>577</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>579</v>
+        <v>638</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="F174" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B175" t="s">
+        <v>644</v>
+      </c>
+      <c r="C175" t="s">
+        <v>637</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F175" t="s">
+        <v>640</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B176" t="s">
+        <v>645</v>
+      </c>
+      <c r="C176" t="s">
         <v>576</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E176" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F176" t="s">
         <v>581</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B177" t="s">
+        <v>645</v>
+      </c>
+      <c r="C177" t="s">
+        <v>577</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="F177" t="s">
+        <v>579</v>
+      </c>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>355</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B178" t="s">
         <v>359</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C178" t="s">
         <v>360</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E178" t="s">
         <v>319</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F178" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>355</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B179" t="s">
         <v>359</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C179" t="s">
         <v>361</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E179" t="s">
         <v>535</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F179" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>356</v>
-      </c>
-      <c r="B178" t="s">
-        <v>58</v>
-      </c>
-      <c r="C178" t="s">
-        <v>455</v>
-      </c>
-      <c r="E178" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>356</v>
-      </c>
-      <c r="B179" t="s">
-        <v>58</v>
-      </c>
-      <c r="C179" t="s">
-        <v>456</v>
-      </c>
-      <c r="E179" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="E180" t="s">
-        <v>534</v>
-      </c>
-      <c r="F180" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
-      </c>
-      <c r="F181" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>356</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C182" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>534</v>
       </c>
       <c r="F182" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>356</v>
       </c>
@@ -5529,16 +5590,16 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F183" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>356</v>
       </c>
@@ -5546,16 +5607,16 @@
         <v>358</v>
       </c>
       <c r="C184" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E184" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F184" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>356</v>
       </c>
@@ -5563,16 +5624,16 @@
         <v>358</v>
       </c>
       <c r="C185" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E185" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F185" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -5580,16 +5641,16 @@
         <v>358</v>
       </c>
       <c r="C186" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F186" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>356</v>
       </c>
@@ -5597,16 +5658,16 @@
         <v>358</v>
       </c>
       <c r="C187" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E187" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F187" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>356</v>
       </c>
@@ -5614,13 +5675,16 @@
         <v>358</v>
       </c>
       <c r="C188" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F188" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>356</v>
       </c>
@@ -5628,47 +5692,44 @@
         <v>358</v>
       </c>
       <c r="C189" t="s">
+        <v>334</v>
+      </c>
+      <c r="E189" t="s">
+        <v>335</v>
+      </c>
+      <c r="F189" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" t="s">
+        <v>358</v>
+      </c>
+      <c r="C190" t="s">
+        <v>336</v>
+      </c>
+      <c r="E190" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>356</v>
+      </c>
+      <c r="B191" t="s">
+        <v>358</v>
+      </c>
+      <c r="C191" t="s">
         <v>338</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E191" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>478</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2</v>
-      </c>
-      <c r="E190" t="s">
-        <v>340</v>
-      </c>
-      <c r="F190" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>478</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
-        <v>362</v>
-      </c>
-      <c r="E191" t="s">
-        <v>341</v>
-      </c>
-      <c r="F191" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>478</v>
       </c>
@@ -5676,13 +5737,13 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F192" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5693,13 +5754,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="E193" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5710,13 +5771,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="E194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,47 +5788,47 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>364</v>
+        <v>22</v>
       </c>
       <c r="E195" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B196" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>112</v>
+        <v>363</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B197" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5778,13 +5839,13 @@
         <v>303</v>
       </c>
       <c r="C198" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5795,13 +5856,13 @@
         <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,13 +5873,13 @@
         <v>303</v>
       </c>
       <c r="C200" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5829,13 +5890,13 @@
         <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5846,13 +5907,13 @@
         <v>303</v>
       </c>
       <c r="C202" t="s">
-        <v>427</v>
+        <v>58</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5863,13 +5924,13 @@
         <v>303</v>
       </c>
       <c r="C203" t="s">
-        <v>174</v>
+        <v>428</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5880,13 +5941,13 @@
         <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>84</v>
+        <v>427</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5897,13 +5958,13 @@
         <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5911,16 +5972,16 @@
         <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C206" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E206" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5928,16 +5989,16 @@
         <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C207" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E207" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5948,13 +6009,13 @@
         <v>304</v>
       </c>
       <c r="C208" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E208" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F208" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,13 +6026,13 @@
         <v>304</v>
       </c>
       <c r="C209" t="s">
-        <v>427</v>
+        <v>54</v>
       </c>
       <c r="E209" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F209" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,13 +6043,13 @@
         <v>304</v>
       </c>
       <c r="C210" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E210" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F210" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,13 +6060,13 @@
         <v>304</v>
       </c>
       <c r="C211" t="s">
-        <v>141</v>
+        <v>427</v>
       </c>
       <c r="E211" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F211" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6016,13 +6077,13 @@
         <v>304</v>
       </c>
       <c r="C212" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E212" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F212" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6033,13 +6094,13 @@
         <v>304</v>
       </c>
       <c r="C213" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E213" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F213" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6050,13 +6111,13 @@
         <v>304</v>
       </c>
       <c r="C214" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="E214" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F214" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6067,13 +6128,13 @@
         <v>304</v>
       </c>
       <c r="C215" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E215" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F215" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6084,13 +6145,13 @@
         <v>304</v>
       </c>
       <c r="C216" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E216" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F216" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6098,16 +6159,16 @@
         <v>357</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C217" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E217" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="F217" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6115,16 +6176,16 @@
         <v>357</v>
       </c>
       <c r="B218" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C218" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E218" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="F218" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6135,13 +6196,13 @@
         <v>305</v>
       </c>
       <c r="C219" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E219" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F219" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6152,13 +6213,13 @@
         <v>305</v>
       </c>
       <c r="C220" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="E220" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,13 +6230,13 @@
         <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E221" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F221" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6186,13 +6247,13 @@
         <v>305</v>
       </c>
       <c r="C222" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E222" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6203,13 +6264,13 @@
         <v>305</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E223" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F223" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6220,13 +6281,13 @@
         <v>305</v>
       </c>
       <c r="C224" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,47 +6298,47 @@
         <v>305</v>
       </c>
       <c r="C225" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="E225" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F225" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B226" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C226" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="F226" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B227" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C227" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="E227" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="F227" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6288,13 +6349,13 @@
         <v>425</v>
       </c>
       <c r="C228" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F228" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6305,13 +6366,13 @@
         <v>425</v>
       </c>
       <c r="C229" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="E229" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,13 +6383,13 @@
         <v>425</v>
       </c>
       <c r="C230" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E230" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F230" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,13 +6400,13 @@
         <v>425</v>
       </c>
       <c r="C231" t="s">
-        <v>430</v>
+        <v>283</v>
       </c>
       <c r="E231" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,50 +6414,50 @@
         <v>423</v>
       </c>
       <c r="B232" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C232" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E232" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F232" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C233" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E233" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F233" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B234" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="C234" t="s">
-        <v>443</v>
+        <v>306</v>
       </c>
       <c r="E234" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F234" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,16 +6465,16 @@
         <v>424</v>
       </c>
       <c r="B235" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C235" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E235" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="F235" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6424,13 +6485,13 @@
         <v>442</v>
       </c>
       <c r="C236" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E236" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F236" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6441,115 +6502,109 @@
         <v>442</v>
       </c>
       <c r="C237" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>424</v>
+      </c>
+      <c r="B238" t="s">
+        <v>442</v>
+      </c>
+      <c r="C238" t="s">
+        <v>449</v>
+      </c>
+      <c r="E238" t="s">
+        <v>450</v>
+      </c>
+      <c r="F238" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>424</v>
+      </c>
+      <c r="B239" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" t="s">
+        <v>452</v>
+      </c>
+      <c r="E239" t="s">
+        <v>453</v>
+      </c>
+      <c r="F239" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>464</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B240" t="s">
         <v>462</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C240" t="s">
         <v>463</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E240" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B241" t="s">
         <v>462</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C241" t="s">
         <v>468</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E241" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B240" t="s">
-        <v>481</v>
-      </c>
-      <c r="C240" t="s">
-        <v>482</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F240" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>484</v>
-      </c>
-      <c r="B241" t="s">
-        <v>481</v>
-      </c>
-      <c r="C241" t="s">
-        <v>483</v>
-      </c>
-      <c r="E241" t="s">
-        <v>496</v>
-      </c>
-      <c r="F241" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B242" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C242" t="s">
-        <v>627</v>
-      </c>
-      <c r="E242" t="s">
-        <v>467</v>
+        <v>482</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="F242" t="s">
-        <v>612</v>
-      </c>
-      <c r="G242" t="s">
-        <v>626</v>
+        <v>485</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>466</v>
+      <c r="A243" t="s">
+        <v>484</v>
       </c>
       <c r="B243" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C243" t="s">
-        <v>628</v>
+        <v>483</v>
       </c>
       <c r="E243" t="s">
-        <v>614</v>
+        <v>496</v>
       </c>
       <c r="F243" t="s">
-        <v>613</v>
-      </c>
-      <c r="G243" t="s">
-        <v>626</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6560,16 +6615,16 @@
         <v>462</v>
       </c>
       <c r="C244" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E244" t="s">
-        <v>615</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>616</v>
-      </c>
-      <c r="G244" t="s">
-        <v>626</v>
+        <v>611</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6580,16 +6635,16 @@
         <v>462</v>
       </c>
       <c r="C245" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E245" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F245" t="s">
-        <v>618</v>
-      </c>
-      <c r="G245" t="s">
-        <v>626</v>
+        <v>612</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6600,16 +6655,16 @@
         <v>462</v>
       </c>
       <c r="C246" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E246" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="F246" t="s">
-        <v>619</v>
-      </c>
-      <c r="G246" t="s">
-        <v>626</v>
+        <v>615</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6620,16 +6675,16 @@
         <v>462</v>
       </c>
       <c r="C247" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E247" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F247" t="s">
-        <v>621</v>
-      </c>
-      <c r="G247" t="s">
-        <v>626</v>
+        <v>617</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6640,16 +6695,16 @@
         <v>462</v>
       </c>
       <c r="C248" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E248" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="F248" t="s">
-        <v>623</v>
-      </c>
-      <c r="G248" t="s">
-        <v>626</v>
+        <v>618</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6660,16 +6715,16 @@
         <v>462</v>
       </c>
       <c r="C249" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E249" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F249" t="s">
+        <v>620</v>
+      </c>
+      <c r="G249" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="G249" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6677,206 +6732,223 @@
         <v>466</v>
       </c>
       <c r="B250" t="s">
+        <v>462</v>
+      </c>
+      <c r="C250" t="s">
+        <v>632</v>
+      </c>
+      <c r="E250" t="s">
+        <v>621</v>
+      </c>
+      <c r="F250" t="s">
+        <v>622</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B251" t="s">
+        <v>462</v>
+      </c>
+      <c r="C251" t="s">
+        <v>633</v>
+      </c>
+      <c r="E251" t="s">
+        <v>623</v>
+      </c>
+      <c r="F251" t="s">
+        <v>624</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B252" t="s">
+        <v>646</v>
+      </c>
+      <c r="C252" t="s">
+        <v>634</v>
+      </c>
+      <c r="E252" t="s">
         <v>635</v>
       </c>
-      <c r="C250" t="s">
-        <v>636</v>
-      </c>
-      <c r="E250" t="s">
-        <v>637</v>
-      </c>
-      <c r="F250" t="s">
+      <c r="F252" t="s">
+        <v>624</v>
+      </c>
+      <c r="G252" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="G250" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B251" t="s">
-        <v>480</v>
-      </c>
-      <c r="C251" t="s">
-        <v>488</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F251" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B252" t="s">
-        <v>480</v>
-      </c>
-      <c r="C252" t="s">
-        <v>489</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F252" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B253" t="s">
-        <v>480</v>
+        <v>646</v>
       </c>
       <c r="C253" t="s">
-        <v>491</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="E253" t="s">
+        <v>650</v>
+      </c>
+      <c r="F253" t="s">
+        <v>649</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B254" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C254" t="s">
-        <v>482</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B255" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C255" t="s">
-        <v>483</v>
-      </c>
-      <c r="E255" t="s">
-        <v>494</v>
+        <v>489</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B256" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C256" t="s">
-        <v>500</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F256" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B257" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="C257" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B258" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="C258" t="s">
-        <v>569</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>570</v>
+        <v>483</v>
+      </c>
+      <c r="E258" t="s">
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B259" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C259" t="s">
-        <v>508</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>561</v>
+        <v>500</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B260" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="C260" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="F260" t="s">
+        <v>573</v>
+      </c>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B261" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="C261" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F261" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>479</v>
       </c>
@@ -6884,33 +6956,35 @@
         <v>506</v>
       </c>
       <c r="C262" t="s">
-        <v>513</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>560</v>
+        <v>508</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B263" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C263" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F263" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>479</v>
       </c>
@@ -6918,33 +6992,35 @@
         <v>505</v>
       </c>
       <c r="C264" t="s">
-        <v>525</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="F264" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B265" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C265" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>479</v>
       </c>
@@ -6952,31 +7028,87 @@
         <v>505</v>
       </c>
       <c r="C266" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>597</v>
+        <v>516</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B267" t="s">
+        <v>505</v>
+      </c>
+      <c r="C267" t="s">
+        <v>525</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F267" t="s">
+        <v>527</v>
+      </c>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B268" t="s">
+        <v>505</v>
+      </c>
+      <c r="C268" t="s">
+        <v>517</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F268" t="s">
+        <v>528</v>
+      </c>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B269" t="s">
+        <v>505</v>
+      </c>
+      <c r="C269" t="s">
+        <v>529</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F269" t="s">
+        <v>530</v>
+      </c>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B270" t="s">
         <v>506</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C270" t="s">
         <v>531</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F270" t="s">
         <v>532</v>
       </c>
+      <c r="G270" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="661">
   <si>
     <t>set</t>
   </si>
@@ -2036,6 +2036,40 @@
   </si>
   <si>
     <t>&lt;script type="text/javascript" src="/desktopmodules/tosic_sexycontent/js/angularjs/angular.min.js" data-enableoptimizations="101"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Render separate cshtml (sub-template)</t>
+  </si>
+  <si>
+    <t>Render separate cshtml with params (sub-template)</t>
+  </si>
+  <si>
+    <t>Create instance of CSHTML with library functions</t>
+  </si>
+  <si>
+    <t>In a sub-template, access parameter given in</t>
+  </si>
+  <si>
+    <t>Render sub-template</t>
+  </si>
+  <si>
+    <t>Render sub-template w/params</t>
+  </si>
+  <si>
+    <t>@{
+    var lib = CreateInstance("_${1:library}.cshtml"); 
+}</t>
+  </si>
+  <si>
+    <t>@{
+    var ${2:post} = PageData["${1:Post}"];
+}</t>
+  </si>
+  <si>
+    <t>@RenderPage("_${1:list-item}.cshtml", new { ${2:Post} = ${3:post} })</t>
+  </si>
+  <si>
+    <t>@RenderPage("_${1:list-item}.cshtml")</t>
   </si>
 </sst>
 </file>
@@ -2099,8 +2133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G270" totalsRowShown="0">
-  <autoFilter ref="A1:G270"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G274" totalsRowShown="0">
+  <autoFilter ref="A1:G274"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2377,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5504,99 +5538,109 @@
       <c r="G177" s="4"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>355</v>
+      <c r="A178" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B178" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="C178" t="s">
-        <v>360</v>
-      </c>
-      <c r="E178" t="s">
-        <v>319</v>
+        <v>655</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="F178" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>355</v>
+        <v>651</v>
+      </c>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B179" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="C179" t="s">
-        <v>361</v>
-      </c>
-      <c r="E179" t="s">
-        <v>535</v>
+        <v>656</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="F179" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>356</v>
+        <v>652</v>
+      </c>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="C180" t="s">
-        <v>455</v>
-      </c>
-      <c r="E180" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>356</v>
+        <v>653</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F180" t="s">
+        <v>653</v>
+      </c>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="C181" t="s">
-        <v>456</v>
-      </c>
-      <c r="E181" t="s">
-        <v>536</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F181" t="s">
+        <v>654</v>
+      </c>
+      <c r="G181" s="4"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B182" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C182" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="E182" t="s">
-        <v>534</v>
+        <v>319</v>
       </c>
       <c r="F182" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B183" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C183" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E183" t="s">
-        <v>323</v>
+        <v>535</v>
       </c>
       <c r="F183" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5604,16 +5648,13 @@
         <v>356</v>
       </c>
       <c r="B184" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C184" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="E184" t="s">
-        <v>325</v>
-      </c>
-      <c r="F184" t="s">
-        <v>542</v>
+        <v>320</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5621,16 +5662,13 @@
         <v>356</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C185" t="s">
-        <v>326</v>
+        <v>456</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
-      </c>
-      <c r="F185" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5638,16 +5676,16 @@
         <v>356</v>
       </c>
       <c r="B186" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C186" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E186" t="s">
-        <v>329</v>
+        <v>534</v>
       </c>
       <c r="F186" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5658,13 +5696,13 @@
         <v>358</v>
       </c>
       <c r="C187" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E187" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F187" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5675,13 +5713,13 @@
         <v>358</v>
       </c>
       <c r="C188" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E188" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F188" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5692,13 +5730,13 @@
         <v>358</v>
       </c>
       <c r="C189" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E189" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F189" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5709,10 +5747,13 @@
         <v>358</v>
       </c>
       <c r="C190" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E190" t="s">
-        <v>337</v>
+        <v>329</v>
+      </c>
+      <c r="F190" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,78 +5764,75 @@
         <v>358</v>
       </c>
       <c r="C191" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E191" t="s">
-        <v>339</v>
+        <v>331</v>
+      </c>
+      <c r="F191" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="E192" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C193" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="E193" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F193" t="s">
-        <v>27</v>
+        <v>546</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C194" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="E194" t="s">
-        <v>342</v>
-      </c>
-      <c r="F194" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="E195" t="s">
-        <v>343</v>
-      </c>
-      <c r="F195" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,13 +5843,13 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5822,81 +5860,81 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E197" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B198" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B199" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B200" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B201" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5907,13 +5945,13 @@
         <v>303</v>
       </c>
       <c r="C202" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,13 +5962,13 @@
         <v>303</v>
       </c>
       <c r="C203" t="s">
-        <v>428</v>
+        <v>54</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5941,13 +5979,13 @@
         <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5958,13 +5996,13 @@
         <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>174</v>
+        <v>426</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,13 +6013,13 @@
         <v>303</v>
       </c>
       <c r="C206" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5992,13 +6030,13 @@
         <v>303</v>
       </c>
       <c r="C207" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6006,16 +6044,16 @@
         <v>357</v>
       </c>
       <c r="B208" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C208" t="s">
-        <v>112</v>
+        <v>427</v>
       </c>
       <c r="E208" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6023,16 +6061,16 @@
         <v>357</v>
       </c>
       <c r="B209" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C209" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E209" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6040,16 +6078,16 @@
         <v>357</v>
       </c>
       <c r="B210" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C210" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E210" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6057,16 +6095,16 @@
         <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C211" t="s">
-        <v>427</v>
+        <v>90</v>
       </c>
       <c r="E211" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6077,13 +6115,13 @@
         <v>304</v>
       </c>
       <c r="C212" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E212" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F212" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6094,13 +6132,13 @@
         <v>304</v>
       </c>
       <c r="C213" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="E213" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F213" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6111,13 +6149,13 @@
         <v>304</v>
       </c>
       <c r="C214" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E214" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F214" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6128,13 +6166,13 @@
         <v>304</v>
       </c>
       <c r="C215" t="s">
-        <v>162</v>
+        <v>427</v>
       </c>
       <c r="E215" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F215" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,13 +6183,13 @@
         <v>304</v>
       </c>
       <c r="C216" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E216" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F216" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6162,13 +6200,13 @@
         <v>304</v>
       </c>
       <c r="C217" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E217" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F217" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,13 +6217,13 @@
         <v>304</v>
       </c>
       <c r="C218" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="E218" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F218" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6193,16 +6231,16 @@
         <v>357</v>
       </c>
       <c r="B219" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C219" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E219" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="F219" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6210,16 +6248,16 @@
         <v>357</v>
       </c>
       <c r="B220" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C220" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="E220" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,16 +6265,16 @@
         <v>357</v>
       </c>
       <c r="B221" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C221" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E221" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F221" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6244,16 +6282,16 @@
         <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C222" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E222" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6264,13 +6302,13 @@
         <v>305</v>
       </c>
       <c r="C223" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E223" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F223" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6281,13 +6319,13 @@
         <v>305</v>
       </c>
       <c r="C224" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="E224" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6298,13 +6336,13 @@
         <v>305</v>
       </c>
       <c r="C225" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="E225" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F225" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6315,13 +6353,13 @@
         <v>305</v>
       </c>
       <c r="C226" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E226" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6332,81 +6370,81 @@
         <v>305</v>
       </c>
       <c r="C227" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="E227" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F227" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C228" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="E228" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="F228" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B229" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C229" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E229" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="F229" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C230" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="E230" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="F230" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B231" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C231" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E231" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="F231" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,13 +6455,13 @@
         <v>425</v>
       </c>
       <c r="C232" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E232" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F232" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6434,13 +6472,13 @@
         <v>425</v>
       </c>
       <c r="C233" t="s">
-        <v>430</v>
+        <v>205</v>
       </c>
       <c r="E233" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F233" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6448,84 +6486,84 @@
         <v>423</v>
       </c>
       <c r="B234" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C234" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="E234" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F234" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B235" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C235" t="s">
-        <v>429</v>
+        <v>283</v>
       </c>
       <c r="E235" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F235" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B236" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C236" t="s">
-        <v>443</v>
+        <v>290</v>
       </c>
       <c r="E236" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="F236" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B237" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C237" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E237" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="F237" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B238" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="C238" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="E238" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="F238" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6533,158 +6571,146 @@
         <v>424</v>
       </c>
       <c r="B239" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C239" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B240" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C240" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>444</v>
+      </c>
+      <c r="F240" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>464</v>
+      <c r="A241" t="s">
+        <v>424</v>
       </c>
       <c r="B241" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C241" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="E241" t="s">
-        <v>562</v>
+        <v>446</v>
+      </c>
+      <c r="F241" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>484</v>
+      <c r="A242" t="s">
+        <v>424</v>
       </c>
       <c r="B242" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C242" t="s">
-        <v>482</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>495</v>
+        <v>449</v>
+      </c>
+      <c r="E242" t="s">
+        <v>450</v>
       </c>
       <c r="F242" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C243" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="E243" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>466</v>
+      <c r="A244" t="s">
+        <v>464</v>
       </c>
       <c r="B244" t="s">
         <v>462</v>
       </c>
       <c r="C244" t="s">
-        <v>626</v>
+        <v>463</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
-      </c>
-      <c r="F244" t="s">
-        <v>611</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>625</v>
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B245" t="s">
         <v>462</v>
       </c>
       <c r="C245" t="s">
-        <v>627</v>
+        <v>468</v>
       </c>
       <c r="E245" t="s">
-        <v>613</v>
-      </c>
-      <c r="F245" t="s">
-        <v>612</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C246" t="s">
-        <v>628</v>
-      </c>
-      <c r="E246" t="s">
-        <v>614</v>
+        <v>482</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="F246" t="s">
-        <v>615</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>625</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>466</v>
+      <c r="A247" t="s">
+        <v>484</v>
       </c>
       <c r="B247" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C247" t="s">
-        <v>629</v>
+        <v>483</v>
       </c>
       <c r="E247" t="s">
-        <v>616</v>
+        <v>496</v>
       </c>
       <c r="F247" t="s">
-        <v>617</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>625</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6695,13 +6721,13 @@
         <v>462</v>
       </c>
       <c r="C248" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E248" t="s">
-        <v>563</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>625</v>
@@ -6715,13 +6741,13 @@
         <v>462</v>
       </c>
       <c r="C249" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E249" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F249" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>625</v>
@@ -6735,13 +6761,13 @@
         <v>462</v>
       </c>
       <c r="C250" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E250" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F250" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>625</v>
@@ -6755,13 +6781,13 @@
         <v>462</v>
       </c>
       <c r="C251" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E251" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F251" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>625</v>
@@ -6772,16 +6798,16 @@
         <v>466</v>
       </c>
       <c r="B252" t="s">
-        <v>646</v>
+        <v>462</v>
       </c>
       <c r="C252" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E252" t="s">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="F252" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>625</v>
@@ -6792,141 +6818,149 @@
         <v>466</v>
       </c>
       <c r="B253" t="s">
+        <v>462</v>
+      </c>
+      <c r="C253" t="s">
+        <v>631</v>
+      </c>
+      <c r="E253" t="s">
+        <v>619</v>
+      </c>
+      <c r="F253" t="s">
+        <v>620</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B254" t="s">
+        <v>462</v>
+      </c>
+      <c r="C254" t="s">
+        <v>632</v>
+      </c>
+      <c r="E254" t="s">
+        <v>621</v>
+      </c>
+      <c r="F254" t="s">
+        <v>622</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B255" t="s">
+        <v>462</v>
+      </c>
+      <c r="C255" t="s">
+        <v>633</v>
+      </c>
+      <c r="E255" t="s">
+        <v>623</v>
+      </c>
+      <c r="F255" t="s">
+        <v>624</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B256" t="s">
         <v>646</v>
       </c>
-      <c r="C253" t="s">
-        <v>647</v>
-      </c>
-      <c r="E253" t="s">
-        <v>650</v>
-      </c>
-      <c r="F253" t="s">
-        <v>649</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B254" t="s">
-        <v>480</v>
-      </c>
-      <c r="C254" t="s">
-        <v>488</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F254" t="s">
-        <v>490</v>
-      </c>
-      <c r="G254" s="4"/>
-    </row>
-    <row r="255" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B255" t="s">
-        <v>480</v>
-      </c>
-      <c r="C255" t="s">
-        <v>489</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F255" t="s">
-        <v>487</v>
-      </c>
-      <c r="G255" s="4"/>
-    </row>
-    <row r="256" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B256" t="s">
-        <v>480</v>
-      </c>
       <c r="C256" t="s">
-        <v>491</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G256" s="4"/>
+        <v>634</v>
+      </c>
+      <c r="E256" t="s">
+        <v>635</v>
+      </c>
+      <c r="F256" t="s">
+        <v>624</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B257" t="s">
-        <v>481</v>
+        <v>646</v>
       </c>
       <c r="C257" t="s">
-        <v>482</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>493</v>
+        <v>647</v>
+      </c>
+      <c r="E257" t="s">
+        <v>650</v>
       </c>
       <c r="F257" t="s">
-        <v>485</v>
-      </c>
-      <c r="G257" s="4"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B258" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C258" t="s">
-        <v>483</v>
-      </c>
-      <c r="E258" t="s">
-        <v>494</v>
+        <v>488</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B259" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C259" t="s">
-        <v>500</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B260" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="C260" t="s">
-        <v>572</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F260" t="s">
-        <v>573</v>
+        <v>491</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="G260" s="4"/>
     </row>
@@ -6935,70 +6969,70 @@
         <v>479</v>
       </c>
       <c r="B261" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="C261" t="s">
-        <v>569</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>570</v>
+        <v>482</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>571</v>
+        <v>485</v>
       </c>
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B262" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C262" t="s">
-        <v>508</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>561</v>
+        <v>483</v>
+      </c>
+      <c r="E262" t="s">
+        <v>494</v>
       </c>
       <c r="F262" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B263" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C263" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>512</v>
+        <v>501</v>
+      </c>
+      <c r="F263" t="s">
+        <v>502</v>
       </c>
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B264" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="C264" t="s">
-        <v>511</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>566</v>
+        <v>572</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="F264" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G264" s="4"/>
     </row>
@@ -7007,56 +7041,56 @@
         <v>479</v>
       </c>
       <c r="B265" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="C265" t="s">
-        <v>513</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>560</v>
+        <v>569</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B266" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C266" t="s">
-        <v>515</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F266" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B267" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C267" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F267" t="s">
-        <v>527</v>
+        <v>510</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>479</v>
       </c>
@@ -7064,13 +7098,13 @@
         <v>505</v>
       </c>
       <c r="C268" t="s">
-        <v>517</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="G268" s="4"/>
     </row>
@@ -7079,16 +7113,16 @@
         <v>479</v>
       </c>
       <c r="B269" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C269" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="G269" s="4"/>
     </row>
@@ -7097,18 +7131,90 @@
         <v>479</v>
       </c>
       <c r="B270" t="s">
+        <v>505</v>
+      </c>
+      <c r="C270" t="s">
+        <v>515</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F270" t="s">
+        <v>526</v>
+      </c>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B271" t="s">
+        <v>505</v>
+      </c>
+      <c r="C271" t="s">
+        <v>525</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F271" t="s">
+        <v>527</v>
+      </c>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B272" t="s">
+        <v>505</v>
+      </c>
+      <c r="C272" t="s">
+        <v>517</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F272" t="s">
+        <v>528</v>
+      </c>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B273" t="s">
+        <v>505</v>
+      </c>
+      <c r="C273" t="s">
+        <v>529</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F273" t="s">
+        <v>530</v>
+      </c>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B274" t="s">
         <v>506</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C274" t="s">
         <v>531</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F274" t="s">
         <v>532</v>
       </c>
-      <c r="G270" s="4"/>
+      <c r="G274" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -2134,7 +2134,20 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G274" totalsRowShown="0">
-  <autoFilter ref="A1:G274"/>
+  <autoFilter ref="A1:G274">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="@\InputType"/>
+        <filter val="@App"/>
+        <filter val="@C#"/>
+        <filter val="@Content"/>
+        <filter val="@DnnRazor"/>
+        <filter val="@Html"/>
+        <filter val="@List"/>
+        <filter val="@User"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2413,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,10 +5496,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="B175" t="s">
-        <v>644</v>
+        <v>499</v>
       </c>
       <c r="C175" t="s">
         <v>637</v>
@@ -5609,7 +5622,7 @@
       </c>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>355</v>
       </c>
@@ -5643,7 +5656,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>356</v>
       </c>
@@ -5657,7 +5670,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>356</v>
       </c>
@@ -5671,7 +5684,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -5688,7 +5701,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>356</v>
       </c>
@@ -5705,7 +5718,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>356</v>
       </c>
@@ -5722,7 +5735,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>356</v>
       </c>
@@ -5739,7 +5752,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>356</v>
       </c>
@@ -5756,7 +5769,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>356</v>
       </c>
@@ -5773,7 +5786,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>356</v>
       </c>
@@ -5790,7 +5803,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>356</v>
       </c>
@@ -5807,7 +5820,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>356</v>
       </c>
@@ -5821,7 +5834,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>356</v>
       </c>
@@ -5835,7 +5848,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>478</v>
       </c>
@@ -5852,7 +5865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>478</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>478</v>
       </c>
@@ -5886,7 +5899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>478</v>
       </c>
@@ -5903,7 +5916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>478</v>
       </c>
@@ -5920,7 +5933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>478</v>
       </c>
@@ -5937,7 +5950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>357</v>
       </c>
@@ -5954,7 +5967,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>357</v>
       </c>
@@ -5971,7 +5984,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>357</v>
       </c>
@@ -5988,7 +6001,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>357</v>
       </c>
@@ -6005,7 +6018,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>357</v>
       </c>
@@ -6022,7 +6035,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>357</v>
       </c>
@@ -6039,7 +6052,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -6056,7 +6069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -6073,7 +6086,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>357</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>357</v>
       </c>
@@ -6107,7 +6120,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>357</v>
       </c>
@@ -6124,7 +6137,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -6141,7 +6154,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>357</v>
       </c>
@@ -6158,7 +6171,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>357</v>
       </c>
@@ -6175,7 +6188,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>357</v>
       </c>
@@ -6192,7 +6205,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>357</v>
       </c>
@@ -6209,7 +6222,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>357</v>
       </c>
@@ -6226,7 +6239,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -6243,7 +6256,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>357</v>
       </c>
@@ -6260,7 +6273,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>357</v>
       </c>
@@ -6277,7 +6290,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>357</v>
       </c>
@@ -6294,7 +6307,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>357</v>
       </c>
@@ -6311,7 +6324,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>357</v>
       </c>
@@ -6328,7 +6341,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>357</v>
       </c>
@@ -6345,7 +6358,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>357</v>
       </c>
@@ -6362,7 +6375,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>357</v>
       </c>
@@ -6379,7 +6392,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>357</v>
       </c>
@@ -6396,7 +6409,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>357</v>
       </c>
@@ -6413,7 +6426,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>357</v>
       </c>
@@ -6430,7 +6443,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>357</v>
       </c>
@@ -6447,7 +6460,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>423</v>
       </c>
@@ -6464,7 +6477,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>423</v>
       </c>
@@ -6481,7 +6494,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>423</v>
       </c>
@@ -6498,7 +6511,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>423</v>
       </c>
@@ -6515,7 +6528,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>423</v>
       </c>
@@ -6532,7 +6545,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>423</v>
       </c>
@@ -6549,7 +6562,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>423</v>
       </c>
@@ -6566,7 +6579,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>424</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>424</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>424</v>
       </c>
@@ -6617,7 +6630,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>424</v>
       </c>
@@ -6634,7 +6647,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>424</v>
       </c>
@@ -6651,7 +6664,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>464</v>
       </c>
@@ -6665,7 +6678,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>464</v>
       </c>
@@ -6679,7 +6692,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>484</v>
       </c>
@@ -6696,7 +6709,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>484</v>
       </c>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="723">
   <si>
     <t>set</t>
   </si>
@@ -2070,6 +2070,196 @@
   </si>
   <si>
     <t>@RenderPage("_${1:list-item}.cshtml")</t>
+  </si>
+  <si>
+    <t>@using Connect.Koi;</t>
+  </si>
+  <si>
+    <t>Get CSS Framework Code</t>
+  </si>
+  <si>
+    <t>Show something if unknown</t>
+  </si>
+  <si>
+    <t>Pick a supported framework code, or use fallback</t>
+  </si>
+  <si>
+    <t>Include a CSS file of one of a supported framework</t>
+  </si>
+  <si>
+    <t>@Koi.Css</t>
+  </si>
+  <si>
+    <t>Shows the current css-framework code - requires the @using somewhere in the file.</t>
+  </si>
+  <si>
+    <t>Returns the css-code of the list you support, or returns another value if not</t>
+  </si>
+  <si>
+    <t>Outputs this text if the framework isn't known</t>
+  </si>
+  <si>
+    <t>Check if the skin doesn't publish the framework</t>
+  </si>
+  <si>
+    <t>@Koi.IsUnknown</t>
+  </si>
+  <si>
+    <t>Returns true if unknown, false if known.</t>
+  </si>
+  <si>
+    <t>Outputs this text if the framework isn't known or the other one if known</t>
+  </si>
+  <si>
+    <t>If unknown or known</t>
+  </si>
+  <si>
+    <t>@Koi.IfUnknown("&lt;link rel='stylesheet' href='https://maxcdn.bootstrapcdn.com/bootstrap/3.3.7/css/bootstrap.min.css'&gt;")</t>
+  </si>
+  <si>
+    <t>@Koi.IfUnknown("&lt;link rel='stylesheet' href='https://maxcdn.bootstrapcdn.com/bootstrap/4.0.0/css/bootstrap.min.css' integrity='sha384-Gn5384xqQ1aoWXA+058RXPxPg6fy4IWvTNh0E263XmFcJlSAwiGgFAW/dAiS6JXm' crossorigin='anonymous'&gt;")</t>
+  </si>
+  <si>
+    <t>Include bootstrap 3 from a CDN if the theme doesn't publish it's framework.</t>
+  </si>
+  <si>
+    <t>Include bootstrap 4 from a CDN if the theme doesn't publish it's framework.</t>
+  </si>
+  <si>
+    <t>@Koi.PickCss("${1:bs3,bs4,fnd6}", "${2:other}")</t>
+  </si>
+  <si>
+    <t>@Koi.IfUnknown("${1:css framework unknown}")</t>
+  </si>
+  <si>
+    <t>@Koi.IfUnknown("${1:css framework unknown}", "${2:it is defined!}")</t>
+  </si>
+  <si>
+    <t>@Koi.Class("all='ga-albums' bs3='row' bs4='row4'")</t>
+  </si>
+  <si>
+    <t>Class attr. for bootstrap 3, 4 and unknown</t>
+  </si>
+  <si>
+    <t>Class attr. for bootstrap 3, 4</t>
+  </si>
+  <si>
+    <t>Example for a simple bootstrap3 and 4 difference</t>
+  </si>
+  <si>
+    <t>Example for a simple bootstrap3 and 4 difference + unknown</t>
+  </si>
+  <si>
+    <t>Example for shared classes, bs3/4</t>
+  </si>
+  <si>
+    <t>Show a section if supported framework</t>
+  </si>
+  <si>
+    <t>Show something short if a supported framework</t>
+  </si>
+  <si>
+    <t>@Koi.If("${1:bs3,bs4}", "${2:&lt;strong&gt;supported&lt;/strong&gt;}")</t>
+  </si>
+  <si>
+    <t>http://connect-koi.net/components</t>
+  </si>
+  <si>
+    <t>Show something short if a supported, otherwise show something else</t>
+  </si>
+  <si>
+    <t>Show a text or short html if it's a supported framework.</t>
+  </si>
+  <si>
+    <t>Show a text or short html if it's a supported framework; otherwise show something else.</t>
+  </si>
+  <si>
+    <t>Include bootstrap 4 from a CDN if the theme isn't Bootstrap 3/4</t>
+  </si>
+  <si>
+    <t>Include bootstrap 3 from a CDN if the theme theme isn't Bootstrap 3/4</t>
+  </si>
+  <si>
+    <t>@Koi.If("${1:bs3,bs4}", "", "&lt;link rel='stylesheet' href='https://maxcdn.bootstrapcdn.com/bootstrap/3.3.7/css/bootstrap.min.css'&gt;")</t>
+  </si>
+  <si>
+    <t>@Koi.If("${1:bs3,bs4}", "", "&lt;link rel='stylesheet' href='https://maxcdn.bootstrapcdn.com/bootstrap/4.0.0/css/bootstrap.min.css' integrity='sha384-Gn5384xqQ1aoWXA+058RXPxPg6fy4IWvTNh0E263XmFcJlSAwiGgFAW/dAiS6JXm' crossorigin='anonymous'&gt;")</t>
+  </si>
+  <si>
+    <t>@Koi.Class("bs3='${1:row}' bs4='${2:row}'")</t>
+  </si>
+  <si>
+    <t>@Koi.Class("bs3='${1:row}' bs4='${2:row}' unk='${3:unknown}'")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class attr. for BS 3, 4 and all </t>
+  </si>
+  <si>
+    <t>Class attr. for bs3/4 - with all others reverting to BS3</t>
+  </si>
+  <si>
+    <t>@Koi.Class("all='ga-albums' bs3,oth='row' bs4='row4'")</t>
+  </si>
+  <si>
+    <t>Example where unknown or other frameworks would get the same classes as BS3</t>
+  </si>
+  <si>
+    <t>Will include bs3.css, bs4.css or fallback.css</t>
+  </si>
+  <si>
+    <t>@if(Koi.Is("${1:bs3,bs4}")) {
+    ${2:&lt;strong&gt;supported&lt;/strong&gt;}
+}</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>IsUnknown</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>@Koi</t>
+  </si>
+  <si>
+    <t>Show a section if not supported framework</t>
+  </si>
+  <si>
+    <t>@if(!Koi.Is("${1:bs3,bs4}")) {
+    ${2:&lt;strong&gt;supported&lt;/strong&gt;}
+}</t>
+  </si>
+  <si>
+    <t>CssFramework</t>
+  </si>
+  <si>
+    <t>GetFromCdn</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href='@App.Path/dist/@(Koi.PickCss("${1:bs3,bs4}", "${2:fallback}")).css' data-enableoptimizations="true" /&gt;</t>
+  </si>
+  <si>
+    <t>Get Bootstrap3 if unknown</t>
+  </si>
+  <si>
+    <t>Get Bootstrap4 if unknown</t>
+  </si>
+  <si>
+    <t>Get Bootstrap3 if not bs3/4</t>
+  </si>
+  <si>
+    <t>Get Bootstrap4 if not bs3/4</t>
+  </si>
+  <si>
+    <t>@Koi.If("${1:bs3,bs4}", "${2:&lt;strong&gt;supported&lt;/strong&gt;}", "${3:&lt;em&gt;not supported&lt;/em&gt;}")</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G274" totalsRowShown="0">
-  <autoFilter ref="A1:G274"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G292" totalsRowShown="0">
+  <autoFilter ref="A1:G292"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2411,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5457,9 +5647,20 @@
         <v>459</v>
       </c>
       <c r="B173" t="s">
-        <v>460</v>
-      </c>
-      <c r="G173" s="4"/>
+        <v>644</v>
+      </c>
+      <c r="C173" t="s">
+        <v>638</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F173" t="s">
+        <v>639</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -5469,39 +5670,37 @@
         <v>644</v>
       </c>
       <c r="C174" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="F174" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B175" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C175" t="s">
-        <v>637</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>643</v>
+        <v>576</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="F175" t="s">
-        <v>640</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>459</v>
       </c>
@@ -5509,35 +5708,35 @@
         <v>645</v>
       </c>
       <c r="C176" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F176" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B177" t="s">
-        <v>645</v>
+        <v>460</v>
       </c>
       <c r="C177" t="s">
-        <v>577</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>580</v>
+        <v>655</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="F177" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>459</v>
       </c>
@@ -5545,17 +5744,17 @@
         <v>460</v>
       </c>
       <c r="C178" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F178" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>459</v>
       </c>
@@ -5563,13 +5762,13 @@
         <v>460</v>
       </c>
       <c r="C179" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F179" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G179" s="4"/>
     </row>
@@ -5581,666 +5780,713 @@
         <v>460</v>
       </c>
       <c r="C180" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F180" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>459</v>
+        <v>712</v>
       </c>
       <c r="B181" t="s">
-        <v>460</v>
-      </c>
-      <c r="C181" t="s">
-        <v>654</v>
+        <v>707</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F181" t="s">
-        <v>654</v>
-      </c>
-      <c r="G181" s="4"/>
+        <v>661</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B182" t="s">
+        <v>715</v>
+      </c>
+      <c r="C182" t="s">
+        <v>662</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F182" t="s">
+        <v>667</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B183" t="s">
+        <v>715</v>
+      </c>
+      <c r="C183" t="s">
+        <v>664</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F183" t="s">
+        <v>668</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B184" t="s">
+        <v>708</v>
+      </c>
+      <c r="C184" t="s">
+        <v>670</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F184" t="s">
+        <v>672</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B185" t="s">
+        <v>708</v>
+      </c>
+      <c r="C185" t="s">
+        <v>663</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F185" t="s">
+        <v>669</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B186" t="s">
+        <v>708</v>
+      </c>
+      <c r="C186" t="s">
+        <v>674</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F186" t="s">
+        <v>673</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B187" t="s">
+        <v>716</v>
+      </c>
+      <c r="C187" t="s">
+        <v>718</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F187" t="s">
+        <v>677</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B188" t="s">
+        <v>716</v>
+      </c>
+      <c r="C188" t="s">
+        <v>719</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F188" t="s">
+        <v>678</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B189" t="s">
+        <v>716</v>
+      </c>
+      <c r="C189" t="s">
+        <v>720</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F189" t="s">
+        <v>696</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B190" t="s">
+        <v>716</v>
+      </c>
+      <c r="C190" t="s">
+        <v>721</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F190" t="s">
+        <v>695</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B191" t="s">
+        <v>711</v>
+      </c>
+      <c r="C191" t="s">
+        <v>665</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F191" t="s">
+        <v>705</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B192" t="s">
+        <v>709</v>
+      </c>
+      <c r="C192" t="s">
+        <v>684</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F192" t="s">
+        <v>685</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B193" t="s">
+        <v>709</v>
+      </c>
+      <c r="C193" t="s">
+        <v>683</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F193" t="s">
+        <v>686</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B194" t="s">
+        <v>709</v>
+      </c>
+      <c r="C194" t="s">
+        <v>701</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F194" t="s">
+        <v>687</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B195" t="s">
+        <v>709</v>
+      </c>
+      <c r="C195" t="s">
+        <v>702</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F195" t="s">
+        <v>704</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B196" t="s">
+        <v>710</v>
+      </c>
+      <c r="C196" t="s">
+        <v>689</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F196" t="s">
+        <v>693</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B197" t="s">
+        <v>710</v>
+      </c>
+      <c r="C197" t="s">
+        <v>692</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F197" t="s">
+        <v>694</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B198" t="s">
+        <v>710</v>
+      </c>
+      <c r="C198" t="s">
+        <v>688</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B199" t="s">
+        <v>710</v>
+      </c>
+      <c r="C199" t="s">
+        <v>713</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>355</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B200" t="s">
         <v>359</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C200" t="s">
         <v>360</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E200" t="s">
         <v>319</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F200" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>355</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B201" t="s">
         <v>359</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C201" t="s">
         <v>361</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E201" t="s">
         <v>535</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F201" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>356</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B202" t="s">
         <v>58</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C202" t="s">
         <v>455</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E202" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>356</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B203" t="s">
         <v>58</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C203" t="s">
         <v>456</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E203" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>356</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B204" t="s">
         <v>321</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C204" t="s">
         <v>321</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E204" t="s">
         <v>534</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F204" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>356</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B205" t="s">
         <v>358</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C205" t="s">
         <v>322</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E205" t="s">
         <v>323</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F205" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>356</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B206" t="s">
         <v>358</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C206" t="s">
         <v>324</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E206" t="s">
         <v>325</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F206" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>356</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B207" t="s">
         <v>358</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C207" t="s">
         <v>326</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E207" t="s">
         <v>327</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F207" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>356</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B208" t="s">
         <v>358</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C208" t="s">
         <v>328</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E208" t="s">
         <v>329</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F208" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>356</v>
-      </c>
-      <c r="B191" t="s">
-        <v>358</v>
-      </c>
-      <c r="C191" t="s">
-        <v>330</v>
-      </c>
-      <c r="E191" t="s">
-        <v>331</v>
-      </c>
-      <c r="F191" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>356</v>
-      </c>
-      <c r="B192" t="s">
-        <v>358</v>
-      </c>
-      <c r="C192" t="s">
-        <v>332</v>
-      </c>
-      <c r="E192" t="s">
-        <v>333</v>
-      </c>
-      <c r="F192" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>356</v>
-      </c>
-      <c r="B193" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193" t="s">
-        <v>334</v>
-      </c>
-      <c r="E193" t="s">
-        <v>335</v>
-      </c>
-      <c r="F193" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>356</v>
-      </c>
-      <c r="B194" t="s">
-        <v>358</v>
-      </c>
-      <c r="C194" t="s">
-        <v>336</v>
-      </c>
-      <c r="E194" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>356</v>
-      </c>
-      <c r="B195" t="s">
-        <v>358</v>
-      </c>
-      <c r="C195" t="s">
-        <v>338</v>
-      </c>
-      <c r="E195" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>478</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>2</v>
-      </c>
-      <c r="E196" t="s">
-        <v>340</v>
-      </c>
-      <c r="F196" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>478</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>362</v>
-      </c>
-      <c r="E197" t="s">
-        <v>341</v>
-      </c>
-      <c r="F197" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>478</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>215</v>
-      </c>
-      <c r="E198" t="s">
-        <v>342</v>
-      </c>
-      <c r="F198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>478</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>22</v>
-      </c>
-      <c r="E199" t="s">
-        <v>343</v>
-      </c>
-      <c r="F199" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>478</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>363</v>
-      </c>
-      <c r="E200" t="s">
-        <v>344</v>
-      </c>
-      <c r="F200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>478</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>364</v>
-      </c>
-      <c r="E201" t="s">
-        <v>345</v>
-      </c>
-      <c r="F201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>357</v>
-      </c>
-      <c r="B202" t="s">
-        <v>303</v>
-      </c>
-      <c r="C202" t="s">
-        <v>112</v>
-      </c>
-      <c r="E202" t="s">
-        <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>357</v>
-      </c>
-      <c r="B203" t="s">
-        <v>303</v>
-      </c>
-      <c r="C203" t="s">
-        <v>54</v>
-      </c>
-      <c r="E203" t="s">
-        <v>389</v>
-      </c>
-      <c r="F203" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>357</v>
-      </c>
-      <c r="B204" t="s">
-        <v>303</v>
-      </c>
-      <c r="C204" t="s">
-        <v>56</v>
-      </c>
-      <c r="E204" t="s">
-        <v>391</v>
-      </c>
-      <c r="F204" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>357</v>
-      </c>
-      <c r="B205" t="s">
-        <v>303</v>
-      </c>
-      <c r="C205" t="s">
-        <v>426</v>
-      </c>
-      <c r="E205" t="s">
-        <v>393</v>
-      </c>
-      <c r="F205" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>357</v>
-      </c>
-      <c r="B206" t="s">
-        <v>303</v>
-      </c>
-      <c r="C206" t="s">
-        <v>58</v>
-      </c>
-      <c r="E206" t="s">
-        <v>395</v>
-      </c>
-      <c r="F206" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>357</v>
-      </c>
-      <c r="B207" t="s">
-        <v>303</v>
-      </c>
-      <c r="C207" t="s">
-        <v>428</v>
-      </c>
-      <c r="E207" t="s">
-        <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>357</v>
-      </c>
-      <c r="B208" t="s">
-        <v>303</v>
-      </c>
-      <c r="C208" t="s">
-        <v>427</v>
-      </c>
-      <c r="E208" t="s">
-        <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B209" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="C209" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B210" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="C210" t="s">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="C211" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B212" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="C212" t="s">
-        <v>112</v>
+        <v>336</v>
       </c>
       <c r="E212" t="s">
-        <v>365</v>
-      </c>
-      <c r="F212" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B213" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="C213" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="E213" t="s">
-        <v>367</v>
-      </c>
-      <c r="F213" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B214" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="F214" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B215" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="E215" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="F215" t="s">
-        <v>372</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B216" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="F216" t="s">
-        <v>374</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B217" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="E217" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="F217" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B218" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="E218" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="F218" t="s">
-        <v>378</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B219" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>162</v>
+        <v>364</v>
       </c>
       <c r="E219" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="F219" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,16 +6494,16 @@
         <v>357</v>
       </c>
       <c r="B220" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C220" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E220" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F220" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,16 +6511,16 @@
         <v>357</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C221" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="E221" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F221" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,16 +6528,16 @@
         <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C222" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="E222" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F222" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,16 +6545,16 @@
         <v>357</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C223" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="E223" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="F223" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6316,16 +6562,16 @@
         <v>357</v>
       </c>
       <c r="B224" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C224" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E224" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6333,16 +6579,16 @@
         <v>357</v>
       </c>
       <c r="B225" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C225" t="s">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="E225" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="F225" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,16 +6596,16 @@
         <v>357</v>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C226" t="s">
-        <v>213</v>
+        <v>427</v>
       </c>
       <c r="E226" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6367,16 +6613,16 @@
         <v>357</v>
       </c>
       <c r="B227" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C227" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="E227" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="F227" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6384,16 +6630,16 @@
         <v>357</v>
       </c>
       <c r="B228" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C228" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E228" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6401,16 +6647,16 @@
         <v>357</v>
       </c>
       <c r="B229" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C229" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="E229" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="F229" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6418,16 +6664,16 @@
         <v>357</v>
       </c>
       <c r="B230" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C230" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="E230" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6435,786 +6681,1092 @@
         <v>357</v>
       </c>
       <c r="B231" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C231" t="s">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="E231" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F231" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B232" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C232" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="E232" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="F232" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B233" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C233" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="E233" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="F233" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B234" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C234" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="E234" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F234" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B235" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C235" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="E235" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="F235" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B236" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C236" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="E236" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="F236" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B237" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C237" t="s">
-        <v>430</v>
+        <v>162</v>
       </c>
       <c r="E237" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="F237" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B238" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C238" t="s">
-        <v>306</v>
+        <v>166</v>
       </c>
       <c r="E238" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="F238" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="B239" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="C239" t="s">
-        <v>429</v>
+        <v>174</v>
       </c>
       <c r="E239" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="F239" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>357</v>
+      </c>
+      <c r="B240" t="s">
+        <v>304</v>
+      </c>
+      <c r="C240" t="s">
+        <v>177</v>
+      </c>
+      <c r="E240" t="s">
+        <v>385</v>
+      </c>
+      <c r="F240" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>357</v>
+      </c>
+      <c r="B241" t="s">
+        <v>305</v>
+      </c>
+      <c r="C241" t="s">
+        <v>190</v>
+      </c>
+      <c r="E241" t="s">
+        <v>346</v>
+      </c>
+      <c r="F241" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>357</v>
+      </c>
+      <c r="B242" t="s">
+        <v>305</v>
+      </c>
+      <c r="C242" t="s">
+        <v>112</v>
+      </c>
+      <c r="E242" t="s">
+        <v>347</v>
+      </c>
+      <c r="F242" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>357</v>
+      </c>
+      <c r="B243" t="s">
+        <v>305</v>
+      </c>
+      <c r="C243" t="s">
+        <v>205</v>
+      </c>
+      <c r="E243" t="s">
+        <v>348</v>
+      </c>
+      <c r="F243" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>357</v>
+      </c>
+      <c r="B244" t="s">
+        <v>305</v>
+      </c>
+      <c r="C244" t="s">
+        <v>213</v>
+      </c>
+      <c r="E244" t="s">
+        <v>349</v>
+      </c>
+      <c r="F244" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>357</v>
+      </c>
+      <c r="B245" t="s">
+        <v>305</v>
+      </c>
+      <c r="C245" t="s">
+        <v>217</v>
+      </c>
+      <c r="E245" t="s">
+        <v>350</v>
+      </c>
+      <c r="F245" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>357</v>
+      </c>
+      <c r="B246" t="s">
+        <v>305</v>
+      </c>
+      <c r="C246" t="s">
+        <v>226</v>
+      </c>
+      <c r="E246" t="s">
+        <v>351</v>
+      </c>
+      <c r="F246" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>357</v>
+      </c>
+      <c r="B247" t="s">
+        <v>305</v>
+      </c>
+      <c r="C247" t="s">
+        <v>234</v>
+      </c>
+      <c r="E247" t="s">
+        <v>352</v>
+      </c>
+      <c r="F247" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>357</v>
+      </c>
+      <c r="B248" t="s">
+        <v>305</v>
+      </c>
+      <c r="C248" t="s">
+        <v>230</v>
+      </c>
+      <c r="E248" t="s">
+        <v>353</v>
+      </c>
+      <c r="F248" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>357</v>
+      </c>
+      <c r="B249" t="s">
+        <v>305</v>
+      </c>
+      <c r="C249" t="s">
+        <v>262</v>
+      </c>
+      <c r="E249" t="s">
+        <v>354</v>
+      </c>
+      <c r="F249" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>423</v>
+      </c>
+      <c r="B250" t="s">
+        <v>425</v>
+      </c>
+      <c r="C250" t="s">
+        <v>278</v>
+      </c>
+      <c r="E250" t="s">
+        <v>409</v>
+      </c>
+      <c r="F250" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>423</v>
+      </c>
+      <c r="B251" t="s">
+        <v>425</v>
+      </c>
+      <c r="C251" t="s">
+        <v>205</v>
+      </c>
+      <c r="E251" t="s">
+        <v>411</v>
+      </c>
+      <c r="F251" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>423</v>
+      </c>
+      <c r="B252" t="s">
+        <v>425</v>
+      </c>
+      <c r="C252" t="s">
+        <v>281</v>
+      </c>
+      <c r="E252" t="s">
+        <v>413</v>
+      </c>
+      <c r="F252" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>423</v>
+      </c>
+      <c r="B253" t="s">
+        <v>425</v>
+      </c>
+      <c r="C253" t="s">
+        <v>283</v>
+      </c>
+      <c r="E253" t="s">
+        <v>415</v>
+      </c>
+      <c r="F253" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>423</v>
+      </c>
+      <c r="B254" t="s">
+        <v>425</v>
+      </c>
+      <c r="C254" t="s">
+        <v>290</v>
+      </c>
+      <c r="E254" t="s">
+        <v>417</v>
+      </c>
+      <c r="F254" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>423</v>
+      </c>
+      <c r="B255" t="s">
+        <v>425</v>
+      </c>
+      <c r="C255" t="s">
+        <v>430</v>
+      </c>
+      <c r="E255" t="s">
+        <v>419</v>
+      </c>
+      <c r="F255" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>423</v>
+      </c>
+      <c r="B256" t="s">
+        <v>306</v>
+      </c>
+      <c r="C256" t="s">
+        <v>306</v>
+      </c>
+      <c r="E256" t="s">
+        <v>421</v>
+      </c>
+      <c r="F256" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>424</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B257" t="s">
+        <v>429</v>
+      </c>
+      <c r="C257" t="s">
+        <v>429</v>
+      </c>
+      <c r="E257" t="s">
+        <v>407</v>
+      </c>
+      <c r="F257" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>424</v>
+      </c>
+      <c r="B258" t="s">
         <v>442</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C258" t="s">
         <v>443</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E258" t="s">
         <v>444</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F258" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>424</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B259" t="s">
         <v>442</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C259" t="s">
         <v>448</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E259" t="s">
         <v>446</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F259" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>424</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B260" t="s">
         <v>442</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C260" t="s">
         <v>449</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E260" t="s">
         <v>450</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F260" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>424</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B261" t="s">
         <v>442</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C261" t="s">
         <v>452</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E261" t="s">
         <v>453</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F261" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>464</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B262" t="s">
         <v>462</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C262" t="s">
         <v>463</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E262" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B245" t="s">
-        <v>462</v>
-      </c>
-      <c r="C245" t="s">
-        <v>468</v>
-      </c>
-      <c r="E245" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B246" t="s">
-        <v>481</v>
-      </c>
-      <c r="C246" t="s">
-        <v>482</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F246" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>484</v>
-      </c>
-      <c r="B247" t="s">
-        <v>481</v>
-      </c>
-      <c r="C247" t="s">
-        <v>483</v>
-      </c>
-      <c r="E247" t="s">
-        <v>496</v>
-      </c>
-      <c r="F247" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B248" t="s">
-        <v>462</v>
-      </c>
-      <c r="C248" t="s">
-        <v>626</v>
-      </c>
-      <c r="E248" t="s">
-        <v>467</v>
-      </c>
-      <c r="F248" t="s">
-        <v>611</v>
-      </c>
-      <c r="G248" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B249" t="s">
-        <v>462</v>
-      </c>
-      <c r="C249" t="s">
-        <v>627</v>
-      </c>
-      <c r="E249" t="s">
-        <v>613</v>
-      </c>
-      <c r="F249" t="s">
-        <v>612</v>
-      </c>
-      <c r="G249" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B250" t="s">
-        <v>462</v>
-      </c>
-      <c r="C250" t="s">
-        <v>628</v>
-      </c>
-      <c r="E250" t="s">
-        <v>614</v>
-      </c>
-      <c r="F250" t="s">
-        <v>615</v>
-      </c>
-      <c r="G250" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B251" t="s">
-        <v>462</v>
-      </c>
-      <c r="C251" t="s">
-        <v>629</v>
-      </c>
-      <c r="E251" t="s">
-        <v>616</v>
-      </c>
-      <c r="F251" t="s">
-        <v>617</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B252" t="s">
-        <v>462</v>
-      </c>
-      <c r="C252" t="s">
-        <v>630</v>
-      </c>
-      <c r="E252" t="s">
-        <v>563</v>
-      </c>
-      <c r="F252" t="s">
-        <v>618</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B253" t="s">
-        <v>462</v>
-      </c>
-      <c r="C253" t="s">
-        <v>631</v>
-      </c>
-      <c r="E253" t="s">
-        <v>619</v>
-      </c>
-      <c r="F253" t="s">
-        <v>620</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B254" t="s">
-        <v>462</v>
-      </c>
-      <c r="C254" t="s">
-        <v>632</v>
-      </c>
-      <c r="E254" t="s">
-        <v>621</v>
-      </c>
-      <c r="F254" t="s">
-        <v>622</v>
-      </c>
-      <c r="G254" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B255" t="s">
-        <v>462</v>
-      </c>
-      <c r="C255" t="s">
-        <v>633</v>
-      </c>
-      <c r="E255" t="s">
-        <v>623</v>
-      </c>
-      <c r="F255" t="s">
-        <v>624</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B256" t="s">
-        <v>646</v>
-      </c>
-      <c r="C256" t="s">
-        <v>634</v>
-      </c>
-      <c r="E256" t="s">
-        <v>635</v>
-      </c>
-      <c r="F256" t="s">
-        <v>624</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B257" t="s">
-        <v>646</v>
-      </c>
-      <c r="C257" t="s">
-        <v>647</v>
-      </c>
-      <c r="E257" t="s">
-        <v>650</v>
-      </c>
-      <c r="F257" t="s">
-        <v>649</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B258" t="s">
-        <v>480</v>
-      </c>
-      <c r="C258" t="s">
-        <v>488</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F258" t="s">
-        <v>490</v>
-      </c>
-      <c r="G258" s="4"/>
-    </row>
-    <row r="259" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B259" t="s">
-        <v>480</v>
-      </c>
-      <c r="C259" t="s">
-        <v>489</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F259" t="s">
-        <v>487</v>
-      </c>
-      <c r="G259" s="4"/>
-    </row>
-    <row r="260" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B260" t="s">
-        <v>480</v>
-      </c>
-      <c r="C260" t="s">
-        <v>491</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G260" s="4"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B261" t="s">
-        <v>481</v>
-      </c>
-      <c r="C261" t="s">
-        <v>482</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F261" t="s">
-        <v>485</v>
-      </c>
-      <c r="G261" s="4"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B262" t="s">
-        <v>481</v>
-      </c>
-      <c r="C262" t="s">
-        <v>483</v>
-      </c>
-      <c r="E262" t="s">
-        <v>494</v>
-      </c>
-      <c r="F262" t="s">
-        <v>486</v>
-      </c>
-      <c r="G262" s="4"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B263" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="C263" t="s">
-        <v>500</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F263" t="s">
-        <v>502</v>
-      </c>
-      <c r="G263" s="4"/>
+        <v>468</v>
+      </c>
+      <c r="E263" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B264" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="C264" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>574</v>
+        <v>495</v>
       </c>
       <c r="F264" t="s">
-        <v>573</v>
-      </c>
-      <c r="G264" s="4"/>
+        <v>485</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>479</v>
+      <c r="A265" t="s">
+        <v>484</v>
       </c>
       <c r="B265" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="C265" t="s">
-        <v>569</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>570</v>
+        <v>483</v>
+      </c>
+      <c r="E265" t="s">
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>571</v>
-      </c>
-      <c r="G265" s="4"/>
-    </row>
-    <row r="266" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B266" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="C266" t="s">
-        <v>508</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>561</v>
+        <v>626</v>
+      </c>
+      <c r="E266" t="s">
+        <v>467</v>
       </c>
       <c r="F266" t="s">
-        <v>507</v>
-      </c>
-      <c r="G266" s="4"/>
-    </row>
-    <row r="267" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B267" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="C267" t="s">
-        <v>509</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="268" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="E267" t="s">
+        <v>613</v>
+      </c>
+      <c r="F267" t="s">
+        <v>612</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B268" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="C268" t="s">
-        <v>511</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>566</v>
+        <v>628</v>
+      </c>
+      <c r="E268" t="s">
+        <v>614</v>
       </c>
       <c r="F268" t="s">
-        <v>567</v>
-      </c>
-      <c r="G268" s="4"/>
+        <v>615</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B269" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="C269" t="s">
-        <v>513</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>560</v>
+        <v>629</v>
+      </c>
+      <c r="E269" t="s">
+        <v>616</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
-      </c>
-      <c r="G269" s="4"/>
+        <v>617</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="C270" t="s">
-        <v>515</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>516</v>
+        <v>630</v>
+      </c>
+      <c r="E270" t="s">
+        <v>563</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
-      </c>
-      <c r="G270" s="4"/>
+        <v>618</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B271" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="C271" t="s">
-        <v>525</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>518</v>
+        <v>631</v>
+      </c>
+      <c r="E271" t="s">
+        <v>619</v>
       </c>
       <c r="F271" t="s">
-        <v>527</v>
-      </c>
-      <c r="G271" s="4"/>
+        <v>620</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B272" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="C272" t="s">
-        <v>517</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>518</v>
+        <v>632</v>
+      </c>
+      <c r="E272" t="s">
+        <v>621</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
-      </c>
-      <c r="G272" s="4"/>
+        <v>622</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B273" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="C273" t="s">
-        <v>529</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>596</v>
+        <v>633</v>
+      </c>
+      <c r="E273" t="s">
+        <v>623</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
-      </c>
-      <c r="G273" s="4"/>
+        <v>624</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B274" t="s">
+        <v>646</v>
+      </c>
+      <c r="C274" t="s">
+        <v>634</v>
+      </c>
+      <c r="E274" t="s">
+        <v>635</v>
+      </c>
+      <c r="F274" t="s">
+        <v>624</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B275" t="s">
+        <v>646</v>
+      </c>
+      <c r="C275" t="s">
+        <v>647</v>
+      </c>
+      <c r="E275" t="s">
+        <v>650</v>
+      </c>
+      <c r="F275" t="s">
+        <v>649</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B276" t="s">
+        <v>480</v>
+      </c>
+      <c r="C276" t="s">
+        <v>488</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F276" t="s">
+        <v>490</v>
+      </c>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B277" t="s">
+        <v>480</v>
+      </c>
+      <c r="C277" t="s">
+        <v>489</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F277" t="s">
+        <v>487</v>
+      </c>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B278" t="s">
+        <v>480</v>
+      </c>
+      <c r="C278" t="s">
+        <v>491</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B279" t="s">
+        <v>481</v>
+      </c>
+      <c r="C279" t="s">
+        <v>482</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F279" t="s">
+        <v>485</v>
+      </c>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B280" t="s">
+        <v>481</v>
+      </c>
+      <c r="C280" t="s">
+        <v>483</v>
+      </c>
+      <c r="E280" t="s">
+        <v>494</v>
+      </c>
+      <c r="F280" t="s">
+        <v>486</v>
+      </c>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B281" t="s">
+        <v>499</v>
+      </c>
+      <c r="C281" t="s">
+        <v>500</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F281" t="s">
+        <v>502</v>
+      </c>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B282" t="s">
+        <v>575</v>
+      </c>
+      <c r="C282" t="s">
+        <v>572</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F282" t="s">
+        <v>573</v>
+      </c>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B283" t="s">
+        <v>568</v>
+      </c>
+      <c r="C283" t="s">
+        <v>569</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F283" t="s">
+        <v>571</v>
+      </c>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B284" t="s">
         <v>506</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C284" t="s">
+        <v>508</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F284" t="s">
+        <v>507</v>
+      </c>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B285" t="s">
+        <v>506</v>
+      </c>
+      <c r="C285" t="s">
+        <v>509</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B286" t="s">
+        <v>505</v>
+      </c>
+      <c r="C286" t="s">
+        <v>511</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F286" t="s">
+        <v>567</v>
+      </c>
+      <c r="G286" s="4"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B287" t="s">
+        <v>506</v>
+      </c>
+      <c r="C287" t="s">
+        <v>513</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F287" t="s">
+        <v>514</v>
+      </c>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B288" t="s">
+        <v>505</v>
+      </c>
+      <c r="C288" t="s">
+        <v>515</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F288" t="s">
+        <v>526</v>
+      </c>
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B289" t="s">
+        <v>505</v>
+      </c>
+      <c r="C289" t="s">
+        <v>525</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F289" t="s">
+        <v>527</v>
+      </c>
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B290" t="s">
+        <v>505</v>
+      </c>
+      <c r="C290" t="s">
+        <v>517</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F290" t="s">
+        <v>528</v>
+      </c>
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B291" t="s">
+        <v>505</v>
+      </c>
+      <c r="C291" t="s">
+        <v>529</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F291" t="s">
+        <v>530</v>
+      </c>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B292" t="s">
+        <v>506</v>
+      </c>
+      <c r="C292" t="s">
         <v>531</v>
       </c>
-      <c r="E274" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F292" t="s">
         <v>532</v>
       </c>
-      <c r="G274" s="4"/>
+      <c r="G292" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="732">
   <si>
     <t>set</t>
   </si>
@@ -1693,11 +1693,6 @@
     <t>@Edit.Toolbar(${1:Content})</t>
   </si>
   <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(${1:Content})
-&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>@Edit.Toolbar(ListContent)</t>
   </si>
   <si>
@@ -1709,28 +1704,7 @@
     <t>Toolbar with edit and replace buttons only</t>
   </si>
   <si>
-    <t>@Edit.Toolbar(actions: "new", contentType: "${10:BlogPost}")</t>
-  </si>
-  <si>
-    <t>@Edit.Toolbar(${1:Content}, actions: "edit,replace")</t>
-  </si>
-  <si>
-    <t>@Edit.Toolbar(actions: "new", contentType: "${10:BlogPost}", prefill: new { Title = "Hello", Color = "red" } )</t>
-  </si>
-  <si>
     <t>Toolbar with new and prefill example</t>
-  </si>
-  <si>
-    <t>Toolbar for an item</t>
-  </si>
-  <si>
-    <t>Toolbar for item with edit / replace only</t>
-  </si>
-  <si>
-    <t>Toolbar to create new only</t>
-  </si>
-  <si>
-    <t>Toolbar to create new and prefill</t>
   </si>
   <si>
     <t>@Edit.ContextAttributes(${101:var}, field: "${102:prop}")</t>
@@ -1843,9 +1817,6 @@
     <t>links</t>
   </si>
   <si>
-    <t>Show an inline-toolbar. If you want it hovering, make sure you have an HTML-element around it with the class sc-element.</t>
-  </si>
-  <si>
     <t>read api-docs:https://github.com/2sic/2sxc/wiki/Razor-Edit</t>
   </si>
   <si>
@@ -1869,51 +1840,13 @@
 }</t>
   </si>
   <si>
-    <t>Toolbar float for an item</t>
-  </si>
-  <si>
-    <t>Toolbar float left</t>
-  </si>
-  <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(${1:Content}, settings: new { hover = "left" })
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Toolbar hover right all the time</t>
-  </si>
-  <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(${1:Content}, settings: new { show = "always" })
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(${1:Content}, settings: new { hover = "none" })
-&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Toolbar floating left</t>
   </si>
   <si>
     <t>Toolbar floating right, always (not waiting for mouse-over)</t>
   </si>
   <si>
-    <t>Toolbar not floating, even if within an sc-element tag</t>
-  </si>
-  <si>
-    <t>Toolbar inline (force no-hover)</t>
-  </si>
-  <si>
-    <t>Toolbar w/custom CSS-classes</t>
-  </si>
-  <si>
     <t>Add custom css-classes to the toolbar</t>
-  </si>
-  <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(${1:Content}, settings: new { classes = "${2:myCustomCssClass,anotherClass}" })
-&lt;/div&gt;</t>
   </si>
   <si>
     <t>a script tag which enables scripts-combinations / packing etc. at default position &amp; priority</t>
@@ -2260,6 +2193,102 @@
   </si>
   <si>
     <t>@Koi.If("${1:bs3,bs4}", "${2:&lt;strong&gt;supported&lt;/strong&gt;}", "${3:&lt;em&gt;not supported&lt;/em&gt;}")</t>
+  </si>
+  <si>
+    <t>Inline-Toolbar for an item</t>
+  </si>
+  <si>
+    <t>Toolbar floating right</t>
+  </si>
+  <si>
+    <t>Show an inline toolbar, floating</t>
+  </si>
+  <si>
+    <t>&lt;${10:div}&gt;
+    @Edit.Toolbar(${1:Content}, settings: new { hover = "none" })
+&lt;/${10:div}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;${10:div} @Edit.TagToolbar(${1:Content})&gt;
+    ${20:...}
+&lt;/${10:div}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;${10:div} @Edit.TagToolbar(${1:Content}, settings: new { hover = "left" })&gt;
+    ${20:...}
+&lt;/${10:div}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;${10:div} @Edit.TagToolbar(${1:Content}, settings: new { hover = "right" })&gt;
+    ${20:...}
+&lt;/${10:div}&gt;</t>
+  </si>
+  <si>
+    <t>Inline-Toolbar with force no-hover</t>
+  </si>
+  <si>
+    <t>Toolbar not floating, even if within a tag which already makes toolbars hover (otherwise this will hover as well)</t>
+  </si>
+  <si>
+    <t>Show an inline-toolbar. If you want it hovering, use the @Edit.TagToolbar attribute instead</t>
+  </si>
+  <si>
+    <t>&lt;${10:div} @Edit.TagToolbar(${1:Content}, settings: new { show = "always" })&gt;
+    ${20:...}
+&lt;/${10:div}&gt;</t>
+  </si>
+  <si>
+    <t>&lt;${10:div} @Edit.TagToolbar(${1:Content}, settings: new { hover = "left", show = "always" })&gt;
+    ${20:...}
+&lt;/${10:div}&gt;</t>
+  </si>
+  <si>
+    <t>@Edit.TagToolbar(${1:Content}, settings: new { classes = "${2:myCustomCssClass,anotherClass}" })</t>
+  </si>
+  <si>
+    <t>@Edit.TagToolbar(${1:Content}, actions: "${2:edit,replace}")</t>
+  </si>
+  <si>
+    <t>Hover left, always visible</t>
+  </si>
+  <si>
+    <t>Hover left</t>
+  </si>
+  <si>
+    <t>Hover right</t>
+  </si>
+  <si>
+    <t>Hover right, always visible</t>
+  </si>
+  <si>
+    <t>With custom CSS-classes</t>
+  </si>
+  <si>
+    <t>@Edit.TagToolbar(actions: "new", contentType: "${10:BlogPost}")</t>
+  </si>
+  <si>
+    <t>@Edit.TagToolbar(actions: "new", contentType: "${10:BlogPost}", prefill: new { Title = "Hello", Color = "red" } )</t>
+  </si>
+  <si>
+    <t>Only edit / replace buttons</t>
+  </si>
+  <si>
+    <t>Only create new, and specify type</t>
+  </si>
+  <si>
+    <t>Basic toolbar for an item</t>
+  </si>
+  <si>
+    <t>General.Toolbar.Inline</t>
+  </si>
+  <si>
+    <t>General.Toolbar</t>
+  </si>
+  <si>
+    <t>General.Toolbar.Attrib</t>
+  </si>
+  <si>
+    <t>Only create new, and prefill some values</t>
   </si>
 </sst>
 </file>
@@ -2323,8 +2352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G292" totalsRowShown="0">
-  <autoFilter ref="A1:G292"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G295" totalsRowShown="0">
+  <autoFilter ref="A1:G295"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2601,16 +2630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="54.42578125" customWidth="1"/>
@@ -2638,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2661,7 +2690,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,7 +2713,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,7 +2736,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,7 +2759,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2776,47 +2805,47 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="C8" t="s">
-        <v>556</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>547</v>
+        <v>727</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="F8" t="s">
-        <v>591</v>
+        <v>706</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="C9" t="s">
-        <v>598</v>
+        <v>719</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>548</v>
+        <v>709</v>
       </c>
       <c r="F9" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2824,19 +2853,19 @@
         <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>720</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="F10" t="s">
-        <v>604</v>
+        <v>705</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2844,19 +2873,19 @@
         <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="C11" t="s">
-        <v>601</v>
+        <v>718</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>602</v>
+        <v>715</v>
       </c>
       <c r="F11" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2864,39 +2893,39 @@
         <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>721</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>603</v>
+        <v>714</v>
       </c>
       <c r="F12" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>730</v>
       </c>
       <c r="C13" t="s">
-        <v>608</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>610</v>
+        <v>722</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="F13" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2904,19 +2933,19 @@
         <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>730</v>
       </c>
       <c r="C14" t="s">
-        <v>557</v>
+        <v>725</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>553</v>
+        <v>717</v>
       </c>
       <c r="F14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2924,19 +2953,19 @@
         <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>730</v>
       </c>
       <c r="C15" t="s">
-        <v>558</v>
+        <v>726</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="F15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,129 +2973,123 @@
         <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>730</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>731</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>554</v>
+        <v>724</v>
       </c>
       <c r="F16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>455</v>
-      </c>
-      <c r="D17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F17" t="s">
-        <v>308</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>728</v>
       </c>
       <c r="C18" t="s">
-        <v>456</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" t="s">
+        <v>713</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>728</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
-      </c>
-      <c r="D19" t="s">
-        <v>565</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>597</v>
+        <v>711</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="F19" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="D20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
+        <v>461</v>
+      </c>
+      <c r="D22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F22" t="s">
+        <v>556</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3077,13 +3100,13 @@
         <v>303</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3094,13 +3117,13 @@
         <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,13 +3134,13 @@
         <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,13 +3151,13 @@
         <v>303</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,13 +3168,13 @@
         <v>303</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3162,13 +3185,13 @@
         <v>303</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3179,13 +3202,13 @@
         <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3196,13 +3219,13 @@
         <v>303</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,13 +3236,13 @@
         <v>303</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,13 +3253,13 @@
         <v>303</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3247,13 +3270,13 @@
         <v>303</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3264,13 +3287,13 @@
         <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,13 +3304,13 @@
         <v>303</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,13 +3321,13 @@
         <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,13 +3338,13 @@
         <v>303</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3332,13 +3355,13 @@
         <v>303</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,13 +3372,13 @@
         <v>303</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3366,13 +3389,13 @@
         <v>303</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3383,13 +3406,13 @@
         <v>303</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3400,13 +3423,13 @@
         <v>303</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,13 +3440,13 @@
         <v>303</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3434,13 +3457,13 @@
         <v>303</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3451,13 +3474,13 @@
         <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3468,13 +3491,13 @@
         <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3485,13 +3508,13 @@
         <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3502,13 +3525,13 @@
         <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,13 +3542,13 @@
         <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,13 +3559,13 @@
         <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,13 +3576,13 @@
         <v>303</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3570,13 +3593,13 @@
         <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3587,13 +3610,13 @@
         <v>303</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,13 +3627,13 @@
         <v>303</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3621,13 +3644,13 @@
         <v>303</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,16 +3658,16 @@
         <v>317</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3652,16 +3675,16 @@
         <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3669,16 +3692,16 @@
         <v>317</v>
       </c>
       <c r="B58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3689,13 +3712,13 @@
         <v>304</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3706,13 +3729,13 @@
         <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3723,13 +3746,13 @@
         <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3740,13 +3763,13 @@
         <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3757,16 +3780,13 @@
         <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" t="s">
-        <v>440</v>
+        <v>109</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3777,13 +3797,13 @@
         <v>304</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3794,13 +3814,13 @@
         <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,13 +3831,16 @@
         <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3828,13 +3851,13 @@
         <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3845,13 +3868,13 @@
         <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3862,13 +3885,13 @@
         <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,13 +3902,13 @@
         <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3896,13 +3919,13 @@
         <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,13 +3936,13 @@
         <v>304</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3930,13 +3953,13 @@
         <v>304</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3947,13 +3970,13 @@
         <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3964,13 +3987,13 @@
         <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3981,13 +4004,13 @@
         <v>304</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3998,13 +4021,13 @@
         <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4015,13 +4038,13 @@
         <v>304</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4032,13 +4055,13 @@
         <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,13 +4072,13 @@
         <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4066,13 +4089,13 @@
         <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4083,13 +4106,13 @@
         <v>304</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4100,13 +4123,13 @@
         <v>304</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4117,13 +4140,13 @@
         <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4134,13 +4157,13 @@
         <v>304</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,13 +4174,13 @@
         <v>304</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4168,13 +4191,13 @@
         <v>304</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4185,13 +4208,13 @@
         <v>304</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4202,13 +4225,13 @@
         <v>304</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4219,13 +4242,13 @@
         <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4236,13 +4259,13 @@
         <v>304</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4253,13 +4276,13 @@
         <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4270,13 +4293,13 @@
         <v>304</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4287,13 +4310,13 @@
         <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,13 +4327,13 @@
         <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,13 +4344,13 @@
         <v>304</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4338,13 +4361,13 @@
         <v>304</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4352,16 +4375,16 @@
         <v>317</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4369,16 +4392,16 @@
         <v>317</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4386,16 +4409,16 @@
         <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,13 +4429,13 @@
         <v>305</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4423,13 +4446,13 @@
         <v>305</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4440,13 +4463,13 @@
         <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,13 +4480,13 @@
         <v>305</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,16 +4497,13 @@
         <v>305</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
-      </c>
-      <c r="F105" t="s">
-        <v>309</v>
+        <v>188</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,16 +4514,13 @@
         <v>305</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
-      </c>
-      <c r="F106" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,13 +4531,13 @@
         <v>305</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4531,13 +4548,16 @@
         <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>193</v>
+      </c>
+      <c r="F108" t="s">
+        <v>309</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,13 +4568,16 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="F109" t="s">
+        <v>310</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4565,13 +4588,13 @@
         <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4582,13 +4605,13 @@
         <v>305</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="E111" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4599,13 +4622,13 @@
         <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E112" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,13 +4639,13 @@
         <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E113" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4633,13 +4656,13 @@
         <v>305</v>
       </c>
       <c r="C114" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4650,13 +4673,13 @@
         <v>305</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,13 +4690,13 @@
         <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E116" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4684,13 +4707,13 @@
         <v>305</v>
       </c>
       <c r="C117" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E117" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4701,13 +4724,13 @@
         <v>305</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E118" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4718,13 +4741,13 @@
         <v>305</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E119" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4735,16 +4758,13 @@
         <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
-      </c>
-      <c r="F120" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4755,13 +4775,13 @@
         <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4772,16 +4792,13 @@
         <v>305</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
-      </c>
-      <c r="F122" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4792,13 +4809,16 @@
         <v>305</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="F123" t="s">
+        <v>311</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4809,13 +4829,13 @@
         <v>305</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,13 +4846,16 @@
         <v>305</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="F125" t="s">
+        <v>312</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4843,13 +4866,13 @@
         <v>305</v>
       </c>
       <c r="C126" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E126" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,13 +4883,13 @@
         <v>305</v>
       </c>
       <c r="C127" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E127" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,13 +4900,13 @@
         <v>305</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4894,13 +4917,13 @@
         <v>305</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,13 +4934,13 @@
         <v>305</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4928,13 +4951,13 @@
         <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4945,16 +4968,13 @@
         <v>305</v>
       </c>
       <c r="C132" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
-      </c>
-      <c r="F132" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4965,13 +4985,13 @@
         <v>305</v>
       </c>
       <c r="C133" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4982,13 +5002,13 @@
         <v>305</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4999,13 +5019,16 @@
         <v>305</v>
       </c>
       <c r="C135" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="F135" t="s">
+        <v>313</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5016,13 +5039,13 @@
         <v>305</v>
       </c>
       <c r="C136" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5033,13 +5056,13 @@
         <v>305</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5050,13 +5073,13 @@
         <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5067,13 +5090,13 @@
         <v>305</v>
       </c>
       <c r="C139" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5084,13 +5107,13 @@
         <v>305</v>
       </c>
       <c r="C140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5101,13 +5124,13 @@
         <v>305</v>
       </c>
       <c r="C141" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5118,13 +5141,13 @@
         <v>305</v>
       </c>
       <c r="C142" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5135,13 +5158,13 @@
         <v>305</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5152,13 +5175,13 @@
         <v>305</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5169,13 +5192,13 @@
         <v>305</v>
       </c>
       <c r="C145" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5186,13 +5209,13 @@
         <v>305</v>
       </c>
       <c r="C146" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5203,13 +5226,13 @@
         <v>305</v>
       </c>
       <c r="C147" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5220,64 +5243,64 @@
         <v>305</v>
       </c>
       <c r="C148" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B149" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B150" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C150" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="E150" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>441</v>
+        <v>317</v>
       </c>
       <c r="B151" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5288,13 +5311,13 @@
         <v>425</v>
       </c>
       <c r="C152" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E152" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5305,13 +5328,13 @@
         <v>425</v>
       </c>
       <c r="C153" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5322,13 +5345,13 @@
         <v>425</v>
       </c>
       <c r="C154" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5339,13 +5362,13 @@
         <v>425</v>
       </c>
       <c r="C155" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5356,13 +5379,13 @@
         <v>425</v>
       </c>
       <c r="C156" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="E156" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5373,16 +5396,13 @@
         <v>425</v>
       </c>
       <c r="C157" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5393,13 +5413,13 @@
         <v>425</v>
       </c>
       <c r="C158" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="E158" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5410,16 +5430,13 @@
         <v>425</v>
       </c>
       <c r="C159" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E159" t="s">
-        <v>296</v>
-      </c>
-      <c r="F159" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5430,13 +5447,16 @@
         <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E160" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="F160" t="s">
+        <v>314</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,13 +5467,13 @@
         <v>425</v>
       </c>
       <c r="C161" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="E161" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5461,72 +5481,76 @@
         <v>441</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C162" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E162" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B164" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C164" t="s">
-        <v>503</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G164" s="4"/>
+        <v>299</v>
+      </c>
+      <c r="E164" t="s">
+        <v>300</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B165" t="s">
-        <v>474</v>
+        <v>306</v>
       </c>
       <c r="C165" t="s">
-        <v>582</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>583</v>
+        <v>301</v>
+      </c>
+      <c r="E165" t="s">
+        <v>302</v>
       </c>
       <c r="F165" t="s">
-        <v>584</v>
+        <v>316</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>441</v>
       </c>
@@ -5534,19 +5558,14 @@
         <v>474</v>
       </c>
       <c r="C166" t="s">
-        <v>585</v>
+        <v>475</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F166" t="s">
-        <v>586</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>441</v>
       </c>
@@ -5554,65 +5573,72 @@
         <v>474</v>
       </c>
       <c r="C167" t="s">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="F167" t="s">
-        <v>589</v>
+        <v>504</v>
       </c>
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B168" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C168" t="s">
-        <v>471</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F168" t="s">
+        <v>576</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B169" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C169" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>520</v>
+        <v>289</v>
       </c>
       <c r="F169" t="s">
-        <v>524</v>
-      </c>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B170" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C170" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>522</v>
+        <v>580</v>
+      </c>
+      <c r="F170" t="s">
+        <v>581</v>
       </c>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>459</v>
       </c>
@@ -5620,14 +5646,14 @@
         <v>460</v>
       </c>
       <c r="C171" t="s">
-        <v>469</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>459</v>
       </c>
@@ -5635,10 +5661,13 @@
         <v>460</v>
       </c>
       <c r="C172" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>473</v>
+        <v>520</v>
+      </c>
+      <c r="F172" t="s">
+        <v>524</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -5647,132 +5676,123 @@
         <v>459</v>
       </c>
       <c r="B173" t="s">
-        <v>644</v>
+        <v>460</v>
       </c>
       <c r="C173" t="s">
-        <v>638</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F173" t="s">
-        <v>639</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B174" t="s">
-        <v>644</v>
+        <v>460</v>
       </c>
       <c r="C174" t="s">
-        <v>637</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F174" t="s">
-        <v>640</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>642</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G174" s="4"/>
     </row>
     <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B175" t="s">
-        <v>645</v>
+        <v>460</v>
       </c>
       <c r="C175" t="s">
-        <v>576</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F175" t="s">
-        <v>581</v>
+        <v>472</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B176" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C176" t="s">
-        <v>577</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>580</v>
+        <v>619</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="F176" t="s">
-        <v>579</v>
-      </c>
-      <c r="G176" s="4"/>
+        <v>620</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>625</v>
       </c>
       <c r="C177" t="s">
-        <v>655</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>660</v>
+        <v>618</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="F177" t="s">
-        <v>651</v>
-      </c>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B178" t="s">
-        <v>460</v>
+        <v>626</v>
       </c>
       <c r="C178" t="s">
-        <v>656</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>659</v>
+        <v>568</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="F178" t="s">
-        <v>652</v>
+        <v>573</v>
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B179" t="s">
-        <v>460</v>
+        <v>626</v>
       </c>
       <c r="C179" t="s">
-        <v>653</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>657</v>
+        <v>569</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="F179" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>459</v>
       </c>
@@ -5780,464 +5800,473 @@
         <v>460</v>
       </c>
       <c r="C180" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="F180" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>712</v>
+        <v>459</v>
       </c>
       <c r="B181" t="s">
-        <v>707</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>661</v>
+        <v>460</v>
+      </c>
+      <c r="C181" t="s">
+        <v>637</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="F181" t="s">
+        <v>633</v>
+      </c>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>712</v>
+        <v>459</v>
       </c>
       <c r="B182" t="s">
-        <v>715</v>
+        <v>460</v>
       </c>
       <c r="C182" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="F182" t="s">
-        <v>667</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>712</v>
+        <v>459</v>
       </c>
       <c r="B183" t="s">
-        <v>715</v>
+        <v>460</v>
       </c>
       <c r="C183" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="F183" t="s">
-        <v>668</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>691</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B184" t="s">
-        <v>708</v>
-      </c>
-      <c r="C184" t="s">
-        <v>670</v>
+        <v>688</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F184" t="s">
+        <v>642</v>
+      </c>
+      <c r="G184" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B185" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C185" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="F185" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B186" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C186" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="F186" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B187" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="C187" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="F187" t="s">
+        <v>653</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B188" t="s">
+        <v>689</v>
+      </c>
+      <c r="C188" t="s">
+        <v>644</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F188" t="s">
+        <v>650</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B189" t="s">
+        <v>689</v>
+      </c>
+      <c r="C189" t="s">
+        <v>655</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F189" t="s">
+        <v>654</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B190" t="s">
+        <v>697</v>
+      </c>
+      <c r="C190" t="s">
+        <v>699</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F190" t="s">
+        <v>658</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B191" t="s">
+        <v>697</v>
+      </c>
+      <c r="C191" t="s">
+        <v>700</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F191" t="s">
+        <v>659</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B192" t="s">
+        <v>697</v>
+      </c>
+      <c r="C192" t="s">
+        <v>701</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F192" t="s">
         <v>677</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B188" t="s">
-        <v>716</v>
-      </c>
-      <c r="C188" t="s">
-        <v>719</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="G192" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B193" t="s">
+        <v>697</v>
+      </c>
+      <c r="C193" t="s">
+        <v>702</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F193" t="s">
         <v>676</v>
       </c>
-      <c r="F188" t="s">
-        <v>678</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B189" t="s">
-        <v>716</v>
-      </c>
-      <c r="C189" t="s">
-        <v>720</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F189" t="s">
-        <v>696</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B190" t="s">
-        <v>716</v>
-      </c>
-      <c r="C190" t="s">
-        <v>721</v>
-      </c>
-      <c r="E190" s="3" t="s">
+      <c r="G193" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B194" t="s">
+        <v>692</v>
+      </c>
+      <c r="C194" t="s">
+        <v>646</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="F190" t="s">
-        <v>695</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B191" t="s">
-        <v>711</v>
-      </c>
-      <c r="C191" t="s">
-        <v>665</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="F191" t="s">
-        <v>705</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B192" t="s">
-        <v>709</v>
-      </c>
-      <c r="C192" t="s">
-        <v>684</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="F192" t="s">
-        <v>685</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B193" t="s">
-        <v>709</v>
-      </c>
-      <c r="C193" t="s">
-        <v>683</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="F194" t="s">
         <v>686</v>
       </c>
-      <c r="G193" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B194" t="s">
-        <v>709</v>
-      </c>
-      <c r="C194" t="s">
-        <v>701</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F194" t="s">
-        <v>687</v>
-      </c>
       <c r="G194" s="4" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B195" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="C195" t="s">
-        <v>702</v>
+        <v>665</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="F195" t="s">
-        <v>704</v>
+        <v>666</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B196" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="C196" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F196" t="s">
+        <v>667</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B197" t="s">
         <v>690</v>
       </c>
-      <c r="F196" t="s">
+      <c r="C197" t="s">
+        <v>682</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F197" t="s">
+        <v>668</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="G196" s="4" t="s">
+      <c r="B198" t="s">
+        <v>690</v>
+      </c>
+      <c r="C198" t="s">
+        <v>683</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F198" t="s">
+        <v>685</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B199" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B197" t="s">
-        <v>710</v>
-      </c>
-      <c r="C197" t="s">
-        <v>692</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="C199" t="s">
+        <v>670</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F199" t="s">
+        <v>674</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B200" t="s">
+        <v>691</v>
+      </c>
+      <c r="C200" t="s">
+        <v>673</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F200" t="s">
+        <v>675</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B201" t="s">
+        <v>691</v>
+      </c>
+      <c r="C201" t="s">
+        <v>669</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B202" t="s">
+        <v>691</v>
+      </c>
+      <c r="C202" t="s">
         <v>694</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B198" t="s">
-        <v>710</v>
-      </c>
-      <c r="C198" t="s">
-        <v>688</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B199" t="s">
-        <v>710</v>
-      </c>
-      <c r="C199" t="s">
-        <v>713</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>355</v>
-      </c>
-      <c r="B200" t="s">
-        <v>359</v>
-      </c>
-      <c r="C200" t="s">
-        <v>360</v>
-      </c>
-      <c r="E200" t="s">
-        <v>319</v>
-      </c>
-      <c r="F200" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>355</v>
-      </c>
-      <c r="B201" t="s">
-        <v>359</v>
-      </c>
-      <c r="C201" t="s">
-        <v>361</v>
-      </c>
-      <c r="E201" t="s">
-        <v>535</v>
-      </c>
-      <c r="F201" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>356</v>
-      </c>
-      <c r="B202" t="s">
-        <v>58</v>
-      </c>
-      <c r="C202" t="s">
-        <v>455</v>
-      </c>
-      <c r="E202" t="s">
-        <v>320</v>
+      <c r="E202" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B203" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="C203" t="s">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="E203" t="s">
-        <v>536</v>
+        <v>319</v>
+      </c>
+      <c r="F203" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C204" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="E204" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F204" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6245,16 +6274,13 @@
         <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C205" t="s">
-        <v>322</v>
+        <v>455</v>
       </c>
       <c r="E205" t="s">
-        <v>323</v>
-      </c>
-      <c r="F205" t="s">
-        <v>538</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6262,16 +6288,13 @@
         <v>356</v>
       </c>
       <c r="B206" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C206" t="s">
-        <v>324</v>
+        <v>456</v>
       </c>
       <c r="E206" t="s">
-        <v>325</v>
-      </c>
-      <c r="F206" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6279,16 +6302,16 @@
         <v>356</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C207" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E207" t="s">
-        <v>327</v>
+        <v>534</v>
       </c>
       <c r="F207" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6299,13 +6322,13 @@
         <v>358</v>
       </c>
       <c r="C208" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E208" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F208" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6316,13 +6339,13 @@
         <v>358</v>
       </c>
       <c r="C209" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E209" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F209" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6333,13 +6356,13 @@
         <v>358</v>
       </c>
       <c r="C210" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E210" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F210" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,13 +6373,13 @@
         <v>358</v>
       </c>
       <c r="C211" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E211" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F211" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6367,10 +6390,13 @@
         <v>358</v>
       </c>
       <c r="C212" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E212" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="F212" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6381,61 +6407,58 @@
         <v>358</v>
       </c>
       <c r="C213" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E213" t="s">
-        <v>339</v>
+        <v>333</v>
+      </c>
+      <c r="F213" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="E214" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F214" t="s">
-        <v>28</v>
+        <v>546</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C215" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="E215" t="s">
-        <v>341</v>
-      </c>
-      <c r="F215" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B216" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="C216" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="E216" t="s">
-        <v>342</v>
-      </c>
-      <c r="F216" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,13 +6469,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6463,13 +6486,13 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E218" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6480,64 +6503,64 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>364</v>
+        <v>215</v>
       </c>
       <c r="E219" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E220" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="F220" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B221" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
+        <v>363</v>
       </c>
       <c r="E221" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="F221" t="s">
-        <v>390</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B222" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="F222" t="s">
-        <v>392</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6548,13 +6571,13 @@
         <v>303</v>
       </c>
       <c r="C223" t="s">
-        <v>426</v>
+        <v>112</v>
       </c>
       <c r="E223" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F223" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,13 +6588,13 @@
         <v>303</v>
       </c>
       <c r="C224" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E224" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F224" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6582,13 +6605,13 @@
         <v>303</v>
       </c>
       <c r="C225" t="s">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="E225" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F225" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6599,13 +6622,13 @@
         <v>303</v>
       </c>
       <c r="C226" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E226" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F226" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6616,13 +6639,13 @@
         <v>303</v>
       </c>
       <c r="C227" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="E227" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F227" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6633,13 +6656,13 @@
         <v>303</v>
       </c>
       <c r="C228" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
       <c r="E228" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F228" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,13 +6673,13 @@
         <v>303</v>
       </c>
       <c r="C229" t="s">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="E229" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F229" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6664,16 +6687,16 @@
         <v>357</v>
       </c>
       <c r="B230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C230" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="E230" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="F230" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,16 +6704,16 @@
         <v>357</v>
       </c>
       <c r="B231" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C231" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E231" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="F231" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6698,16 +6721,16 @@
         <v>357</v>
       </c>
       <c r="B232" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C232" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E232" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="F232" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6718,13 +6741,13 @@
         <v>304</v>
       </c>
       <c r="C233" t="s">
-        <v>427</v>
+        <v>112</v>
       </c>
       <c r="E233" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F233" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6735,13 +6758,13 @@
         <v>304</v>
       </c>
       <c r="C234" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="E234" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F234" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6752,13 +6775,13 @@
         <v>304</v>
       </c>
       <c r="C235" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E235" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F235" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6769,13 +6792,13 @@
         <v>304</v>
       </c>
       <c r="C236" t="s">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="E236" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F236" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,13 +6809,13 @@
         <v>304</v>
       </c>
       <c r="C237" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E237" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F237" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6803,13 +6826,13 @@
         <v>304</v>
       </c>
       <c r="C238" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E238" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F238" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6820,13 +6843,13 @@
         <v>304</v>
       </c>
       <c r="C239" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E239" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F239" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6837,13 +6860,13 @@
         <v>304</v>
       </c>
       <c r="C240" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E240" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F240" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6851,16 +6874,16 @@
         <v>357</v>
       </c>
       <c r="B241" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C241" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E241" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F241" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6868,16 +6891,16 @@
         <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C242" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="E242" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="F242" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,16 +6908,16 @@
         <v>357</v>
       </c>
       <c r="B243" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C243" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E243" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="F243" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,13 +6928,13 @@
         <v>305</v>
       </c>
       <c r="C244" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E244" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F244" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6922,13 +6945,13 @@
         <v>305</v>
       </c>
       <c r="C245" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="E245" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F245" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6939,13 +6962,13 @@
         <v>305</v>
       </c>
       <c r="C246" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E246" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F246" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6956,13 +6979,13 @@
         <v>305</v>
       </c>
       <c r="C247" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E247" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F247" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6973,13 +6996,13 @@
         <v>305</v>
       </c>
       <c r="C248" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E248" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F248" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6990,64 +7013,64 @@
         <v>305</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E249" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F249" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B250" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C250" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="E250" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="F250" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B251" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C251" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E251" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="F251" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B252" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C252" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E252" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="F252" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7058,13 +7081,13 @@
         <v>425</v>
       </c>
       <c r="C253" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E253" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F253" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7075,13 +7098,13 @@
         <v>425</v>
       </c>
       <c r="C254" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="E254" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F254" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7092,13 +7115,13 @@
         <v>425</v>
       </c>
       <c r="C255" t="s">
-        <v>430</v>
+        <v>281</v>
       </c>
       <c r="E255" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F255" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7106,67 +7129,67 @@
         <v>423</v>
       </c>
       <c r="B256" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="C256" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="E256" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F256" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B257" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C257" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="E257" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F257" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B258" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C258" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E258" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="F258" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B259" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="C259" t="s">
-        <v>448</v>
+        <v>306</v>
       </c>
       <c r="E259" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="F259" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7174,16 +7197,16 @@
         <v>424</v>
       </c>
       <c r="B260" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C260" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E260" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="F260" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7194,135 +7217,126 @@
         <v>442</v>
       </c>
       <c r="C261" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E261" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F261" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B262" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C262" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>446</v>
+      </c>
+      <c r="F262" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>464</v>
+      <c r="A263" t="s">
+        <v>424</v>
       </c>
       <c r="B263" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C263" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="E263" t="s">
-        <v>562</v>
+        <v>450</v>
+      </c>
+      <c r="F263" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>484</v>
+      <c r="A264" t="s">
+        <v>424</v>
       </c>
       <c r="B264" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C264" t="s">
-        <v>482</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>495</v>
+        <v>452</v>
+      </c>
+      <c r="E264" t="s">
+        <v>453</v>
       </c>
       <c r="F264" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="B265" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C265" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E265" t="s">
-        <v>496</v>
-      </c>
-      <c r="F265" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B266" t="s">
         <v>462</v>
       </c>
       <c r="C266" t="s">
-        <v>626</v>
+        <v>468</v>
       </c>
       <c r="E266" t="s">
-        <v>467</v>
-      </c>
-      <c r="F266" t="s">
-        <v>611</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>625</v>
+        <v>554</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B267" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C267" t="s">
-        <v>627</v>
-      </c>
-      <c r="E267" t="s">
-        <v>613</v>
+        <v>482</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="F267" t="s">
-        <v>612</v>
-      </c>
-      <c r="G267" s="4" t="s">
-        <v>625</v>
+        <v>485</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>466</v>
+      <c r="A268" t="s">
+        <v>484</v>
       </c>
       <c r="B268" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C268" t="s">
-        <v>628</v>
+        <v>483</v>
       </c>
       <c r="E268" t="s">
-        <v>614</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>615</v>
-      </c>
-      <c r="G268" s="4" t="s">
-        <v>625</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7333,16 +7347,16 @@
         <v>462</v>
       </c>
       <c r="C269" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="E269" t="s">
-        <v>616</v>
+        <v>467</v>
       </c>
       <c r="F269" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7353,16 +7367,16 @@
         <v>462</v>
       </c>
       <c r="C270" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="E270" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="F270" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7373,16 +7387,16 @@
         <v>462</v>
       </c>
       <c r="C271" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="E271" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F271" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7393,16 +7407,16 @@
         <v>462</v>
       </c>
       <c r="C272" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="E272" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F272" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7413,16 +7427,16 @@
         <v>462</v>
       </c>
       <c r="C273" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="E273" t="s">
-        <v>623</v>
+        <v>555</v>
       </c>
       <c r="F273" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7430,19 +7444,19 @@
         <v>466</v>
       </c>
       <c r="B274" t="s">
-        <v>646</v>
+        <v>462</v>
       </c>
       <c r="C274" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="E274" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="F274" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7450,123 +7464,129 @@
         <v>466</v>
       </c>
       <c r="B275" t="s">
-        <v>646</v>
+        <v>462</v>
       </c>
       <c r="C275" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="E275" t="s">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="F275" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B276" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C276" t="s">
-        <v>488</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>497</v>
+        <v>614</v>
+      </c>
+      <c r="E276" t="s">
+        <v>604</v>
       </c>
       <c r="F276" t="s">
-        <v>490</v>
-      </c>
-      <c r="G276" s="4"/>
-    </row>
-    <row r="277" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B277" t="s">
-        <v>480</v>
+        <v>627</v>
       </c>
       <c r="C277" t="s">
-        <v>489</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>498</v>
+        <v>615</v>
+      </c>
+      <c r="E277" t="s">
+        <v>616</v>
       </c>
       <c r="F277" t="s">
-        <v>487</v>
-      </c>
-      <c r="G277" s="4"/>
-    </row>
-    <row r="278" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B278" t="s">
-        <v>480</v>
+        <v>627</v>
       </c>
       <c r="C278" t="s">
-        <v>491</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G278" s="4"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="E278" t="s">
+        <v>631</v>
+      </c>
+      <c r="F278" t="s">
+        <v>630</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B279" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C279" t="s">
-        <v>482</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F279" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B280" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C280" t="s">
-        <v>483</v>
-      </c>
-      <c r="E280" t="s">
-        <v>494</v>
+        <v>489</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="F280" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B281" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C281" t="s">
-        <v>500</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F281" t="s">
-        <v>502</v>
+        <v>491</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="G281" s="4"/>
     </row>
@@ -7575,16 +7595,16 @@
         <v>479</v>
       </c>
       <c r="B282" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="C282" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="F282" t="s">
-        <v>573</v>
+        <v>485</v>
       </c>
       <c r="G282" s="4"/>
     </row>
@@ -7593,74 +7613,74 @@
         <v>479</v>
       </c>
       <c r="B283" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="C283" t="s">
-        <v>569</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>570</v>
+        <v>483</v>
+      </c>
+      <c r="E283" t="s">
+        <v>494</v>
       </c>
       <c r="F283" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B284" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C284" t="s">
-        <v>508</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>561</v>
+        <v>500</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="F284" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B285" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="C285" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>512</v>
+        <v>566</v>
+      </c>
+      <c r="F285" t="s">
+        <v>565</v>
       </c>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B286" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="C286" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F286" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>479</v>
       </c>
@@ -7668,35 +7688,35 @@
         <v>506</v>
       </c>
       <c r="C287" t="s">
-        <v>513</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>560</v>
+        <v>508</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B288" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C288" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F288" t="s">
-        <v>526</v>
+        <v>510</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>479</v>
       </c>
@@ -7704,13 +7724,13 @@
         <v>505</v>
       </c>
       <c r="C289" t="s">
-        <v>525</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="G289" s="4"/>
     </row>
@@ -7719,16 +7739,16 @@
         <v>479</v>
       </c>
       <c r="B290" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C290" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="F290" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G290" s="4"/>
     </row>
@@ -7740,13 +7760,13 @@
         <v>505</v>
       </c>
       <c r="C291" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>596</v>
+        <v>516</v>
       </c>
       <c r="F291" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G291" s="4"/>
     </row>
@@ -7755,18 +7775,72 @@
         <v>479</v>
       </c>
       <c r="B292" t="s">
+        <v>505</v>
+      </c>
+      <c r="C292" t="s">
+        <v>525</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F292" t="s">
+        <v>527</v>
+      </c>
+      <c r="G292" s="4"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B293" t="s">
+        <v>505</v>
+      </c>
+      <c r="C293" t="s">
+        <v>517</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F293" t="s">
+        <v>528</v>
+      </c>
+      <c r="G293" s="4"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B294" t="s">
+        <v>505</v>
+      </c>
+      <c r="C294" t="s">
+        <v>529</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F294" t="s">
+        <v>530</v>
+      </c>
+      <c r="G294" s="4"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B295" t="s">
         <v>506</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C295" t="s">
         <v>531</v>
       </c>
-      <c r="E292" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F295" t="s">
         <v>532</v>
       </c>
-      <c r="G292" s="4"/>
+      <c r="G295" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="758">
   <si>
     <t>set</t>
   </si>
@@ -1612,12 +1612,6 @@
 </t>
   </si>
   <si>
-    <t>using Linq</t>
-  </si>
-  <si>
-    <t>@using System.Linq;</t>
-  </si>
-  <si>
     <t>@using ${1:System.Linq}</t>
   </si>
   <si>
@@ -2289,6 +2283,112 @@
   </si>
   <si>
     <t>Only create new, and prefill some values</t>
+  </si>
+  <si>
+    <t>@Linq</t>
+  </si>
+  <si>
+    <t>Using Statements for LINQ</t>
+  </si>
+  <si>
+    <t>Adds LINQ and DynList, a shorthand for IEnumerable&lt;dynamic&gt;</t>
+  </si>
+  <si>
+    <t>LINQ guide:https://github.com/2sic/2sxc/wiki/dotnet-query-linq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@using System.Linq;
+@using Dynlist = System.Collections.Generic.IEnumerable&lt;dynamic&gt;;
+</t>
+  </si>
+  <si>
+    <t>SimpleQueries</t>
+  </si>
+  <si>
+    <t>Filter with Where</t>
+  </si>
+  <si>
+    <t>Check if List has items</t>
+  </si>
+  <si>
+    <t>Show how to use Any()</t>
+  </si>
+  <si>
+    <t>Shows how to use a simple Where()</t>
+  </si>
+  <si>
+    <t>Combine Where and Any</t>
+  </si>
+  <si>
+    <t>Show how to use find only items, which have sub-items.</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Combine Where and NOT Any</t>
+  </si>
+  <si>
+    <t>Show how to use find only items, which don't have sub-items.</t>
+  </si>
+  <si>
+    <t>Find items pointing to a lot of item</t>
+  </si>
+  <si>
+    <t>Find all items that reference these items</t>
+  </si>
+  <si>
+    <t>Find items of a type, pointing to a lot of item</t>
+  </si>
+  <si>
+    <t>Find items of a type, pointing to a lot of item on a field</t>
+  </si>
+  <si>
+    <t>Find all items that reference these items, but only if they are a certain type</t>
+  </si>
+  <si>
+    <t>Find all items that reference these items, but only if they are a certain type, and point on a specified field</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsDynamic(App.Data["${1:Books}"])
+    .Where(p =&gt; p.${10:Title} == "${20:Terry}");
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:hasBooks} = AsDynamic(App.Data["${1:Books}"]).Any();
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsDynamic(App.Data["${1:Books}"])
+    .Where(p =&gt; (p.${10:Authors} as Dynlist).Any());
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsDynamic(App.Data["${1:Books}"])
+    .Where(p =&gt; !(p.${10:Authors} as Dynlist).Any());
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsDynamic(App.Data["${1:Authors}"])
+    .SelectMany(a =&gt; a.Parents());
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsDynamic(App.Data["${1:Authors}"])
+    .SelectMany(a =&gt; a.Parents("${10:Books}"));
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsDynamic(App.Data["${1:Authors}"])
+    .SelectMany(a =&gt; a.Parents("${10:Books}", "${11:Illustrators}"));
+}</t>
   </si>
 </sst>
 </file>
@@ -2352,8 +2452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G295" totalsRowShown="0">
-  <autoFilter ref="A1:G295"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G303" totalsRowShown="0">
+  <autoFilter ref="A1:G303"/>
   <tableColumns count="7">
     <tableColumn id="1" name="set"/>
     <tableColumn id="7" name="subset"/>
@@ -2630,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="G205" sqref="A205:G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,7 +2742,7 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="69.140625" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2667,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,7 +2790,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2805,7 +2905,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2813,19 +2913,19 @@
         <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2833,19 +2933,19 @@
         <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2853,19 +2953,19 @@
         <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2873,19 +2973,19 @@
         <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2893,19 +2993,19 @@
         <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2913,19 +3013,19 @@
         <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2933,19 +3033,19 @@
         <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C14" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,19 +3053,19 @@
         <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,19 +3073,19 @@
         <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,19 +3098,19 @@
         <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3018,19 +3118,19 @@
         <v>457</v>
       </c>
       <c r="B19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,7 +3147,7 @@
         <v>307</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F20" t="s">
         <v>308</v>
@@ -3065,7 +3165,7 @@
         <v>456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -3080,16 +3180,16 @@
         <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,7 +3206,7 @@
         <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,7 +3223,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3140,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,7 +3257,7 @@
         <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,7 +3274,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,7 +3291,7 @@
         <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3208,7 +3308,7 @@
         <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3225,7 +3325,7 @@
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3242,7 +3342,7 @@
         <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,7 +3359,7 @@
         <v>49</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3276,7 +3376,7 @@
         <v>51</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,7 +3393,7 @@
         <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,7 +3410,7 @@
         <v>55</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,7 +3427,7 @@
         <v>57</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,7 +3444,7 @@
         <v>59</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,7 +3461,7 @@
         <v>61</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3378,7 +3478,7 @@
         <v>63</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3395,7 +3495,7 @@
         <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,7 +3512,7 @@
         <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3429,7 +3529,7 @@
         <v>69</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3446,7 +3546,7 @@
         <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3463,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,7 +3580,7 @@
         <v>75</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,7 +3597,7 @@
         <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3614,7 @@
         <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3531,7 +3631,7 @@
         <v>81</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,7 +3648,7 @@
         <v>83</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,7 +3665,7 @@
         <v>85</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,7 +3682,7 @@
         <v>87</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,7 +3699,7 @@
         <v>89</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,7 +3716,7 @@
         <v>91</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,7 +3733,7 @@
         <v>93</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,7 +3750,7 @@
         <v>95</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,7 +3767,7 @@
         <v>97</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3684,7 +3784,7 @@
         <v>99</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,7 +3801,7 @@
         <v>101</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,7 +3818,7 @@
         <v>103</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,7 +3835,7 @@
         <v>104</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,7 +3852,7 @@
         <v>105</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3786,7 +3886,7 @@
         <v>109</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3803,7 +3903,7 @@
         <v>111</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3820,7 +3920,7 @@
         <v>113</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3840,7 +3940,7 @@
         <v>440</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,7 +3957,7 @@
         <v>116</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,7 +3974,7 @@
         <v>118</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3891,7 +3991,7 @@
         <v>120</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3908,7 +4008,7 @@
         <v>122</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,7 +4025,7 @@
         <v>124</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,7 +4042,7 @@
         <v>126</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,7 +4059,7 @@
         <v>128</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3976,7 +4076,7 @@
         <v>130</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3993,7 +4093,7 @@
         <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4010,7 +4110,7 @@
         <v>134</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,7 +4127,7 @@
         <v>136</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,7 +4144,7 @@
         <v>138</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4061,7 +4161,7 @@
         <v>140</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,7 +4178,7 @@
         <v>142</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,7 +4195,7 @@
         <v>144</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,7 +4212,7 @@
         <v>146</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4129,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4146,7 +4246,7 @@
         <v>149</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4163,7 +4263,7 @@
         <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,7 +4280,7 @@
         <v>153</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,7 +4297,7 @@
         <v>155</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,7 +4314,7 @@
         <v>157</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4231,7 +4331,7 @@
         <v>159</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,7 +4365,7 @@
         <v>161</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4282,7 +4382,7 @@
         <v>163</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4299,7 +4399,7 @@
         <v>165</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4316,7 +4416,7 @@
         <v>167</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4333,7 +4433,7 @@
         <v>169</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4350,7 +4450,7 @@
         <v>171</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,7 +4467,7 @@
         <v>173</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4384,7 +4484,7 @@
         <v>175</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4401,7 +4501,7 @@
         <v>176</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4418,7 +4518,7 @@
         <v>178</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4435,7 +4535,7 @@
         <v>180</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4452,7 +4552,7 @@
         <v>182</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4469,7 +4569,7 @@
         <v>184</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,7 +4586,7 @@
         <v>186</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,7 +4603,7 @@
         <v>188</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4520,7 +4620,7 @@
         <v>189</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,7 +4637,7 @@
         <v>191</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,7 +4657,7 @@
         <v>309</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,7 +4677,7 @@
         <v>310</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,7 +4694,7 @@
         <v>197</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,7 +4711,7 @@
         <v>199</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4628,7 +4728,7 @@
         <v>201</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4645,7 +4745,7 @@
         <v>203</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4662,7 +4762,7 @@
         <v>204</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4679,7 +4779,7 @@
         <v>206</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4696,7 +4796,7 @@
         <v>208</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4713,7 +4813,7 @@
         <v>210</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4730,7 +4830,7 @@
         <v>212</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4747,7 +4847,7 @@
         <v>214</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,7 +4864,7 @@
         <v>216</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4781,7 +4881,7 @@
         <v>218</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4798,7 +4898,7 @@
         <v>220</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4818,7 +4918,7 @@
         <v>311</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4835,7 +4935,7 @@
         <v>223</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,7 +4955,7 @@
         <v>312</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,7 +4972,7 @@
         <v>227</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,7 +4989,7 @@
         <v>229</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,7 +5006,7 @@
         <v>231</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,7 +5023,7 @@
         <v>233</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,7 +5040,7 @@
         <v>235</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4957,7 +5057,7 @@
         <v>237</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,7 +5074,7 @@
         <v>239</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,7 +5091,7 @@
         <v>241</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,7 +5108,7 @@
         <v>243</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5028,7 +5128,7 @@
         <v>313</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5045,7 +5145,7 @@
         <v>247</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5062,7 +5162,7 @@
         <v>249</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5079,7 +5179,7 @@
         <v>251</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5096,7 +5196,7 @@
         <v>253</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,7 +5213,7 @@
         <v>255</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5130,7 +5230,7 @@
         <v>257</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5147,7 +5247,7 @@
         <v>259</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5164,7 +5264,7 @@
         <v>261</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5181,7 +5281,7 @@
         <v>263</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5198,7 +5298,7 @@
         <v>265</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5215,7 +5315,7 @@
         <v>267</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5232,7 +5332,7 @@
         <v>269</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,7 +5349,7 @@
         <v>271</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5266,7 +5366,7 @@
         <v>273</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5283,7 +5383,7 @@
         <v>275</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5300,7 +5400,7 @@
         <v>277</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,7 +5417,7 @@
         <v>279</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5334,7 +5434,7 @@
         <v>280</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5351,7 +5451,7 @@
         <v>282</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5368,7 +5468,7 @@
         <v>284</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5385,7 +5485,7 @@
         <v>285</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5402,7 +5502,7 @@
         <v>287</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5419,7 +5519,7 @@
         <v>289</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5436,7 +5536,7 @@
         <v>291</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5456,7 +5556,7 @@
         <v>314</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5473,7 +5573,7 @@
         <v>294</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,7 +5593,7 @@
         <v>315</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5510,7 +5610,7 @@
         <v>298</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5527,7 +5627,7 @@
         <v>300</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5547,7 +5647,7 @@
         <v>316</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5588,16 +5688,16 @@
         <v>474</v>
       </c>
       <c r="C168" t="s">
+        <v>572</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F168" t="s">
         <v>574</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F168" t="s">
-        <v>576</v>
-      </c>
       <c r="G168" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5608,16 +5708,16 @@
         <v>474</v>
       </c>
       <c r="C169" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F169" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5628,13 +5728,13 @@
         <v>474</v>
       </c>
       <c r="C170" t="s">
+        <v>577</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F170" t="s">
         <v>579</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F170" t="s">
-        <v>581</v>
       </c>
       <c r="G170" s="4"/>
     </row>
@@ -5649,7 +5749,7 @@
         <v>471</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G171" s="4"/>
     </row>
@@ -5667,11 +5767,11 @@
         <v>520</v>
       </c>
       <c r="F172" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>459</v>
       </c>
@@ -5679,14 +5779,14 @@
         <v>460</v>
       </c>
       <c r="C173" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>459</v>
       </c>
@@ -5694,105 +5794,108 @@
         <v>460</v>
       </c>
       <c r="C174" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B175" t="s">
-        <v>460</v>
+        <v>623</v>
       </c>
       <c r="C175" t="s">
-        <v>472</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G175" s="4"/>
+        <v>617</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F175" t="s">
+        <v>618</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B176" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C176" t="s">
+        <v>616</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F176" t="s">
         <v>619</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F176" t="s">
-        <v>620</v>
-      </c>
       <c r="G176" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B177" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C177" t="s">
-        <v>618</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>624</v>
+        <v>566</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="F177" t="s">
-        <v>621</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B178" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C178" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>570</v>
       </c>
       <c r="F178" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B179" t="s">
-        <v>626</v>
+        <v>460</v>
       </c>
       <c r="C179" t="s">
-        <v>569</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>572</v>
+        <v>634</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="F179" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>459</v>
       </c>
@@ -5800,17 +5903,17 @@
         <v>460</v>
       </c>
       <c r="C180" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F180" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>459</v>
       </c>
@@ -5818,13 +5921,13 @@
         <v>460</v>
       </c>
       <c r="C181" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F181" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G181" s="4"/>
     </row>
@@ -5836,618 +5939,632 @@
         <v>460</v>
       </c>
       <c r="C182" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F182" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>459</v>
+        <v>691</v>
       </c>
       <c r="B183" t="s">
-        <v>460</v>
-      </c>
-      <c r="C183" t="s">
-        <v>635</v>
+        <v>686</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F183" t="s">
-        <v>635</v>
-      </c>
-      <c r="G183" s="4"/>
+        <v>640</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B184" t="s">
-        <v>688</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>642</v>
+        <v>694</v>
+      </c>
+      <c r="C184" t="s">
+        <v>641</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
+      </c>
+      <c r="F184" t="s">
+        <v>646</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B185" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C185" t="s">
         <v>643</v>
       </c>
       <c r="E185" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F185" t="s">
         <v>647</v>
       </c>
-      <c r="F185" t="s">
-        <v>648</v>
-      </c>
       <c r="G185" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B186" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C186" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F186" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B187" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C187" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E187" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F187" t="s">
+        <v>648</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B188" t="s">
+        <v>687</v>
+      </c>
+      <c r="C188" t="s">
+        <v>653</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F188" t="s">
         <v>652</v>
       </c>
-      <c r="F187" t="s">
-        <v>653</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B188" t="s">
-        <v>689</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="G188" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B189" t="s">
+        <v>695</v>
+      </c>
+      <c r="C189" t="s">
+        <v>697</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F189" t="s">
+        <v>656</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B190" t="s">
+        <v>695</v>
+      </c>
+      <c r="C190" t="s">
+        <v>698</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F190" t="s">
+        <v>657</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B191" t="s">
+        <v>695</v>
+      </c>
+      <c r="C191" t="s">
+        <v>699</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F191" t="s">
+        <v>675</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B192" t="s">
+        <v>695</v>
+      </c>
+      <c r="C192" t="s">
+        <v>700</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F192" t="s">
+        <v>674</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B193" t="s">
+        <v>690</v>
+      </c>
+      <c r="C193" t="s">
         <v>644</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E193" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F193" t="s">
+        <v>684</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B194" t="s">
+        <v>688</v>
+      </c>
+      <c r="C194" t="s">
+        <v>663</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F194" t="s">
+        <v>664</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B195" t="s">
+        <v>688</v>
+      </c>
+      <c r="C195" t="s">
+        <v>662</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F195" t="s">
+        <v>665</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B196" t="s">
+        <v>688</v>
+      </c>
+      <c r="C196" t="s">
+        <v>680</v>
+      </c>
+      <c r="E196" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F188" t="s">
-        <v>650</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B189" t="s">
-        <v>689</v>
-      </c>
-      <c r="C189" t="s">
-        <v>655</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F189" t="s">
-        <v>654</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B190" t="s">
-        <v>697</v>
-      </c>
-      <c r="C190" t="s">
-        <v>699</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="F190" t="s">
-        <v>658</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B191" t="s">
-        <v>697</v>
-      </c>
-      <c r="C191" t="s">
-        <v>700</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="F191" t="s">
-        <v>659</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B192" t="s">
-        <v>697</v>
-      </c>
-      <c r="C192" t="s">
-        <v>701</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F192" t="s">
-        <v>677</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B193" t="s">
-        <v>697</v>
-      </c>
-      <c r="C193" t="s">
-        <v>702</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F193" t="s">
-        <v>676</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B194" t="s">
-        <v>692</v>
-      </c>
-      <c r="C194" t="s">
-        <v>646</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F194" t="s">
-        <v>686</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B195" t="s">
-        <v>690</v>
-      </c>
-      <c r="C195" t="s">
-        <v>665</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>666</v>
       </c>
-      <c r="G195" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B196" t="s">
-        <v>690</v>
-      </c>
-      <c r="C196" t="s">
-        <v>664</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="F196" t="s">
-        <v>667</v>
-      </c>
       <c r="G196" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B197" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C197" t="s">
+        <v>681</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>663</v>
-      </c>
       <c r="F197" t="s">
+        <v>683</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B198" t="s">
+        <v>689</v>
+      </c>
+      <c r="C198" t="s">
         <v>668</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="E198" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F198" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B198" t="s">
-        <v>690</v>
-      </c>
-      <c r="C198" t="s">
-        <v>683</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F198" t="s">
-        <v>685</v>
-      </c>
       <c r="G198" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B199" t="s">
+        <v>689</v>
+      </c>
+      <c r="C199" t="s">
+        <v>671</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F199" t="s">
+        <v>673</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C199" t="s">
+      <c r="B200" t="s">
+        <v>689</v>
+      </c>
+      <c r="C200" t="s">
+        <v>667</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G200" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F199" t="s">
-        <v>674</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B200" t="s">
-        <v>691</v>
-      </c>
-      <c r="C200" t="s">
-        <v>673</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="F200" t="s">
-        <v>675</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B201" t="s">
+        <v>689</v>
+      </c>
+      <c r="C201" t="s">
+        <v>692</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B201" t="s">
-        <v>691</v>
-      </c>
-      <c r="C201" t="s">
-        <v>669</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>687</v>
-      </c>
       <c r="G201" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="B202" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C202" t="s">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>695</v>
+        <v>734</v>
+      </c>
+      <c r="F202" t="s">
+        <v>732</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B203" t="s">
+        <v>735</v>
+      </c>
+      <c r="C203" t="s">
+        <v>736</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F203" t="s">
+        <v>739</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B204" t="s">
+        <v>735</v>
+      </c>
+      <c r="C204" t="s">
+        <v>737</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F204" t="s">
+        <v>738</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="E205" s="3"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B206" t="s">
+        <v>742</v>
+      </c>
+      <c r="C206" t="s">
+        <v>740</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F206" t="s">
+        <v>741</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B207" t="s">
+        <v>742</v>
+      </c>
+      <c r="C207" t="s">
+        <v>743</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F207" t="s">
+        <v>744</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B208" t="s">
+        <v>742</v>
+      </c>
+      <c r="C208" t="s">
+        <v>745</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F208" t="s">
+        <v>746</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B209" t="s">
+        <v>742</v>
+      </c>
+      <c r="C209" t="s">
+        <v>747</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F209" t="s">
+        <v>749</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B210" t="s">
+        <v>742</v>
+      </c>
+      <c r="C210" t="s">
+        <v>748</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F210" t="s">
+        <v>750</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>355</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B211" t="s">
         <v>359</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C211" t="s">
         <v>360</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E211" t="s">
         <v>319</v>
       </c>
-      <c r="F203" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="F211" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>355</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B212" t="s">
         <v>359</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C212" t="s">
         <v>361</v>
       </c>
-      <c r="E204" t="s">
-        <v>535</v>
-      </c>
-      <c r="F204" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>356</v>
-      </c>
-      <c r="B205" t="s">
-        <v>58</v>
-      </c>
-      <c r="C205" t="s">
-        <v>455</v>
-      </c>
-      <c r="E205" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>356</v>
-      </c>
-      <c r="B206" t="s">
-        <v>58</v>
-      </c>
-      <c r="C206" t="s">
-        <v>456</v>
-      </c>
-      <c r="E206" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>356</v>
-      </c>
-      <c r="B207" t="s">
-        <v>321</v>
-      </c>
-      <c r="C207" t="s">
-        <v>321</v>
-      </c>
-      <c r="E207" t="s">
-        <v>534</v>
-      </c>
-      <c r="F207" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>356</v>
-      </c>
-      <c r="B208" t="s">
-        <v>358</v>
-      </c>
-      <c r="C208" t="s">
-        <v>322</v>
-      </c>
-      <c r="E208" t="s">
-        <v>323</v>
-      </c>
-      <c r="F208" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>356</v>
-      </c>
-      <c r="B209" t="s">
-        <v>358</v>
-      </c>
-      <c r="C209" t="s">
-        <v>324</v>
-      </c>
-      <c r="E209" t="s">
-        <v>325</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="E212" t="s">
+        <v>533</v>
+      </c>
+      <c r="F212" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>356</v>
-      </c>
-      <c r="B210" t="s">
-        <v>358</v>
-      </c>
-      <c r="C210" t="s">
-        <v>326</v>
-      </c>
-      <c r="E210" t="s">
-        <v>327</v>
-      </c>
-      <c r="F210" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>356</v>
-      </c>
-      <c r="B211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C211" t="s">
-        <v>328</v>
-      </c>
-      <c r="E211" t="s">
-        <v>329</v>
-      </c>
-      <c r="F211" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>356</v>
-      </c>
-      <c r="B212" t="s">
-        <v>358</v>
-      </c>
-      <c r="C212" t="s">
-        <v>330</v>
-      </c>
-      <c r="E212" t="s">
-        <v>331</v>
-      </c>
-      <c r="F212" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>356</v>
       </c>
       <c r="B213" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C213" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="E213" t="s">
-        <v>333</v>
-      </c>
-      <c r="F213" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>356</v>
       </c>
       <c r="B214" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="E214" t="s">
-        <v>335</v>
-      </c>
-      <c r="F214" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C215" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E215" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="F215" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>356</v>
       </c>
@@ -6455,248 +6572,245 @@
         <v>358</v>
       </c>
       <c r="C216" t="s">
+        <v>322</v>
+      </c>
+      <c r="E216" t="s">
+        <v>323</v>
+      </c>
+      <c r="F216" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>356</v>
+      </c>
+      <c r="B217" t="s">
+        <v>358</v>
+      </c>
+      <c r="C217" t="s">
+        <v>324</v>
+      </c>
+      <c r="E217" t="s">
+        <v>325</v>
+      </c>
+      <c r="F217" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>356</v>
+      </c>
+      <c r="B218" t="s">
+        <v>358</v>
+      </c>
+      <c r="C218" t="s">
+        <v>326</v>
+      </c>
+      <c r="E218" t="s">
+        <v>327</v>
+      </c>
+      <c r="F218" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>356</v>
+      </c>
+      <c r="B219" t="s">
+        <v>358</v>
+      </c>
+      <c r="C219" t="s">
+        <v>328</v>
+      </c>
+      <c r="E219" t="s">
+        <v>329</v>
+      </c>
+      <c r="F219" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>356</v>
+      </c>
+      <c r="B220" t="s">
+        <v>358</v>
+      </c>
+      <c r="C220" t="s">
+        <v>330</v>
+      </c>
+      <c r="E220" t="s">
+        <v>331</v>
+      </c>
+      <c r="F220" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>356</v>
+      </c>
+      <c r="B221" t="s">
+        <v>358</v>
+      </c>
+      <c r="C221" t="s">
+        <v>332</v>
+      </c>
+      <c r="E221" t="s">
+        <v>333</v>
+      </c>
+      <c r="F221" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>356</v>
+      </c>
+      <c r="B222" t="s">
+        <v>358</v>
+      </c>
+      <c r="C222" t="s">
+        <v>334</v>
+      </c>
+      <c r="E222" t="s">
+        <v>335</v>
+      </c>
+      <c r="F222" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>356</v>
+      </c>
+      <c r="B223" t="s">
+        <v>358</v>
+      </c>
+      <c r="C223" t="s">
+        <v>336</v>
+      </c>
+      <c r="E223" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>356</v>
+      </c>
+      <c r="B224" t="s">
+        <v>358</v>
+      </c>
+      <c r="C224" t="s">
         <v>338</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E224" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>478</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" t="s">
-        <v>340</v>
-      </c>
-      <c r="F217" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>478</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>362</v>
-      </c>
-      <c r="E218" t="s">
-        <v>341</v>
-      </c>
-      <c r="F218" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>478</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>215</v>
-      </c>
-      <c r="E219" t="s">
-        <v>342</v>
-      </c>
-      <c r="F219" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>478</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>22</v>
-      </c>
-      <c r="E220" t="s">
-        <v>343</v>
-      </c>
-      <c r="F220" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>478</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>363</v>
-      </c>
-      <c r="E221" t="s">
-        <v>344</v>
-      </c>
-      <c r="F221" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>478</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
-        <v>364</v>
-      </c>
-      <c r="E222" t="s">
-        <v>345</v>
-      </c>
-      <c r="F222" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>357</v>
-      </c>
-      <c r="B223" t="s">
-        <v>303</v>
-      </c>
-      <c r="C223" t="s">
-        <v>112</v>
-      </c>
-      <c r="E223" t="s">
-        <v>387</v>
-      </c>
-      <c r="F223" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>357</v>
-      </c>
-      <c r="B224" t="s">
-        <v>303</v>
-      </c>
-      <c r="C224" t="s">
-        <v>54</v>
-      </c>
-      <c r="E224" t="s">
-        <v>389</v>
-      </c>
-      <c r="F224" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B225" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="F225" t="s">
-        <v>392</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B226" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="E226" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="F226" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B227" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="E227" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="F227" t="s">
-        <v>396</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B228" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="E228" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="F228" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B229" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="E229" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="F229" t="s">
-        <v>400</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B230" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="E230" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="F230" t="s">
-        <v>402</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6707,13 +6821,13 @@
         <v>303</v>
       </c>
       <c r="C231" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E231" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F231" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,13 +6838,13 @@
         <v>303</v>
       </c>
       <c r="C232" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E232" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F232" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,16 +6852,16 @@
         <v>357</v>
       </c>
       <c r="B233" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C233" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E233" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="F233" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,16 +6869,16 @@
         <v>357</v>
       </c>
       <c r="B234" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C234" t="s">
-        <v>54</v>
+        <v>426</v>
       </c>
       <c r="E234" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="F234" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,16 +6886,16 @@
         <v>357</v>
       </c>
       <c r="B235" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C235" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="E235" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="F235" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6789,16 +6903,16 @@
         <v>357</v>
       </c>
       <c r="B236" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C236" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E236" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="F236" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,16 +6920,16 @@
         <v>357</v>
       </c>
       <c r="B237" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C237" t="s">
-        <v>131</v>
+        <v>427</v>
       </c>
       <c r="E237" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="F237" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6823,16 +6937,16 @@
         <v>357</v>
       </c>
       <c r="B238" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C238" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E238" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="F238" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6840,16 +6954,16 @@
         <v>357</v>
       </c>
       <c r="B239" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C239" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E239" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="F239" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,16 +6971,16 @@
         <v>357</v>
       </c>
       <c r="B240" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="E240" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="F240" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,13 +6991,13 @@
         <v>304</v>
       </c>
       <c r="C241" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E241" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F241" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,13 +7008,13 @@
         <v>304</v>
       </c>
       <c r="C242" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="E242" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="F242" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,13 +7025,13 @@
         <v>304</v>
       </c>
       <c r="C243" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="E243" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F243" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,16 +7039,16 @@
         <v>357</v>
       </c>
       <c r="B244" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C244" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="E244" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="F244" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6942,16 +7056,16 @@
         <v>357</v>
       </c>
       <c r="B245" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C245" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E245" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="F245" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,16 +7073,16 @@
         <v>357</v>
       </c>
       <c r="B246" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C246" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="E246" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="F246" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6976,16 +7090,16 @@
         <v>357</v>
       </c>
       <c r="B247" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C247" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="E247" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F247" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6993,16 +7107,16 @@
         <v>357</v>
       </c>
       <c r="B248" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C248" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="E248" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="F248" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7010,16 +7124,16 @@
         <v>357</v>
       </c>
       <c r="B249" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C249" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="E249" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="F249" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,16 +7141,16 @@
         <v>357</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C250" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="E250" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="F250" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7044,16 +7158,16 @@
         <v>357</v>
       </c>
       <c r="B251" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C251" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="E251" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="F251" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7064,439 +7178,415 @@
         <v>305</v>
       </c>
       <c r="C252" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="E252" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F252" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B253" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C253" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="E253" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="F253" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B254" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C254" t="s">
         <v>205</v>
       </c>
       <c r="E254" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="F254" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B255" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C255" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="E255" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="F255" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>357</v>
+      </c>
+      <c r="B256" t="s">
+        <v>305</v>
+      </c>
+      <c r="C256" t="s">
+        <v>217</v>
+      </c>
+      <c r="E256" t="s">
+        <v>350</v>
+      </c>
+      <c r="F256" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>357</v>
+      </c>
+      <c r="B257" t="s">
+        <v>305</v>
+      </c>
+      <c r="C257" t="s">
+        <v>226</v>
+      </c>
+      <c r="E257" t="s">
+        <v>351</v>
+      </c>
+      <c r="F257" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>357</v>
+      </c>
+      <c r="B258" t="s">
+        <v>305</v>
+      </c>
+      <c r="C258" t="s">
+        <v>234</v>
+      </c>
+      <c r="E258" t="s">
+        <v>352</v>
+      </c>
+      <c r="F258" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>357</v>
+      </c>
+      <c r="B259" t="s">
+        <v>305</v>
+      </c>
+      <c r="C259" t="s">
+        <v>230</v>
+      </c>
+      <c r="E259" t="s">
+        <v>353</v>
+      </c>
+      <c r="F259" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>357</v>
+      </c>
+      <c r="B260" t="s">
+        <v>305</v>
+      </c>
+      <c r="C260" t="s">
+        <v>262</v>
+      </c>
+      <c r="E260" t="s">
+        <v>354</v>
+      </c>
+      <c r="F260" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>423</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B261" t="s">
         <v>425</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C261" t="s">
+        <v>278</v>
+      </c>
+      <c r="E261" t="s">
+        <v>409</v>
+      </c>
+      <c r="F261" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>423</v>
+      </c>
+      <c r="B262" t="s">
+        <v>425</v>
+      </c>
+      <c r="C262" t="s">
+        <v>205</v>
+      </c>
+      <c r="E262" t="s">
+        <v>411</v>
+      </c>
+      <c r="F262" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>423</v>
+      </c>
+      <c r="B263" t="s">
+        <v>425</v>
+      </c>
+      <c r="C263" t="s">
+        <v>281</v>
+      </c>
+      <c r="E263" t="s">
+        <v>413</v>
+      </c>
+      <c r="F263" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>423</v>
+      </c>
+      <c r="B264" t="s">
+        <v>425</v>
+      </c>
+      <c r="C264" t="s">
         <v>283</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E264" t="s">
         <v>415</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F264" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>423</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B265" t="s">
         <v>425</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C265" t="s">
         <v>290</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E265" t="s">
         <v>417</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F265" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>423</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B266" t="s">
         <v>425</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C266" t="s">
         <v>430</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E266" t="s">
         <v>419</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F266" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>423</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B267" t="s">
         <v>306</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C267" t="s">
         <v>306</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E267" t="s">
         <v>421</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F267" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>424</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B268" t="s">
         <v>429</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C268" t="s">
         <v>429</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E268" t="s">
         <v>407</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F268" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>424</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B269" t="s">
         <v>442</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C269" t="s">
         <v>443</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E269" t="s">
         <v>444</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F269" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>424</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B270" t="s">
         <v>442</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C270" t="s">
         <v>448</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E270" t="s">
         <v>446</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F270" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>424</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B271" t="s">
         <v>442</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C271" t="s">
         <v>449</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E271" t="s">
         <v>450</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F271" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>424</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B272" t="s">
         <v>442</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C272" t="s">
         <v>452</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E272" t="s">
         <v>453</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F272" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>464</v>
-      </c>
-      <c r="B265" t="s">
-        <v>462</v>
-      </c>
-      <c r="C265" t="s">
-        <v>463</v>
-      </c>
-      <c r="E265" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B266" t="s">
-        <v>462</v>
-      </c>
-      <c r="C266" t="s">
-        <v>468</v>
-      </c>
-      <c r="E266" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B267" t="s">
-        <v>481</v>
-      </c>
-      <c r="C267" t="s">
-        <v>482</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F267" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>484</v>
-      </c>
-      <c r="B268" t="s">
-        <v>481</v>
-      </c>
-      <c r="C268" t="s">
-        <v>483</v>
-      </c>
-      <c r="E268" t="s">
-        <v>496</v>
-      </c>
-      <c r="F268" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B269" t="s">
-        <v>462</v>
-      </c>
-      <c r="C269" t="s">
-        <v>607</v>
-      </c>
-      <c r="E269" t="s">
-        <v>467</v>
-      </c>
-      <c r="F269" t="s">
-        <v>592</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B270" t="s">
-        <v>462</v>
-      </c>
-      <c r="C270" t="s">
-        <v>608</v>
-      </c>
-      <c r="E270" t="s">
-        <v>594</v>
-      </c>
-      <c r="F270" t="s">
-        <v>593</v>
-      </c>
-      <c r="G270" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B271" t="s">
-        <v>462</v>
-      </c>
-      <c r="C271" t="s">
-        <v>609</v>
-      </c>
-      <c r="E271" t="s">
-        <v>595</v>
-      </c>
-      <c r="F271" t="s">
-        <v>596</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B272" t="s">
-        <v>462</v>
-      </c>
-      <c r="C272" t="s">
-        <v>610</v>
-      </c>
-      <c r="E272" t="s">
-        <v>597</v>
-      </c>
-      <c r="F272" t="s">
-        <v>598</v>
-      </c>
-      <c r="G272" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="B273" t="s">
         <v>462</v>
       </c>
       <c r="C273" t="s">
-        <v>611</v>
+        <v>463</v>
       </c>
       <c r="E273" t="s">
-        <v>555</v>
-      </c>
-      <c r="F273" t="s">
-        <v>599</v>
-      </c>
-      <c r="G273" s="4" t="s">
-        <v>606</v>
+        <v>465</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B274" t="s">
         <v>462</v>
       </c>
       <c r="C274" t="s">
-        <v>612</v>
+        <v>468</v>
       </c>
       <c r="E274" t="s">
-        <v>600</v>
-      </c>
-      <c r="F274" t="s">
-        <v>601</v>
-      </c>
-      <c r="G274" s="4" t="s">
-        <v>606</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B275" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C275" t="s">
-        <v>613</v>
-      </c>
-      <c r="E275" t="s">
-        <v>602</v>
+        <v>482</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="F275" t="s">
-        <v>603</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>606</v>
+        <v>485</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>466</v>
+      <c r="A276" t="s">
+        <v>484</v>
       </c>
       <c r="B276" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C276" t="s">
-        <v>614</v>
+        <v>483</v>
       </c>
       <c r="E276" t="s">
-        <v>604</v>
+        <v>496</v>
       </c>
       <c r="F276" t="s">
-        <v>605</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>606</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7504,19 +7594,19 @@
         <v>466</v>
       </c>
       <c r="B277" t="s">
-        <v>627</v>
+        <v>462</v>
       </c>
       <c r="C277" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E277" t="s">
-        <v>616</v>
+        <v>467</v>
       </c>
       <c r="F277" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7524,213 +7614,229 @@
         <v>466</v>
       </c>
       <c r="B278" t="s">
-        <v>627</v>
+        <v>462</v>
       </c>
       <c r="C278" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="E278" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="F278" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B279" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C279" t="s">
-        <v>488</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>497</v>
+        <v>607</v>
+      </c>
+      <c r="E279" t="s">
+        <v>593</v>
       </c>
       <c r="F279" t="s">
-        <v>490</v>
-      </c>
-      <c r="G279" s="4"/>
-    </row>
-    <row r="280" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B280" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C280" t="s">
-        <v>489</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>498</v>
+        <v>608</v>
+      </c>
+      <c r="E280" t="s">
+        <v>595</v>
       </c>
       <c r="F280" t="s">
-        <v>487</v>
-      </c>
-      <c r="G280" s="4"/>
-    </row>
-    <row r="281" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B281" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C281" t="s">
-        <v>491</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G281" s="4"/>
+        <v>609</v>
+      </c>
+      <c r="E281" t="s">
+        <v>553</v>
+      </c>
+      <c r="F281" t="s">
+        <v>597</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B282" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C282" t="s">
-        <v>482</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>493</v>
+        <v>610</v>
+      </c>
+      <c r="E282" t="s">
+        <v>598</v>
       </c>
       <c r="F282" t="s">
-        <v>485</v>
-      </c>
-      <c r="G282" s="4"/>
+        <v>599</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C283" t="s">
-        <v>483</v>
+        <v>611</v>
       </c>
       <c r="E283" t="s">
-        <v>494</v>
+        <v>600</v>
       </c>
       <c r="F283" t="s">
-        <v>486</v>
-      </c>
-      <c r="G283" s="4"/>
+        <v>601</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B284" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="C284" t="s">
-        <v>500</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>501</v>
+        <v>612</v>
+      </c>
+      <c r="E284" t="s">
+        <v>602</v>
       </c>
       <c r="F284" t="s">
-        <v>502</v>
-      </c>
-      <c r="G284" s="4"/>
+        <v>603</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="C285" t="s">
-        <v>564</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>566</v>
+        <v>613</v>
+      </c>
+      <c r="E285" t="s">
+        <v>614</v>
       </c>
       <c r="F285" t="s">
-        <v>565</v>
-      </c>
-      <c r="G285" s="4"/>
+        <v>603</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B286" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="C286" t="s">
-        <v>561</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>562</v>
+        <v>626</v>
+      </c>
+      <c r="E286" t="s">
+        <v>629</v>
       </c>
       <c r="F286" t="s">
-        <v>563</v>
-      </c>
-      <c r="G286" s="4"/>
-    </row>
-    <row r="287" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B287" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C287" t="s">
-        <v>508</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>553</v>
+        <v>488</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F287" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B288" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C288" t="s">
-        <v>509</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>512</v>
+        <v>489</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F288" t="s">
+        <v>487</v>
       </c>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B289" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C289" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="F289" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="G289" s="4"/>
     </row>
@@ -7739,16 +7845,16 @@
         <v>479</v>
       </c>
       <c r="B290" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C290" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="F290" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="G290" s="4"/>
     </row>
@@ -7757,16 +7863,16 @@
         <v>479</v>
       </c>
       <c r="B291" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C291" t="s">
-        <v>515</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>516</v>
+        <v>483</v>
+      </c>
+      <c r="E291" t="s">
+        <v>494</v>
       </c>
       <c r="F291" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="G291" s="4"/>
     </row>
@@ -7775,16 +7881,16 @@
         <v>479</v>
       </c>
       <c r="B292" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C292" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="F292" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="G292" s="4"/>
     </row>
@@ -7793,16 +7899,16 @@
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="C293" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="G293" s="4"/>
     </row>
@@ -7811,20 +7917,20 @@
         <v>479</v>
       </c>
       <c r="B294" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="C294" t="s">
-        <v>529</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>587</v>
+        <v>559</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>479</v>
       </c>
@@ -7832,15 +7938,159 @@
         <v>506</v>
       </c>
       <c r="C295" t="s">
+        <v>508</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F295" t="s">
+        <v>507</v>
+      </c>
+      <c r="G295" s="4"/>
+    </row>
+    <row r="296" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B296" t="s">
+        <v>506</v>
+      </c>
+      <c r="C296" t="s">
+        <v>509</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G296" s="4"/>
+    </row>
+    <row r="297" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B297" t="s">
+        <v>505</v>
+      </c>
+      <c r="C297" t="s">
+        <v>511</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F297" t="s">
+        <v>557</v>
+      </c>
+      <c r="G297" s="4"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B298" t="s">
+        <v>506</v>
+      </c>
+      <c r="C298" t="s">
+        <v>513</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F298" t="s">
+        <v>514</v>
+      </c>
+      <c r="G298" s="4"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B299" t="s">
+        <v>505</v>
+      </c>
+      <c r="C299" t="s">
+        <v>515</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F299" t="s">
+        <v>524</v>
+      </c>
+      <c r="G299" s="4"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B300" t="s">
+        <v>505</v>
+      </c>
+      <c r="C300" t="s">
+        <v>523</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F300" t="s">
+        <v>525</v>
+      </c>
+      <c r="G300" s="4"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B301" t="s">
+        <v>505</v>
+      </c>
+      <c r="C301" t="s">
+        <v>517</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F301" t="s">
+        <v>526</v>
+      </c>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B302" t="s">
+        <v>505</v>
+      </c>
+      <c r="C302" t="s">
+        <v>527</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F302" t="s">
+        <v>528</v>
+      </c>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B303" t="s">
+        <v>506</v>
+      </c>
+      <c r="C303" t="s">
+        <v>529</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E295" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F295" t="s">
-        <v>532</v>
-      </c>
-      <c r="G295" s="4"/>
+      <c r="F303" t="s">
+        <v>530</v>
+      </c>
+      <c r="G303" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2sxc-ui\src\sxc-develop\source-editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A124E-25F5-4E42-96C4-200F53765DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="snippets" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="764">
   <si>
     <t>set</t>
   </si>
@@ -1506,11 +1507,6 @@
   </si>
   <si>
     <t>loop with type filter</t>
-  </si>
-  <si>
-    <t>@foreach(var ${3:pic} in (AsAdam(${1:var}, "${2:prop}").Files as IEnumerable&lt;ToSic.SexyContent.Adam.AdamFile&gt;).Where(f =&gt; f.Type == "${4:image}")){
- &lt;span&gt;@${3:pic}.Url, @${3:pic}.FileName &lt;/span&gt;
-}</t>
   </si>
   <si>
     <t>@${101:var}.${102:prop}?w=${1:200}&amp;h=${2:200}&amp;mode=${3:crop}</t>
@@ -1608,13 +1604,6 @@
     <t>using 2sxc namespace</t>
   </si>
   <si>
-    <t xml:space="preserve">@using ToSic.SexyContent;
-</t>
-  </si>
-  <si>
-    <t>@using ${1:System.Linq}</t>
-  </si>
-  <si>
     <t>The 2sxc namespace, in case you explicitly want to work with 2sxc objects</t>
   </si>
   <si>
@@ -1627,9 +1616,6 @@
     <t>Note that this only works, if there are items, otherwise you'll get an error</t>
   </si>
   <si>
-    <t>This also requires a @using Tosic.SexyContent; at the beginning of your cshtml</t>
-  </si>
-  <si>
     <t>show title of first item if exists</t>
   </si>
   <si>
@@ -1685,14 +1671,6 @@
   </si>
   <si>
     <t>@Edit.Toolbar(${1:Content})</t>
-  </si>
-  <si>
-    <t>@Edit.Toolbar(ListContent)</t>
-  </si>
-  <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(ListContent)
-&lt;/div&gt;</t>
   </si>
   <si>
     <t>Toolbar with edit and replace buttons only</t>
@@ -1915,12 +1893,6 @@
     <t>standard 2sxc JS</t>
   </si>
   <si>
-    <t>&lt;script type="text/javascript" src="/desktopmodules/tosic_sexycontent/js/2sxc.api.min.js" data-enableoptimizations="100"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>@ToSic.SexyContent.ContentBlocks.Render.All(${1:Content}, field: "${2:ContentBlocks}")</t>
-  </si>
-  <si>
     <t>Render Very-Rich-Text</t>
   </si>
   <si>
@@ -1941,9 +1913,6 @@
 tutorial very-rich-text:http://2sxc.org/en/blog/post/tutorial-create-very-rich-text-inner-content-2-with-2sxc</t>
   </si>
   <si>
-    <t>@ToSic.SexyContent.ContentBlocks.Render.All(${1:Content}, field: "${2:BodyContentBlocks}", merge: ${3:Content.Body})</t>
-  </si>
-  <si>
     <t>InnerContent</t>
   </si>
   <si>
@@ -1951,18 +1920,6 @@
   </si>
   <si>
     <t>2sxcScripts</t>
-  </si>
-  <si>
-    <t>2sxc Angular1 JS</t>
-  </si>
-  <si>
-    <t>read api-docs:https://github.com/2sic/2sxc/wiki/AngularJs-1-Overview</t>
-  </si>
-  <si>
-    <t>angular1 - remember to also include the 2sxc</t>
-  </si>
-  <si>
-    <t>&lt;script type="text/javascript" src="/desktopmodules/tosic_sexycontent/js/angularjs/angular.min.js" data-enableoptimizations="101"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>Render separate cshtml (sub-template)</t>
@@ -2390,15 +2347,86 @@
     .SelectMany(a =&gt; a.Parents("${10:Books}", "${11:Illustrators}"));
 }</t>
   </si>
+  <si>
+    <t>inherits RazorComponent</t>
+  </si>
+  <si>
+    <t>@inherits ToSic.Sxc.Dnn.RazorComponent</t>
+  </si>
+  <si>
+    <t>@using ${1:System.Linq};</t>
+  </si>
+  <si>
+    <t>Inherits statement recommended on all Razor files</t>
+  </si>
+  <si>
+    <t>https://r.2sxc.org/RazorComponent</t>
+  </si>
+  <si>
+    <t>@ToSic.Sxc.Blocks.Render.All(${1:Content}, field: "${2:ContentBlocks}")</t>
+  </si>
+  <si>
+    <t>@ToSic.Sxc.Blocks.Render.All(${1:Content}, field: "${2:BodyContentBlocks}", merge: ${3:Content.Body})</t>
+  </si>
+  <si>
+    <t>@foreach(var ${3:pic} in (AsAdam(${1:var}, "${2:prop}").Files as IEnumerable&lt;ToSic.Sxc.Adam.IFile&gt;).Where(f =&gt; f.Type == "${4:image}")){
+ &lt;span&gt;@${3:pic}.Url, @${3:pic}.FileName &lt;/span&gt;
+}</t>
+  </si>
+  <si>
+    <t>This also requires a @using Tosic.Sxc.Data; at the beginning of your cshtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@using ToSic.Sxc.Data;
+</t>
+  </si>
+  <si>
+    <t>@Edit.Toolbar(Header)</t>
+  </si>
+  <si>
+    <t>&lt;div class="sc-element"&gt;
+    @Edit.Toolbar(Header)
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>@Edit.Enable(js: true)</t>
+  </si>
+  <si>
+    <t>read https://docs.2sxc.org/api/dot-net/ToSic.Sxc.Web.IInPageEditingSystem.html#methods</t>
+  </si>
+  <si>
+    <t>@RazorBlade</t>
+  </si>
+  <si>
+    <t>Using RazorBlade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@using ToSic.Razor.Blade;
+</t>
+  </si>
+  <si>
+    <t>Use Razor Blade</t>
+  </si>
+  <si>
+    <t>Read https://razor-blade.net/ and the tutorials https://r.2sxc.org/TutRazorBlade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2421,10 +2449,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2434,8 +2463,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2452,16 +2483,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G303" totalsRowShown="0">
-  <autoFilter ref="A1:G303"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G304" totalsRowShown="0">
+  <autoFilter ref="A1:G304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="set"/>
-    <tableColumn id="7" name="subset"/>
-    <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="title"/>
-    <tableColumn id="5" name="content"/>
-    <tableColumn id="6" name="help"/>
-    <tableColumn id="4" name="links"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="set"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="subset"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="content"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="help"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="links"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2729,25 +2760,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="G205" sqref="A205:G205"/>
+    <sheetView tabSelected="1" topLeftCell="C206" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.41796875" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="69.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.578125" customWidth="1"/>
+    <col min="5" max="5" width="69.15625" customWidth="1"/>
+    <col min="6" max="6" width="40.578125" customWidth="1"/>
+    <col min="7" max="7" width="44.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2767,10 +2798,10 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>477</v>
       </c>
@@ -2790,10 +2821,10 @@
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -2813,10 +2844,10 @@
         <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>477</v>
       </c>
@@ -2836,10 +2867,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>477</v>
       </c>
@@ -2859,10 +2890,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>477</v>
       </c>
@@ -2882,10 +2913,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -2905,235 +2936,235 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C8" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F8" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C9" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F9" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C10" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F10" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C11" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F11" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C12" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="F12" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C13" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="F13" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C14" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F14" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C15" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F15" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C16" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="F16" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C18" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F18" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B19" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C19" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>458</v>
       </c>
@@ -3147,14 +3178,14 @@
         <v>307</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="F20" t="s">
         <v>308</v>
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>458</v>
       </c>
@@ -3165,11 +3196,11 @@
         <v>456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>458</v>
       </c>
@@ -3180,19 +3211,19 @@
         <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F22" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>317</v>
       </c>
@@ -3206,10 +3237,10 @@
         <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>317</v>
       </c>
@@ -3223,10 +3254,10 @@
         <v>33</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>317</v>
       </c>
@@ -3240,10 +3271,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>317</v>
       </c>
@@ -3257,10 +3288,10 @@
         <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>317</v>
       </c>
@@ -3274,10 +3305,10 @@
         <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
@@ -3291,10 +3322,10 @@
         <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>317</v>
       </c>
@@ -3308,10 +3339,10 @@
         <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>317</v>
       </c>
@@ -3325,10 +3356,10 @@
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>317</v>
       </c>
@@ -3342,10 +3373,10 @@
         <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>317</v>
       </c>
@@ -3359,10 +3390,10 @@
         <v>49</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>317</v>
       </c>
@@ -3376,10 +3407,10 @@
         <v>51</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>317</v>
       </c>
@@ -3393,10 +3424,10 @@
         <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
@@ -3410,10 +3441,10 @@
         <v>55</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>317</v>
       </c>
@@ -3427,10 +3458,10 @@
         <v>57</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>317</v>
       </c>
@@ -3444,10 +3475,10 @@
         <v>59</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>317</v>
       </c>
@@ -3461,10 +3492,10 @@
         <v>61</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
@@ -3478,10 +3509,10 @@
         <v>63</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>317</v>
       </c>
@@ -3495,10 +3526,10 @@
         <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>317</v>
       </c>
@@ -3512,10 +3543,10 @@
         <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
@@ -3529,10 +3560,10 @@
         <v>69</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>317</v>
       </c>
@@ -3546,10 +3577,10 @@
         <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
@@ -3563,10 +3594,10 @@
         <v>73</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>317</v>
       </c>
@@ -3580,10 +3611,10 @@
         <v>75</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>317</v>
       </c>
@@ -3597,10 +3628,10 @@
         <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>317</v>
       </c>
@@ -3614,10 +3645,10 @@
         <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>317</v>
       </c>
@@ -3631,10 +3662,10 @@
         <v>81</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -3648,10 +3679,10 @@
         <v>83</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>317</v>
       </c>
@@ -3665,10 +3696,10 @@
         <v>85</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>317</v>
       </c>
@@ -3682,10 +3713,10 @@
         <v>87</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>317</v>
       </c>
@@ -3699,10 +3730,10 @@
         <v>89</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>317</v>
       </c>
@@ -3716,10 +3747,10 @@
         <v>91</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>317</v>
       </c>
@@ -3733,10 +3764,10 @@
         <v>93</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>317</v>
       </c>
@@ -3750,10 +3781,10 @@
         <v>95</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>317</v>
       </c>
@@ -3767,10 +3798,10 @@
         <v>97</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>317</v>
       </c>
@@ -3784,10 +3815,10 @@
         <v>99</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>317</v>
       </c>
@@ -3801,10 +3832,10 @@
         <v>101</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>317</v>
       </c>
@@ -3818,10 +3849,10 @@
         <v>103</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>317</v>
       </c>
@@ -3835,10 +3866,10 @@
         <v>104</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>317</v>
       </c>
@@ -3852,10 +3883,10 @@
         <v>105</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>317</v>
       </c>
@@ -3869,10 +3900,10 @@
         <v>107</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>317</v>
       </c>
@@ -3886,10 +3917,10 @@
         <v>109</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>317</v>
       </c>
@@ -3903,10 +3934,10 @@
         <v>111</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
@@ -3920,10 +3951,10 @@
         <v>113</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -3940,10 +3971,10 @@
         <v>440</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>317</v>
       </c>
@@ -3957,10 +3988,10 @@
         <v>116</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>317</v>
       </c>
@@ -3974,10 +4005,10 @@
         <v>118</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>317</v>
       </c>
@@ -3991,10 +4022,10 @@
         <v>120</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>317</v>
       </c>
@@ -4008,10 +4039,10 @@
         <v>122</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>317</v>
       </c>
@@ -4025,10 +4056,10 @@
         <v>124</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>317</v>
       </c>
@@ -4042,10 +4073,10 @@
         <v>126</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>317</v>
       </c>
@@ -4059,10 +4090,10 @@
         <v>128</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>317</v>
       </c>
@@ -4076,10 +4107,10 @@
         <v>130</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>317</v>
       </c>
@@ -4093,10 +4124,10 @@
         <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>317</v>
       </c>
@@ -4110,10 +4141,10 @@
         <v>134</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>317</v>
       </c>
@@ -4127,10 +4158,10 @@
         <v>136</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>317</v>
       </c>
@@ -4144,10 +4175,10 @@
         <v>138</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>317</v>
       </c>
@@ -4161,10 +4192,10 @@
         <v>140</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>317</v>
       </c>
@@ -4178,10 +4209,10 @@
         <v>142</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>317</v>
       </c>
@@ -4195,10 +4226,10 @@
         <v>144</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>317</v>
       </c>
@@ -4212,10 +4243,10 @@
         <v>146</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>317</v>
       </c>
@@ -4229,10 +4260,10 @@
         <v>148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>317</v>
       </c>
@@ -4246,10 +4277,10 @@
         <v>149</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>317</v>
       </c>
@@ -4263,10 +4294,10 @@
         <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>317</v>
       </c>
@@ -4280,10 +4311,10 @@
         <v>153</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
@@ -4297,10 +4328,10 @@
         <v>155</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>317</v>
       </c>
@@ -4314,10 +4345,10 @@
         <v>157</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>317</v>
       </c>
@@ -4331,10 +4362,10 @@
         <v>159</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>317</v>
       </c>
@@ -4348,10 +4379,10 @@
         <v>160</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>317</v>
       </c>
@@ -4365,10 +4396,10 @@
         <v>161</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>317</v>
       </c>
@@ -4382,10 +4413,10 @@
         <v>163</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>317</v>
       </c>
@@ -4399,10 +4430,10 @@
         <v>165</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>317</v>
       </c>
@@ -4416,10 +4447,10 @@
         <v>167</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>317</v>
       </c>
@@ -4433,10 +4464,10 @@
         <v>169</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>317</v>
       </c>
@@ -4450,10 +4481,10 @@
         <v>171</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>317</v>
       </c>
@@ -4467,10 +4498,10 @@
         <v>173</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>317</v>
       </c>
@@ -4484,10 +4515,10 @@
         <v>175</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>317</v>
       </c>
@@ -4501,10 +4532,10 @@
         <v>176</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>317</v>
       </c>
@@ -4518,10 +4549,10 @@
         <v>178</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>317</v>
       </c>
@@ -4535,10 +4566,10 @@
         <v>180</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>317</v>
       </c>
@@ -4552,10 +4583,10 @@
         <v>182</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
@@ -4569,10 +4600,10 @@
         <v>184</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>317</v>
       </c>
@@ -4586,10 +4617,10 @@
         <v>186</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>317</v>
       </c>
@@ -4603,10 +4634,10 @@
         <v>188</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>317</v>
       </c>
@@ -4620,10 +4651,10 @@
         <v>189</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>317</v>
       </c>
@@ -4637,10 +4668,10 @@
         <v>191</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>317</v>
       </c>
@@ -4657,10 +4688,10 @@
         <v>309</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>317</v>
       </c>
@@ -4677,10 +4708,10 @@
         <v>310</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>317</v>
       </c>
@@ -4694,10 +4725,10 @@
         <v>197</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>317</v>
       </c>
@@ -4711,10 +4742,10 @@
         <v>199</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>317</v>
       </c>
@@ -4728,10 +4759,10 @@
         <v>201</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>317</v>
       </c>
@@ -4745,10 +4776,10 @@
         <v>203</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>317</v>
       </c>
@@ -4762,10 +4793,10 @@
         <v>204</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>317</v>
       </c>
@@ -4779,10 +4810,10 @@
         <v>206</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>317</v>
       </c>
@@ -4796,10 +4827,10 @@
         <v>208</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>317</v>
       </c>
@@ -4813,10 +4844,10 @@
         <v>210</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>317</v>
       </c>
@@ -4830,10 +4861,10 @@
         <v>212</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>317</v>
       </c>
@@ -4847,10 +4878,10 @@
         <v>214</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>317</v>
       </c>
@@ -4864,10 +4895,10 @@
         <v>216</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>317</v>
       </c>
@@ -4881,10 +4912,10 @@
         <v>218</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>317</v>
       </c>
@@ -4898,10 +4929,10 @@
         <v>220</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>317</v>
       </c>
@@ -4918,10 +4949,10 @@
         <v>311</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>317</v>
       </c>
@@ -4935,10 +4966,10 @@
         <v>223</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>317</v>
       </c>
@@ -4955,10 +4986,10 @@
         <v>312</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4972,10 +5003,10 @@
         <v>227</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>317</v>
       </c>
@@ -4989,10 +5020,10 @@
         <v>229</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>317</v>
       </c>
@@ -5006,10 +5037,10 @@
         <v>231</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>317</v>
       </c>
@@ -5023,10 +5054,10 @@
         <v>233</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>317</v>
       </c>
@@ -5040,10 +5071,10 @@
         <v>235</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>317</v>
       </c>
@@ -5057,10 +5088,10 @@
         <v>237</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>317</v>
       </c>
@@ -5074,10 +5105,10 @@
         <v>239</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>317</v>
       </c>
@@ -5091,10 +5122,10 @@
         <v>241</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>317</v>
       </c>
@@ -5108,10 +5139,10 @@
         <v>243</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>317</v>
       </c>
@@ -5128,10 +5159,10 @@
         <v>313</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>317</v>
       </c>
@@ -5145,10 +5176,10 @@
         <v>247</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>317</v>
       </c>
@@ -5162,10 +5193,10 @@
         <v>249</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>317</v>
       </c>
@@ -5179,10 +5210,10 @@
         <v>251</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>317</v>
       </c>
@@ -5196,10 +5227,10 @@
         <v>253</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>317</v>
       </c>
@@ -5213,10 +5244,10 @@
         <v>255</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>317</v>
       </c>
@@ -5230,10 +5261,10 @@
         <v>257</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>317</v>
       </c>
@@ -5247,10 +5278,10 @@
         <v>259</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>317</v>
       </c>
@@ -5264,10 +5295,10 @@
         <v>261</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>317</v>
       </c>
@@ -5281,10 +5312,10 @@
         <v>263</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>317</v>
       </c>
@@ -5298,10 +5329,10 @@
         <v>265</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>317</v>
       </c>
@@ -5315,10 +5346,10 @@
         <v>267</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>317</v>
       </c>
@@ -5332,10 +5363,10 @@
         <v>269</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>317</v>
       </c>
@@ -5349,10 +5380,10 @@
         <v>271</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>317</v>
       </c>
@@ -5366,10 +5397,10 @@
         <v>273</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>317</v>
       </c>
@@ -5383,10 +5414,10 @@
         <v>275</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>317</v>
       </c>
@@ -5400,10 +5431,10 @@
         <v>277</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>441</v>
       </c>
@@ -5417,10 +5448,10 @@
         <v>279</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>441</v>
       </c>
@@ -5434,10 +5465,10 @@
         <v>280</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>441</v>
       </c>
@@ -5451,10 +5482,10 @@
         <v>282</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>441</v>
       </c>
@@ -5468,10 +5499,10 @@
         <v>284</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>441</v>
       </c>
@@ -5485,10 +5516,10 @@
         <v>285</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>441</v>
       </c>
@@ -5502,10 +5533,10 @@
         <v>287</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>441</v>
       </c>
@@ -5519,10 +5550,10 @@
         <v>289</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>441</v>
       </c>
@@ -5536,10 +5567,10 @@
         <v>291</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>441</v>
       </c>
@@ -5556,10 +5587,10 @@
         <v>314</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>441</v>
       </c>
@@ -5573,10 +5604,10 @@
         <v>294</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>441</v>
       </c>
@@ -5593,10 +5624,10 @@
         <v>315</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>441</v>
       </c>
@@ -5610,10 +5641,10 @@
         <v>298</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>441</v>
       </c>
@@ -5627,10 +5658,10 @@
         <v>300</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>441</v>
       </c>
@@ -5647,10 +5678,10 @@
         <v>316</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>441</v>
       </c>
@@ -5665,7 +5696,7 @@
       </c>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>441</v>
       </c>
@@ -5673,14 +5704,14 @@
         <v>474</v>
       </c>
       <c r="C167" t="s">
+        <v>502</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>441</v>
       </c>
@@ -5688,19 +5719,19 @@
         <v>474</v>
       </c>
       <c r="C168" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F168" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>441</v>
       </c>
@@ -5708,19 +5739,19 @@
         <v>474</v>
       </c>
       <c r="C169" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F169" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -5728,17 +5759,17 @@
         <v>474</v>
       </c>
       <c r="C170" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F170" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>459</v>
       </c>
@@ -5746,14 +5777,19 @@
         <v>460</v>
       </c>
       <c r="C171" t="s">
-        <v>471</v>
+        <v>745</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="F171" t="s">
+        <v>748</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>459</v>
       </c>
@@ -5761,17 +5797,14 @@
         <v>460</v>
       </c>
       <c r="C172" t="s">
-        <v>519</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="F172" t="s">
-        <v>522</v>
+        <v>471</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>459</v>
       </c>
@@ -5779,14 +5812,17 @@
         <v>460</v>
       </c>
       <c r="C173" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>470</v>
+        <v>754</v>
+      </c>
+      <c r="F173" t="s">
+        <v>519</v>
       </c>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>459</v>
       </c>
@@ -5794,90 +5830,83 @@
         <v>460</v>
       </c>
       <c r="C174" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B175" t="s">
-        <v>623</v>
+        <v>460</v>
       </c>
       <c r="C175" t="s">
-        <v>617</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F175" t="s">
-        <v>618</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B176" t="s">
-        <v>623</v>
+        <v>460</v>
       </c>
       <c r="C176" t="s">
-        <v>616</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="F176" t="s">
-        <v>619</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B177" t="s">
-        <v>624</v>
+        <v>460</v>
       </c>
       <c r="C177" t="s">
-        <v>566</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>568</v>
+        <v>622</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="F177" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B178" t="s">
-        <v>624</v>
+        <v>460</v>
       </c>
       <c r="C178" t="s">
-        <v>567</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>570</v>
+        <v>619</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="F178" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>459</v>
       </c>
@@ -5885,373 +5914,375 @@
         <v>460</v>
       </c>
       <c r="C179" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F179" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B180" t="s">
-        <v>460</v>
+        <v>614</v>
       </c>
       <c r="C180" t="s">
-        <v>635</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>638</v>
+        <v>609</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="F180" t="s">
-        <v>631</v>
-      </c>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B181" t="s">
-        <v>460</v>
+        <v>614</v>
       </c>
       <c r="C181" t="s">
-        <v>632</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>636</v>
+        <v>608</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="F181" t="s">
-        <v>632</v>
-      </c>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B182" t="s">
-        <v>460</v>
+        <v>615</v>
       </c>
       <c r="C182" t="s">
+        <v>560</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F182" t="s">
+        <v>565</v>
+      </c>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B183" t="s">
+        <v>615</v>
+      </c>
+      <c r="C183" t="s">
+        <v>561</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F183" t="s">
+        <v>563</v>
+      </c>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B184" t="s">
+        <v>673</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B185" t="s">
+        <v>681</v>
+      </c>
+      <c r="C185" t="s">
+        <v>628</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F185" t="s">
         <v>633</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="G185" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B186" t="s">
+        <v>681</v>
+      </c>
+      <c r="C186" t="s">
+        <v>630</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F186" t="s">
+        <v>634</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B187" t="s">
+        <v>674</v>
+      </c>
+      <c r="C187" t="s">
+        <v>636</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F182" t="s">
-        <v>633</v>
-      </c>
-      <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="F187" t="s">
+        <v>638</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B188" t="s">
+        <v>674</v>
+      </c>
+      <c r="C188" t="s">
+        <v>629</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F188" t="s">
+        <v>635</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B189" t="s">
+        <v>674</v>
+      </c>
+      <c r="C189" t="s">
+        <v>640</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F189" t="s">
+        <v>639</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B190" t="s">
+        <v>682</v>
+      </c>
+      <c r="C190" t="s">
+        <v>684</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F190" t="s">
+        <v>643</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B191" t="s">
+        <v>682</v>
+      </c>
+      <c r="C191" t="s">
+        <v>685</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F191" t="s">
+        <v>644</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B192" t="s">
+        <v>682</v>
+      </c>
+      <c r="C192" t="s">
         <v>686</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B184" t="s">
-        <v>694</v>
-      </c>
-      <c r="C184" t="s">
-        <v>641</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="F184" t="s">
-        <v>646</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B185" t="s">
-        <v>694</v>
-      </c>
-      <c r="C185" t="s">
-        <v>643</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F185" t="s">
-        <v>647</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="E192" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F192" t="s">
+        <v>662</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B193" t="s">
+        <v>682</v>
+      </c>
+      <c r="C193" t="s">
         <v>687</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E193" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F193" t="s">
+        <v>661</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B194" t="s">
+        <v>677</v>
+      </c>
+      <c r="C194" t="s">
+        <v>631</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F194" t="s">
+        <v>671</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B195" t="s">
+        <v>675</v>
+      </c>
+      <c r="C195" t="s">
+        <v>650</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F195" t="s">
+        <v>651</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B196" t="s">
+        <v>675</v>
+      </c>
+      <c r="C196" t="s">
         <v>649</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="F186" t="s">
-        <v>651</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B187" t="s">
-        <v>687</v>
-      </c>
-      <c r="C187" t="s">
-        <v>642</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="E196" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F196" t="s">
+        <v>652</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B197" t="s">
+        <v>675</v>
+      </c>
+      <c r="C197" t="s">
+        <v>667</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B188" t="s">
-        <v>687</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="F197" t="s">
         <v>653</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F188" t="s">
-        <v>652</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B189" t="s">
-        <v>695</v>
-      </c>
-      <c r="C189" t="s">
-        <v>697</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F189" t="s">
-        <v>656</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B190" t="s">
-        <v>695</v>
-      </c>
-      <c r="C190" t="s">
-        <v>698</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="G197" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G190" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B191" t="s">
-        <v>695</v>
-      </c>
-      <c r="C191" t="s">
-        <v>699</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="F191" t="s">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B198" t="s">
         <v>675</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B192" t="s">
-        <v>695</v>
-      </c>
-      <c r="C192" t="s">
-        <v>700</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F192" t="s">
-        <v>674</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B193" t="s">
-        <v>690</v>
-      </c>
-      <c r="C193" t="s">
-        <v>644</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="F193" t="s">
-        <v>684</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B194" t="s">
-        <v>688</v>
-      </c>
-      <c r="C194" t="s">
-        <v>663</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F194" t="s">
-        <v>664</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B195" t="s">
-        <v>688</v>
-      </c>
-      <c r="C195" t="s">
-        <v>662</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F195" t="s">
-        <v>665</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B196" t="s">
-        <v>688</v>
-      </c>
-      <c r="C196" t="s">
-        <v>680</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="F196" t="s">
-        <v>666</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B197" t="s">
-        <v>688</v>
-      </c>
-      <c r="C197" t="s">
-        <v>681</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F197" t="s">
-        <v>683</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B198" t="s">
-        <v>689</v>
       </c>
       <c r="C198" t="s">
         <v>668</v>
@@ -6260,345 +6291,351 @@
         <v>669</v>
       </c>
       <c r="F198" t="s">
+        <v>670</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B199" t="s">
+        <v>676</v>
+      </c>
+      <c r="C199" t="s">
+        <v>655</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F199" t="s">
+        <v>659</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B200" t="s">
+        <v>676</v>
+      </c>
+      <c r="C200" t="s">
+        <v>658</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F200" t="s">
+        <v>660</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B201" t="s">
+        <v>676</v>
+      </c>
+      <c r="C201" t="s">
+        <v>654</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="G198" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B199" t="s">
-        <v>689</v>
-      </c>
-      <c r="C199" t="s">
-        <v>671</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="G201" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B202" t="s">
+        <v>676</v>
+      </c>
+      <c r="C202" t="s">
+        <v>679</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B203" t="s">
         <v>673</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B200" t="s">
-        <v>689</v>
-      </c>
-      <c r="C200" t="s">
-        <v>667</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B201" t="s">
-        <v>689</v>
-      </c>
-      <c r="C201" t="s">
-        <v>692</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="C203" t="s">
+        <v>718</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F203" t="s">
+        <v>719</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B204" t="s">
+        <v>722</v>
+      </c>
+      <c r="C204" t="s">
+        <v>723</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F204" t="s">
+        <v>726</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B205" t="s">
+        <v>722</v>
+      </c>
+      <c r="C205" t="s">
+        <v>724</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F205" t="s">
+        <v>725</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="1"/>
+      <c r="E206" s="3"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B207" t="s">
+        <v>729</v>
+      </c>
+      <c r="C207" t="s">
+        <v>727</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F207" t="s">
+        <v>728</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B208" t="s">
+        <v>729</v>
+      </c>
+      <c r="C208" t="s">
         <v>730</v>
       </c>
-      <c r="B202" t="s">
-        <v>686</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="E208" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F208" t="s">
         <v>731</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="G208" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B209" t="s">
+        <v>729</v>
+      </c>
+      <c r="C209" t="s">
+        <v>732</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F209" t="s">
+        <v>733</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B210" t="s">
+        <v>729</v>
+      </c>
+      <c r="C210" t="s">
         <v>734</v>
       </c>
-      <c r="F202" t="s">
-        <v>732</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="E210" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F210" t="s">
+        <v>736</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B211" t="s">
+        <v>729</v>
+      </c>
+      <c r="C211" t="s">
         <v>735</v>
       </c>
-      <c r="C203" t="s">
-        <v>736</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="F203" t="s">
-        <v>739</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B204" t="s">
-        <v>735</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="E211" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F211" t="s">
         <v>737</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F204" t="s">
-        <v>738</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="E205" s="3"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B206" t="s">
-        <v>742</v>
-      </c>
-      <c r="C206" t="s">
-        <v>740</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="F206" t="s">
-        <v>741</v>
-      </c>
-      <c r="G206" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B207" t="s">
-        <v>742</v>
-      </c>
-      <c r="C207" t="s">
-        <v>743</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="F207" t="s">
-        <v>744</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B208" t="s">
-        <v>742</v>
-      </c>
-      <c r="C208" t="s">
-        <v>745</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F208" t="s">
-        <v>746</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B209" t="s">
-        <v>742</v>
-      </c>
-      <c r="C209" t="s">
-        <v>747</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="F209" t="s">
-        <v>749</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B210" t="s">
-        <v>742</v>
-      </c>
-      <c r="C210" t="s">
-        <v>748</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="F210" t="s">
-        <v>750</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="G211" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B212" t="s">
+        <v>460</v>
+      </c>
+      <c r="C212" t="s">
+        <v>760</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F212" t="s">
+        <v>762</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" t="s">
         <v>355</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B213" t="s">
         <v>359</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C213" t="s">
         <v>360</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E213" t="s">
         <v>319</v>
       </c>
-      <c r="F211" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="F213" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" t="s">
         <v>355</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B214" t="s">
         <v>359</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C214" t="s">
         <v>361</v>
       </c>
-      <c r="E212" t="s">
-        <v>533</v>
-      </c>
-      <c r="F212" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>356</v>
-      </c>
-      <c r="B213" t="s">
-        <v>58</v>
-      </c>
-      <c r="C213" t="s">
-        <v>455</v>
-      </c>
-      <c r="E213" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>356</v>
-      </c>
-      <c r="B214" t="s">
-        <v>58</v>
-      </c>
-      <c r="C214" t="s">
-        <v>456</v>
-      </c>
       <c r="E214" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="F214" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="C215" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="E215" t="s">
-        <v>532</v>
-      </c>
-      <c r="F215" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>356</v>
       </c>
       <c r="B216" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C216" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="E216" t="s">
-        <v>323</v>
-      </c>
-      <c r="F216" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>356</v>
       </c>
       <c r="B217" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C217" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E217" t="s">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="F217" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>356</v>
       </c>
@@ -6606,16 +6643,16 @@
         <v>358</v>
       </c>
       <c r="C218" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E218" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F218" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>356</v>
       </c>
@@ -6623,16 +6660,16 @@
         <v>358</v>
       </c>
       <c r="C219" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E219" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F219" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>356</v>
       </c>
@@ -6640,16 +6677,16 @@
         <v>358</v>
       </c>
       <c r="C220" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E220" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F220" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>356</v>
       </c>
@@ -6657,16 +6694,16 @@
         <v>358</v>
       </c>
       <c r="C221" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E221" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F221" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>356</v>
       </c>
@@ -6674,16 +6711,16 @@
         <v>358</v>
       </c>
       <c r="C222" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E222" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F222" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>356</v>
       </c>
@@ -6691,13 +6728,16 @@
         <v>358</v>
       </c>
       <c r="C223" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E223" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F223" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>356</v>
       </c>
@@ -6705,47 +6745,44 @@
         <v>358</v>
       </c>
       <c r="C224" t="s">
+        <v>334</v>
+      </c>
+      <c r="E224" t="s">
+        <v>335</v>
+      </c>
+      <c r="F224" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" t="s">
+        <v>356</v>
+      </c>
+      <c r="B225" t="s">
+        <v>358</v>
+      </c>
+      <c r="C225" t="s">
+        <v>336</v>
+      </c>
+      <c r="E225" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" t="s">
+        <v>356</v>
+      </c>
+      <c r="B226" t="s">
+        <v>358</v>
+      </c>
+      <c r="C226" t="s">
         <v>338</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E226" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>478</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>2</v>
-      </c>
-      <c r="E225" t="s">
-        <v>340</v>
-      </c>
-      <c r="F225" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>478</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>362</v>
-      </c>
-      <c r="E226" t="s">
-        <v>341</v>
-      </c>
-      <c r="F226" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>478</v>
       </c>
@@ -6753,16 +6790,16 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F227" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>478</v>
       </c>
@@ -6770,16 +6807,16 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="E228" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>478</v>
       </c>
@@ -6787,16 +6824,16 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="E229" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>478</v>
       </c>
@@ -6804,50 +6841,50 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" t="s">
+        <v>343</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" t="s">
+        <v>478</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>363</v>
+      </c>
+      <c r="E231" t="s">
+        <v>344</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" t="s">
+        <v>478</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
         <v>364</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E232" t="s">
         <v>345</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F232" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>357</v>
-      </c>
-      <c r="B231" t="s">
-        <v>303</v>
-      </c>
-      <c r="C231" t="s">
-        <v>112</v>
-      </c>
-      <c r="E231" t="s">
-        <v>387</v>
-      </c>
-      <c r="F231" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>357</v>
-      </c>
-      <c r="B232" t="s">
-        <v>303</v>
-      </c>
-      <c r="C232" t="s">
-        <v>54</v>
-      </c>
-      <c r="E232" t="s">
-        <v>389</v>
-      </c>
-      <c r="F232" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>357</v>
       </c>
@@ -6855,16 +6892,16 @@
         <v>303</v>
       </c>
       <c r="C233" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="E233" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F233" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>357</v>
       </c>
@@ -6872,16 +6909,16 @@
         <v>303</v>
       </c>
       <c r="C234" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="E234" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F234" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>357</v>
       </c>
@@ -6889,16 +6926,16 @@
         <v>303</v>
       </c>
       <c r="C235" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E235" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F235" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>357</v>
       </c>
@@ -6906,16 +6943,16 @@
         <v>303</v>
       </c>
       <c r="C236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E236" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F236" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>357</v>
       </c>
@@ -6923,16 +6960,16 @@
         <v>303</v>
       </c>
       <c r="C237" t="s">
-        <v>427</v>
+        <v>58</v>
       </c>
       <c r="E237" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F237" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>357</v>
       </c>
@@ -6940,16 +6977,16 @@
         <v>303</v>
       </c>
       <c r="C238" t="s">
-        <v>174</v>
+        <v>428</v>
       </c>
       <c r="E238" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F238" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>357</v>
       </c>
@@ -6957,16 +6994,16 @@
         <v>303</v>
       </c>
       <c r="C239" t="s">
-        <v>84</v>
+        <v>427</v>
       </c>
       <c r="E239" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F239" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>357</v>
       </c>
@@ -6974,50 +7011,50 @@
         <v>303</v>
       </c>
       <c r="C240" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="E240" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F240" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>357</v>
       </c>
       <c r="B241" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C241" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E241" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="F241" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C242" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E242" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="F242" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>357</v>
       </c>
@@ -7025,16 +7062,16 @@
         <v>304</v>
       </c>
       <c r="C243" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E243" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F243" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>357</v>
       </c>
@@ -7042,16 +7079,16 @@
         <v>304</v>
       </c>
       <c r="C244" t="s">
-        <v>427</v>
+        <v>54</v>
       </c>
       <c r="E244" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F244" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>357</v>
       </c>
@@ -7059,16 +7096,16 @@
         <v>304</v>
       </c>
       <c r="C245" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E245" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F245" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -7076,16 +7113,16 @@
         <v>304</v>
       </c>
       <c r="C246" t="s">
-        <v>141</v>
+        <v>427</v>
       </c>
       <c r="E246" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F246" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>357</v>
       </c>
@@ -7093,16 +7130,16 @@
         <v>304</v>
       </c>
       <c r="C247" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E247" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F247" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>357</v>
       </c>
@@ -7110,16 +7147,16 @@
         <v>304</v>
       </c>
       <c r="C248" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E248" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F248" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>357</v>
       </c>
@@ -7127,16 +7164,16 @@
         <v>304</v>
       </c>
       <c r="C249" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="E249" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F249" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>357</v>
       </c>
@@ -7144,16 +7181,16 @@
         <v>304</v>
       </c>
       <c r="C250" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E250" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F250" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>357</v>
       </c>
@@ -7161,50 +7198,50 @@
         <v>304</v>
       </c>
       <c r="C251" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E251" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F251" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>357</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C252" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E252" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="F252" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>357</v>
       </c>
       <c r="B253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C253" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E253" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="F253" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>357</v>
       </c>
@@ -7212,16 +7249,16 @@
         <v>305</v>
       </c>
       <c r="C254" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E254" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F254" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>357</v>
       </c>
@@ -7229,16 +7266,16 @@
         <v>305</v>
       </c>
       <c r="C255" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="E255" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F255" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>357</v>
       </c>
@@ -7246,16 +7283,16 @@
         <v>305</v>
       </c>
       <c r="C256" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E256" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F256" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>357</v>
       </c>
@@ -7263,16 +7300,16 @@
         <v>305</v>
       </c>
       <c r="C257" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E257" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F257" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>357</v>
       </c>
@@ -7280,16 +7317,16 @@
         <v>305</v>
       </c>
       <c r="C258" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E258" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F258" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>357</v>
       </c>
@@ -7297,16 +7334,16 @@
         <v>305</v>
       </c>
       <c r="C259" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E259" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F259" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>357</v>
       </c>
@@ -7314,50 +7351,50 @@
         <v>305</v>
       </c>
       <c r="C260" t="s">
+        <v>234</v>
+      </c>
+      <c r="E260" t="s">
+        <v>352</v>
+      </c>
+      <c r="F260" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" t="s">
+        <v>357</v>
+      </c>
+      <c r="B261" t="s">
+        <v>305</v>
+      </c>
+      <c r="C261" t="s">
+        <v>230</v>
+      </c>
+      <c r="E261" t="s">
+        <v>353</v>
+      </c>
+      <c r="F261" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" t="s">
+        <v>357</v>
+      </c>
+      <c r="B262" t="s">
+        <v>305</v>
+      </c>
+      <c r="C262" t="s">
         <v>262</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E262" t="s">
         <v>354</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F262" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>423</v>
-      </c>
-      <c r="B261" t="s">
-        <v>425</v>
-      </c>
-      <c r="C261" t="s">
-        <v>278</v>
-      </c>
-      <c r="E261" t="s">
-        <v>409</v>
-      </c>
-      <c r="F261" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>423</v>
-      </c>
-      <c r="B262" t="s">
-        <v>425</v>
-      </c>
-      <c r="C262" t="s">
-        <v>205</v>
-      </c>
-      <c r="E262" t="s">
-        <v>411</v>
-      </c>
-      <c r="F262" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>423</v>
       </c>
@@ -7365,16 +7402,16 @@
         <v>425</v>
       </c>
       <c r="C263" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E263" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F263" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>423</v>
       </c>
@@ -7382,16 +7419,16 @@
         <v>425</v>
       </c>
       <c r="C264" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="E264" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F264" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>423</v>
       </c>
@@ -7399,16 +7436,16 @@
         <v>425</v>
       </c>
       <c r="C265" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E265" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F265" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>423</v>
       </c>
@@ -7416,84 +7453,84 @@
         <v>425</v>
       </c>
       <c r="C266" t="s">
-        <v>430</v>
+        <v>283</v>
       </c>
       <c r="E266" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F266" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>423</v>
       </c>
       <c r="B267" t="s">
+        <v>425</v>
+      </c>
+      <c r="C267" t="s">
+        <v>290</v>
+      </c>
+      <c r="E267" t="s">
+        <v>417</v>
+      </c>
+      <c r="F267" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" t="s">
+        <v>423</v>
+      </c>
+      <c r="B268" t="s">
+        <v>425</v>
+      </c>
+      <c r="C268" t="s">
+        <v>430</v>
+      </c>
+      <c r="E268" t="s">
+        <v>419</v>
+      </c>
+      <c r="F268" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" t="s">
+        <v>423</v>
+      </c>
+      <c r="B269" t="s">
         <v>306</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C269" t="s">
         <v>306</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E269" t="s">
         <v>421</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F269" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>424</v>
-      </c>
-      <c r="B268" t="s">
-        <v>429</v>
-      </c>
-      <c r="C268" t="s">
-        <v>429</v>
-      </c>
-      <c r="E268" t="s">
-        <v>407</v>
-      </c>
-      <c r="F268" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>424</v>
-      </c>
-      <c r="B269" t="s">
-        <v>442</v>
-      </c>
-      <c r="C269" t="s">
-        <v>443</v>
-      </c>
-      <c r="E269" t="s">
-        <v>444</v>
-      </c>
-      <c r="F269" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>424</v>
       </c>
       <c r="B270" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C270" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E270" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="F270" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>424</v>
       </c>
@@ -7501,16 +7538,16 @@
         <v>442</v>
       </c>
       <c r="C271" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E271" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F271" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>424</v>
       </c>
@@ -7518,118 +7555,112 @@
         <v>442</v>
       </c>
       <c r="C272" t="s">
+        <v>448</v>
+      </c>
+      <c r="E272" t="s">
+        <v>446</v>
+      </c>
+      <c r="F272" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" t="s">
+        <v>424</v>
+      </c>
+      <c r="B273" t="s">
+        <v>442</v>
+      </c>
+      <c r="C273" t="s">
+        <v>449</v>
+      </c>
+      <c r="E273" t="s">
+        <v>450</v>
+      </c>
+      <c r="F273" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" t="s">
+        <v>424</v>
+      </c>
+      <c r="B274" t="s">
+        <v>442</v>
+      </c>
+      <c r="C274" t="s">
         <v>452</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E274" t="s">
         <v>453</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F274" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" t="s">
         <v>464</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B275" t="s">
         <v>462</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C275" t="s">
         <v>463</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E275" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B276" t="s">
         <v>462</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C276" t="s">
         <v>468</v>
       </c>
-      <c r="E274" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="E276" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B277" t="s">
         <v>481</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C277" t="s">
         <v>482</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E277" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F277" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>484</v>
+      </c>
+      <c r="B278" t="s">
+        <v>481</v>
+      </c>
+      <c r="C278" t="s">
+        <v>483</v>
+      </c>
+      <c r="E278" t="s">
         <v>495</v>
       </c>
-      <c r="F275" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>484</v>
-      </c>
-      <c r="B276" t="s">
-        <v>481</v>
-      </c>
-      <c r="C276" t="s">
-        <v>483</v>
-      </c>
-      <c r="E276" t="s">
-        <v>496</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="F278" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B277" t="s">
-        <v>462</v>
-      </c>
-      <c r="C277" t="s">
-        <v>605</v>
-      </c>
-      <c r="E277" t="s">
-        <v>467</v>
-      </c>
-      <c r="F277" t="s">
-        <v>590</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B278" t="s">
-        <v>462</v>
-      </c>
-      <c r="C278" t="s">
-        <v>606</v>
-      </c>
-      <c r="E278" t="s">
-        <v>592</v>
-      </c>
-      <c r="F278" t="s">
-        <v>591</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
         <v>466</v>
       </c>
@@ -7637,19 +7668,19 @@
         <v>462</v>
       </c>
       <c r="C279" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E279" t="s">
-        <v>593</v>
+        <v>467</v>
       </c>
       <c r="F279" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
         <v>466</v>
       </c>
@@ -7657,19 +7688,19 @@
         <v>462</v>
       </c>
       <c r="C280" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E280" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F280" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
         <v>466</v>
       </c>
@@ -7677,19 +7708,19 @@
         <v>462</v>
       </c>
       <c r="C281" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="F281" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
         <v>466</v>
       </c>
@@ -7697,19 +7728,19 @@
         <v>462</v>
       </c>
       <c r="C282" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E282" t="s">
+        <v>589</v>
+      </c>
+      <c r="F282" t="s">
+        <v>590</v>
+      </c>
+      <c r="G282" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="F282" t="s">
-        <v>599</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1" t="s">
         <v>466</v>
       </c>
@@ -7717,19 +7748,19 @@
         <v>462</v>
       </c>
       <c r="C283" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E283" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
         <v>466</v>
       </c>
@@ -7737,77 +7768,79 @@
         <v>462</v>
       </c>
       <c r="C284" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E284" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F284" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>625</v>
+        <v>462</v>
       </c>
       <c r="C285" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E285" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="F285" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B286" t="s">
-        <v>625</v>
+        <v>462</v>
       </c>
       <c r="C286" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="E286" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="F286" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B287" t="s">
-        <v>480</v>
+        <v>616</v>
       </c>
       <c r="C287" t="s">
-        <v>488</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>497</v>
+        <v>607</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="F287" t="s">
-        <v>490</v>
-      </c>
-      <c r="G287" s="4"/>
-    </row>
-    <row r="288" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
         <v>479</v>
       </c>
@@ -7815,17 +7848,17 @@
         <v>480</v>
       </c>
       <c r="C288" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F288" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>479</v>
       </c>
@@ -7833,32 +7866,32 @@
         <v>480</v>
       </c>
       <c r="C289" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>492</v>
+        <v>497</v>
+      </c>
+      <c r="F289" t="s">
+        <v>487</v>
       </c>
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B290" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C290" t="s">
-        <v>482</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F290" t="s">
-        <v>485</v>
+        <v>491</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>752</v>
       </c>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1" t="s">
         <v>479</v>
       </c>
@@ -7866,107 +7899,107 @@
         <v>481</v>
       </c>
       <c r="C291" t="s">
-        <v>483</v>
-      </c>
-      <c r="E291" t="s">
-        <v>494</v>
+        <v>482</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F291" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B292" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C292" t="s">
-        <v>500</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>501</v>
+        <v>483</v>
+      </c>
+      <c r="E292" t="s">
+        <v>493</v>
       </c>
       <c r="F292" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="C293" t="s">
-        <v>562</v>
+        <v>499</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="F293" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B294" t="s">
+        <v>559</v>
+      </c>
+      <c r="C294" t="s">
+        <v>556</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C294" t="s">
-        <v>559</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="F294" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B295" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="C295" t="s">
-        <v>508</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="F295" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B296" t="s">
+        <v>505</v>
+      </c>
+      <c r="C296" t="s">
+        <v>507</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F296" t="s">
         <v>506</v>
       </c>
-      <c r="C296" t="s">
-        <v>509</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1" t="s">
         <v>479</v>
       </c>
@@ -7974,35 +8007,35 @@
         <v>505</v>
       </c>
       <c r="C297" t="s">
+        <v>508</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F297" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E297" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="F297" t="s">
-        <v>557</v>
-      </c>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B298" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C298" t="s">
-        <v>513</v>
-      </c>
-      <c r="E298" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E298" s="3" t="s">
         <v>550</v>
       </c>
       <c r="F298" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1" t="s">
         <v>479</v>
       </c>
@@ -8010,94 +8043,115 @@
         <v>505</v>
       </c>
       <c r="C299" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="F299" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B300" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C300" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F300" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B301" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C301" t="s">
+        <v>520</v>
+      </c>
+      <c r="E301" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="F301" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B302" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C302" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="F302" t="s">
-        <v>528</v>
+        <v>753</v>
       </c>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B303" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C303" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="F303" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G303" s="4"/>
     </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B304" t="s">
+        <v>505</v>
+      </c>
+      <c r="C304" t="s">
+        <v>525</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F304" t="s">
+        <v>526</v>
+      </c>
+      <c r="G304" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G171" r:id="rId1" xr:uid="{84390A21-0E01-461B-ACC3-8E5293FEC94F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/sxc-develop/source-editor/snippets.xlsx
+++ b/src/sxc-develop/source-editor/snippets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2sxc-ui\src\sxc-develop\source-editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A124E-25F5-4E42-96C4-200F53765DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E95B64-9528-4F87-BF1D-5B7FFA3C0D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="snippets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="862">
   <si>
     <t>set</t>
   </si>
@@ -946,9 +946,6 @@
   </si>
   <si>
     <t>Profile</t>
-  </si>
-  <si>
-    <t>Header toolbar</t>
   </si>
   <si>
     <t>Outputs the toolbar to edit list information - place in a &lt;div&gt; to float like other toolbars</t>
@@ -1682,14 +1679,6 @@
     <t>@Edit.ContextAttributes(${101:var}, field: "${102:prop}")</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="sc-content-block-list" @Edit.ContextAttributes(${101:var}, field: "${102:prop}")&gt;
-    @foreach(var contentBlock in AsDynamic(${101:var}.${102:prop})){
-        @contentBlock.Render()
-    }
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;link rel="stylesheet" href="[App:Path]/dist/AppCatalog.css" data-enableoptimizations="100"/&gt;</t>
   </si>
   <si>
@@ -1697,15 +1686,6 @@
   </si>
   <si>
     <t>simple loop to show all items in the default list</t>
-  </si>
-  <si>
-    <t>for-each on the default list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@foreach(var ${103:item} in AsDynamic(${101:var}.${102:prop})){
-    @${103:item}.EntityId
-}
-</t>
   </si>
   <si>
     <t>loop over a list of sub-items</t>
@@ -1804,14 +1784,6 @@
     <t>@(${1:var}.${2:prop}.Count &gt; 0 ? ${1:var}.${2:prop}[0].EntityTitle : "")</t>
   </si>
   <si>
-    <t>@foreach(var ${1:cont} in AsDynamic(Data["${2:Default}"])){
-    &lt;div class="sc-element"&gt;
-        @${1}.EntityTitle
-        @Edit.Toolbar(${1})
-    &lt;/div&gt;
-}</t>
-  </si>
-  <si>
     <t>Toolbar floating left</t>
   </si>
   <si>
@@ -1888,9 +1860,6 @@
   </si>
   <si>
     <t>css, style-sheet loaded at bottom of page</t>
-  </si>
-  <si>
-    <t>standard 2sxc JS</t>
   </si>
   <si>
     <t>Render Very-Rich-Text</t>
@@ -2046,9 +2015,6 @@
     <t>@Koi.If("${1:bs3,bs4}", "${2:&lt;strong&gt;supported&lt;/strong&gt;}")</t>
   </si>
   <si>
-    <t>http://connect-koi.net/components</t>
-  </si>
-  <si>
     <t>Show something short if a supported, otherwise show something else</t>
   </si>
   <si>
@@ -2307,47 +2273,6 @@
     <t>Find all items that reference these items, but only if they are a certain type, and point on a specified field</t>
   </si>
   <si>
-    <t>@{
-  var ${2:books} = AsDynamic(App.Data["${1:Books}"])
-    .Where(p =&gt; p.${10:Title} == "${20:Terry}");
-}</t>
-  </si>
-  <si>
-    <t>@{
-  var ${2:hasBooks} = AsDynamic(App.Data["${1:Books}"]).Any();
-}</t>
-  </si>
-  <si>
-    <t>@{
-  var ${2:books} = AsDynamic(App.Data["${1:Books}"])
-    .Where(p =&gt; (p.${10:Authors} as Dynlist).Any());
-}</t>
-  </si>
-  <si>
-    <t>@{
-  var ${2:books} = AsDynamic(App.Data["${1:Books}"])
-    .Where(p =&gt; !(p.${10:Authors} as Dynlist).Any());
-}</t>
-  </si>
-  <si>
-    <t>@{
-  var ${2:books} = AsDynamic(App.Data["${1:Authors}"])
-    .SelectMany(a =&gt; a.Parents());
-}</t>
-  </si>
-  <si>
-    <t>@{
-  var ${2:books} = AsDynamic(App.Data["${1:Authors}"])
-    .SelectMany(a =&gt; a.Parents("${10:Books}"));
-}</t>
-  </si>
-  <si>
-    <t>@{
-  var ${2:books} = AsDynamic(App.Data["${1:Authors}"])
-    .SelectMany(a =&gt; a.Parents("${10:Books}", "${11:Illustrators}"));
-}</t>
-  </si>
-  <si>
     <t>inherits RazorComponent</t>
   </si>
   <si>
@@ -2358,9 +2283,6 @@
   </si>
   <si>
     <t>Inherits statement recommended on all Razor files</t>
-  </si>
-  <si>
-    <t>https://r.2sxc.org/RazorComponent</t>
   </si>
   <si>
     <t>@ToSic.Sxc.Blocks.Render.All(${1:Content}, field: "${2:ContentBlocks}")</t>
@@ -2384,49 +2306,421 @@
     <t>@Edit.Toolbar(Header)</t>
   </si>
   <si>
-    <t>&lt;div class="sc-element"&gt;
-    @Edit.Toolbar(Header)
+    <t>@Edit.Enable(js: true)</t>
+  </si>
+  <si>
+    <t>@RazorBlade</t>
+  </si>
+  <si>
+    <t>Using RazorBlade</t>
+  </si>
+  <si>
+    <t>Use Razor Blade</t>
+  </si>
+  <si>
+    <t>@using ToSic.Razor.Blade;</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Text.Has if-statement</t>
+  </si>
+  <si>
+    <t>@(Text.Has(${1:Content.Title}) ? "${2:value-if-true}" : "${3:value-if-false}")</t>
+  </si>
+  <si>
+    <t>Text.Has conditional</t>
+  </si>
+  <si>
+    <t>Text.Crop</t>
+  </si>
+  <si>
+    <t>Text.First</t>
+  </si>
+  <si>
+    <t>Find the first non-empty string</t>
+  </si>
+  <si>
+    <t>@Text.Crop(${1:Content.Title}, ${2:25})</t>
+  </si>
+  <si>
+    <t>Text.Ellipsis</t>
+  </si>
+  <si>
+    <t>@Text.Ellipsis(${1:Content.Title}, ${2:25})</t>
+  </si>
+  <si>
+    <t>Crop a text, counting html-characters as one</t>
+  </si>
+  <si>
+    <t>Crop a text, counting html-characters as one and add ellipsis</t>
+  </si>
+  <si>
+    <t>Check if a string is not empty and return one or another</t>
+  </si>
+  <si>
+    <t>@if(Text.Has(${1:Content.Title})) {
+}</t>
+  </si>
+  <si>
+    <t>@Text.First(${1:Content.Title}, "${2:otherwise-use-this}")</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>HtmlPage</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Page Description - Show</t>
+  </si>
+  <si>
+    <t>Page Description - Set</t>
+  </si>
+  <si>
+    <t>@HtmlPage.Description</t>
+  </si>
+  <si>
+    <t>HtmlPage.Description = "${1:new description}";</t>
+  </si>
+  <si>
+    <t>Page Keywords - Show</t>
+  </si>
+  <si>
+    <t>Page Keywords - Set</t>
+  </si>
+  <si>
+    <t>@HtmlPage.Keywords</t>
+  </si>
+  <si>
+    <t>HtmlPage.Keywords = "${1:new keywords}";</t>
+  </si>
+  <si>
+    <t>Page Title - Show</t>
+  </si>
+  <si>
+    <t>Page Title - Set</t>
+  </si>
+  <si>
+    <t>@HtmlPage.Title</t>
+  </si>
+  <si>
+    <t>HtmlPage.Title = "${1:new title}";</t>
+  </si>
+  <si>
+    <t>Page Title - Extend</t>
+  </si>
+  <si>
+    <t>HtmlPage.Title += " - ${1:addition}";</t>
+  </si>
+  <si>
+    <t>Base Tag - Create</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddBase("${1:/path-to-use/as-base}");</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddIcon("${1:path-to-icon.png}");</t>
+  </si>
+  <si>
+    <t>Icon - Add One</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddIcon("${1:path-to-icon.png}", rel: "shortcut icon", type: "image/png");</t>
+  </si>
+  <si>
+    <t>Will auto-detect all things like rel and type</t>
+  </si>
+  <si>
+    <t>Icon - Add One with Specs</t>
+  </si>
+  <si>
+    <t>Icon - Add Set</t>
+  </si>
+  <si>
+    <t>Add a set of icon-header tags with best-practices</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddIconSet("${1:path-to-icon.png}");</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddJsonLd(${1:object-or-string-to-add});</t>
+  </si>
+  <si>
+    <t>OpenGraph - Add</t>
+  </si>
+  <si>
+    <t>JsonLD Header - Add</t>
+  </si>
+  <si>
+    <t>Header - Add</t>
+  </si>
+  <si>
+    <t>Meta Header - Add</t>
+  </si>
+  <si>
+    <t>Check if a string-object is not empty - also regards &amp;nbsp; to be empty</t>
+  </si>
+  <si>
+    <t>@if(Text.Has(${1:Content.Title}, false)) {
+}</t>
+  </si>
+  <si>
+    <t>Check if a string-object is not empty - regards &amp;nbsp; to be real content</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsList(App.Data["${1:Books}"])
+    .Where(p =&gt; p.${10:Title} == "${20:Terry}");
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsList(App.Data["${1:Authors}"])
+    .SelectMany(a =&gt; a.Parents("${10:Books}"));
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsList(App.Data["${1:Authors}"])
+    .SelectMany(a =&gt; a.Parents("${10:Books}", "${11:Illustrators}"));
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="sc-content-block-list" @Edit.ContextAttributes(${101:var}, field: "${102:prop}")&gt;
+    @foreach(var contentBlock in AsList(${101:var}.${102:prop} as object)){
+        @contentBlock.Render()
+    }
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@foreach(var ${103:item} in AsList(${101:var}.${102:prop} as object)){
+    @${103:item}.EntityId
+}
+</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:hasBooks} = AsList(App.Data["${1:Books}"]).Any();
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsList(App.Data["${1:Books}"])
+    .Where(p =&gt; !(p.${10:Authors}).Any());
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsList(App.Data["${1:Books}"])
+    .Where(p =&gt; (p.${10:Authors}).Any());
+}</t>
+  </si>
+  <si>
+    <t>@{
+  var ${2:books} = AsList(App.Data["${1:Authors}"])
+    .SelectMany(a =&gt; a.Parents());
+}</t>
+  </si>
+  <si>
+    <t>&lt;div @Edit.TagToolbar(Header)&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>@Edit.Enable(js: true)</t>
-  </si>
-  <si>
-    <t>read https://docs.2sxc.org/api/dot-net/ToSic.Sxc.Web.IInPageEditingSystem.html#methods</t>
-  </si>
-  <si>
-    <t>@RazorBlade</t>
-  </si>
-  <si>
-    <t>Using RazorBlade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@using ToSic.Razor.Blade;
-</t>
-  </si>
-  <si>
-    <t>Use Razor Blade</t>
-  </si>
-  <si>
-    <t>Read https://razor-blade.net/ and the tutorials https://r.2sxc.org/TutRazorBlade</t>
+    <t>Header Toolbar</t>
+  </si>
+  <si>
+    <t>Header Tooblar float (recommended)List-ToolbarFloat</t>
+  </si>
+  <si>
+    <t>@foreach(var ${1:cont} in AsList(Data)) {
+    &lt;div @Edit.TagToolbar(${1})&gt;
+        @${1}.EntityTitle
+    &lt;/div&gt;
+}</t>
+  </si>
+  <si>
+    <t>Tell system to include the JS which is needed for WebApi Calls</t>
+  </si>
+  <si>
+    <t>Tell system to include the JS used in toolbars and other edit APIs</t>
+  </si>
+  <si>
+    <t>Tell system to include the JS used to load the edit-form</t>
+  </si>
+  <si>
+    <t>Add 2sxc JS for Edit Forms of items on this module</t>
+  </si>
+  <si>
+    <t>@Edit.Enable(js: true, api: true, styles: true)</t>
+  </si>
+  <si>
+    <t>@Edit.Enable(js: true, forms: true)</t>
+  </si>
+  <si>
+    <t>Add 2sxc JS to use Edit Forms</t>
+  </si>
+  <si>
+    <t>@Edit.Enable(js: true, forms: true, context: true, style: true)</t>
+  </si>
+  <si>
+    <t>Add 2sxc JS and CSS for Editing calls on $2sxc</t>
+  </si>
+  <si>
+    <t>Add 2sxc JS for WebApi calls in JS with $2sxc</t>
+  </si>
+  <si>
+    <t>Add 2sxc JS for Edit Forms with toolbars</t>
+  </si>
+  <si>
+    <t>@Edit.Enable(js: true, forms: true, context: true, style: true, autoToolbar: true)</t>
+  </si>
+  <si>
+    <t>Tell system to include the JS used to load the edit-form and automatically add toolbars if permissions allow</t>
+  </si>
+  <si>
+    <t>read api-docs:https://docs.2sxc.org/api/dot-net/ToSic.Sxc.Web.IInPageEditingSystem.html#methods</t>
+  </si>
+  <si>
+    <t>KOI API:http://connect-koi.net/components</t>
+  </si>
+  <si>
+    <t>API docs:https://razor-blade.net/api/ToSic.Razor.Blade.Text.html#ToSic_Razor_Blade_Text_Has_System_Object_System_Boolean_</t>
+  </si>
+  <si>
+    <t>API docs:https://razor-blade.net/ and the tutorials https://r.2sxc.org/TutRazorBlade</t>
+  </si>
+  <si>
+    <t>API docs:https://razor-blade.net/api/ToSic.Razor.Blade.Text.html#ToSic_Razor_Blade_Text_Crop_System_String_System_Int32_</t>
+  </si>
+  <si>
+    <t>API docs:https://razor-blade.net/api/ToSic.Razor.Blade.Text.html#ToSic_Razor_Blade_Text_Ellipsis_System_String_System_Int32_System_String_</t>
+  </si>
+  <si>
+    <t>API docs:https://razor-blade.net/api/ToSic.Razor.Blade.Text.html#ToSic_Razor_Blade_Text_First_System_String___</t>
+  </si>
+  <si>
+    <t>Show Keywords</t>
+  </si>
+  <si>
+    <t>Show Description</t>
+  </si>
+  <si>
+    <t>Show Title</t>
+  </si>
+  <si>
+    <t>Change Description</t>
+  </si>
+  <si>
+    <t>Change Keywords</t>
+  </si>
+  <si>
+    <t>Change Title</t>
+  </si>
+  <si>
+    <t>Append Title</t>
+  </si>
+  <si>
+    <t>Add Base Tag</t>
+  </si>
+  <si>
+    <t>Add single icon</t>
+  </si>
+  <si>
+    <t>Add Json LD header</t>
+  </si>
+  <si>
+    <t>Add OpenGraph header</t>
+  </si>
+  <si>
+    <t>Add any header</t>
+  </si>
+  <si>
+    <t>Add a Meta-Tag</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddMeta(${1:"name"}, ${2:"contents"});</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddToHead(${1:&lt;some-tag-to-add&gt;});</t>
+  </si>
+  <si>
+    <t>HtmlPage.AddJsonLd("${1:propertyName}", ${2:contentsObject});</t>
+  </si>
+  <si>
+    <t>Help:https://r.2sxc.org/RazorComponent</t>
+  </si>
+  <si>
+    <t>Api:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html
+tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade310/page</t>
+  </si>
+  <si>
+    <t>Api:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade310/page</t>
+  </si>
+  <si>
+    <t>Api:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html 
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade310/page</t>
+  </si>
+  <si>
+    <t>API:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade310/page</t>
+  </si>
+  <si>
+    <t>API:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html 
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade310/page</t>
+  </si>
+  <si>
+    <t>Api:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html 
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade311/page</t>
+  </si>
+  <si>
+    <t>API:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html 
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade340/page/mode/set</t>
+  </si>
+  <si>
+    <t>API:https://razor-blade.net/api/ToSic.Razor.Blade.HtmlPage.html 
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade320/page</t>
+  </si>
+  <si>
+    <t>API Docs:https://razor-blade.net/api/ToSic.Razor.Blade.Tag.html
+Tutorial:https://2sxc.org/dnn-tutorials/en/razor/blade800/page</t>
+  </si>
+  <si>
+    <t>Add Image</t>
+  </si>
+  <si>
+    <t>@Tag.Img().Src("${1:ünsafe.jpg}")</t>
+  </si>
+  <si>
+    <t>Image with unsafe url</t>
+  </si>
+  <si>
+    <t>Bold text</t>
+  </si>
+  <si>
+    <t>@Tag.Strong("hello")</t>
+  </si>
+  <si>
+    <t>Div with Classes and Styles</t>
+  </si>
+  <si>
+    <t>@Tag.Div().Class("class1").Class("class2").Style("align-right").Wrap("contents")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2449,11 +2743,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2463,10 +2756,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2483,8 +2774,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G304" totalsRowShown="0">
-  <autoFilter ref="A1:G304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G333" totalsRowShown="0">
+  <autoFilter ref="A1:G333" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="set"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="subset"/>
@@ -2761,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C206" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2774,8 +3065,8 @@
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.578125" customWidth="1"/>
     <col min="5" max="5" width="69.15625" customWidth="1"/>
-    <col min="6" max="6" width="40.578125" customWidth="1"/>
-    <col min="7" max="7" width="44.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26171875" customWidth="1"/>
+    <col min="7" max="7" width="116.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2786,7 +3077,7 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2798,12 +3089,12 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2821,12 +3112,12 @@
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2844,12 +3135,12 @@
         <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2867,12 +3158,12 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2890,12 +3181,12 @@
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2913,12 +3204,12 @@
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2936,187 +3227,187 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C8" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F8" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C9" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C10" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F10" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C12" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F12" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C13" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F13" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C14" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C15" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C16" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3126,106 +3417,100 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C18" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F18" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>455</v>
-      </c>
-      <c r="D20" t="s">
+        <v>806</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F20" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="F20" t="s">
-        <v>308</v>
-      </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>456</v>
+        <v>807</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
-      </c>
-      <c r="D22" t="s">
-        <v>549</v>
+        <v>460</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>580</v>
+        <v>808</v>
       </c>
       <c r="F22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
         <v>303</v>
@@ -3237,12 +3522,12 @@
         <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
         <v>303</v>
@@ -3254,12 +3539,12 @@
         <v>33</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25" t="s">
         <v>303</v>
@@ -3271,12 +3556,12 @@
         <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
         <v>303</v>
@@ -3288,12 +3573,12 @@
         <v>37</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
         <v>303</v>
@@ -3305,12 +3590,12 @@
         <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s">
         <v>303</v>
@@ -3322,12 +3607,12 @@
         <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s">
         <v>303</v>
@@ -3339,12 +3624,12 @@
         <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s">
         <v>303</v>
@@ -3356,12 +3641,12 @@
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
         <v>303</v>
@@ -3373,12 +3658,12 @@
         <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s">
         <v>303</v>
@@ -3390,12 +3675,12 @@
         <v>49</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
         <v>303</v>
@@ -3407,12 +3692,12 @@
         <v>51</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s">
         <v>303</v>
@@ -3424,12 +3709,12 @@
         <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s">
         <v>303</v>
@@ -3441,12 +3726,12 @@
         <v>55</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s">
         <v>303</v>
@@ -3458,12 +3743,12 @@
         <v>57</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
         <v>303</v>
@@ -3475,12 +3760,12 @@
         <v>59</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s">
         <v>303</v>
@@ -3492,12 +3777,12 @@
         <v>61</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
         <v>303</v>
@@ -3509,12 +3794,12 @@
         <v>63</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s">
         <v>303</v>
@@ -3526,12 +3811,12 @@
         <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s">
         <v>303</v>
@@ -3543,12 +3828,12 @@
         <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s">
         <v>303</v>
@@ -3560,12 +3845,12 @@
         <v>69</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
         <v>303</v>
@@ -3577,12 +3862,12 @@
         <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
         <v>303</v>
@@ -3594,12 +3879,12 @@
         <v>73</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
         <v>303</v>
@@ -3611,12 +3896,12 @@
         <v>75</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s">
         <v>303</v>
@@ -3628,12 +3913,12 @@
         <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
         <v>303</v>
@@ -3645,12 +3930,12 @@
         <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
         <v>303</v>
@@ -3662,12 +3947,12 @@
         <v>81</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
         <v>303</v>
@@ -3679,12 +3964,12 @@
         <v>83</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
         <v>303</v>
@@ -3696,12 +3981,12 @@
         <v>85</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
         <v>303</v>
@@ -3713,12 +3998,12 @@
         <v>87</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
         <v>303</v>
@@ -3730,12 +4015,12 @@
         <v>89</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
         <v>303</v>
@@ -3747,12 +4032,12 @@
         <v>91</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
         <v>303</v>
@@ -3764,12 +4049,12 @@
         <v>93</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
         <v>303</v>
@@ -3781,12 +4066,12 @@
         <v>95</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s">
         <v>303</v>
@@ -3798,12 +4083,12 @@
         <v>97</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s">
         <v>303</v>
@@ -3815,12 +4100,12 @@
         <v>99</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>303</v>
@@ -3832,12 +4117,12 @@
         <v>101</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
         <v>304</v>
@@ -3849,12 +4134,12 @@
         <v>103</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s">
         <v>304</v>
@@ -3866,12 +4151,12 @@
         <v>104</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
         <v>304</v>
@@ -3883,12 +4168,12 @@
         <v>105</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
         <v>304</v>
@@ -3900,12 +4185,12 @@
         <v>107</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
         <v>304</v>
@@ -3917,12 +4202,12 @@
         <v>109</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
         <v>304</v>
@@ -3934,12 +4219,12 @@
         <v>111</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
         <v>304</v>
@@ -3951,12 +4236,12 @@
         <v>113</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
         <v>304</v>
@@ -3968,15 +4253,15 @@
         <v>114</v>
       </c>
       <c r="F66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s">
         <v>304</v>
@@ -3988,12 +4273,12 @@
         <v>116</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
         <v>304</v>
@@ -4005,12 +4290,12 @@
         <v>118</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
         <v>304</v>
@@ -4022,12 +4307,12 @@
         <v>120</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
         <v>304</v>
@@ -4039,12 +4324,12 @@
         <v>122</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
         <v>304</v>
@@ -4056,12 +4341,12 @@
         <v>124</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
         <v>304</v>
@@ -4073,12 +4358,12 @@
         <v>126</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
         <v>304</v>
@@ -4090,12 +4375,12 @@
         <v>128</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
         <v>304</v>
@@ -4107,12 +4392,12 @@
         <v>130</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
         <v>304</v>
@@ -4124,12 +4409,12 @@
         <v>132</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
         <v>304</v>
@@ -4141,12 +4426,12 @@
         <v>134</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
         <v>304</v>
@@ -4158,12 +4443,12 @@
         <v>136</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
         <v>304</v>
@@ -4175,12 +4460,12 @@
         <v>138</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
         <v>304</v>
@@ -4192,12 +4477,12 @@
         <v>140</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
         <v>304</v>
@@ -4209,12 +4494,12 @@
         <v>142</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
         <v>304</v>
@@ -4226,12 +4511,12 @@
         <v>144</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
         <v>304</v>
@@ -4243,12 +4528,12 @@
         <v>146</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
         <v>304</v>
@@ -4260,12 +4545,12 @@
         <v>148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
         <v>304</v>
@@ -4277,12 +4562,12 @@
         <v>149</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
         <v>304</v>
@@ -4294,12 +4579,12 @@
         <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
         <v>304</v>
@@ -4311,12 +4596,12 @@
         <v>153</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
         <v>304</v>
@@ -4328,12 +4613,12 @@
         <v>155</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
         <v>304</v>
@@ -4345,12 +4630,12 @@
         <v>157</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
         <v>304</v>
@@ -4362,12 +4647,12 @@
         <v>159</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
         <v>304</v>
@@ -4379,12 +4664,12 @@
         <v>160</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
         <v>304</v>
@@ -4396,12 +4681,12 @@
         <v>161</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s">
         <v>304</v>
@@ -4413,12 +4698,12 @@
         <v>163</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
         <v>304</v>
@@ -4430,12 +4715,12 @@
         <v>165</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
         <v>304</v>
@@ -4447,12 +4732,12 @@
         <v>167</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
         <v>304</v>
@@ -4464,12 +4749,12 @@
         <v>169</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s">
         <v>304</v>
@@ -4481,12 +4766,12 @@
         <v>171</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
         <v>304</v>
@@ -4498,12 +4783,12 @@
         <v>173</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
         <v>304</v>
@@ -4515,12 +4800,12 @@
         <v>175</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
         <v>304</v>
@@ -4532,12 +4817,12 @@
         <v>176</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100" t="s">
         <v>304</v>
@@ -4549,12 +4834,12 @@
         <v>178</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>305</v>
@@ -4566,12 +4851,12 @@
         <v>180</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s">
         <v>305</v>
@@ -4583,12 +4868,12 @@
         <v>182</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
         <v>305</v>
@@ -4600,12 +4885,12 @@
         <v>184</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s">
         <v>305</v>
@@ -4617,12 +4902,12 @@
         <v>186</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B105" t="s">
         <v>305</v>
@@ -4634,12 +4919,12 @@
         <v>188</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B106" t="s">
         <v>305</v>
@@ -4651,12 +4936,12 @@
         <v>189</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
         <v>305</v>
@@ -4668,12 +4953,12 @@
         <v>191</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B108" t="s">
         <v>305</v>
@@ -4685,15 +4970,15 @@
         <v>193</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B109" t="s">
         <v>305</v>
@@ -4705,15 +4990,15 @@
         <v>195</v>
       </c>
       <c r="F109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B110" t="s">
         <v>305</v>
@@ -4725,12 +5010,12 @@
         <v>197</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B111" t="s">
         <v>305</v>
@@ -4742,12 +5027,12 @@
         <v>199</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B112" t="s">
         <v>305</v>
@@ -4759,12 +5044,12 @@
         <v>201</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B113" t="s">
         <v>305</v>
@@ -4776,12 +5061,12 @@
         <v>203</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B114" t="s">
         <v>305</v>
@@ -4793,12 +5078,12 @@
         <v>204</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B115" t="s">
         <v>305</v>
@@ -4810,12 +5095,12 @@
         <v>206</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
         <v>305</v>
@@ -4827,12 +5112,12 @@
         <v>208</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
         <v>305</v>
@@ -4844,12 +5129,12 @@
         <v>210</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B118" t="s">
         <v>305</v>
@@ -4861,12 +5146,12 @@
         <v>212</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B119" t="s">
         <v>305</v>
@@ -4878,12 +5163,12 @@
         <v>214</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B120" t="s">
         <v>305</v>
@@ -4895,12 +5180,12 @@
         <v>216</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B121" t="s">
         <v>305</v>
@@ -4912,12 +5197,12 @@
         <v>218</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B122" t="s">
         <v>305</v>
@@ -4929,12 +5214,12 @@
         <v>220</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
         <v>305</v>
@@ -4946,15 +5231,15 @@
         <v>222</v>
       </c>
       <c r="F123" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
         <v>305</v>
@@ -4966,12 +5251,12 @@
         <v>223</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s">
         <v>305</v>
@@ -4983,15 +5268,15 @@
         <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B126" t="s">
         <v>305</v>
@@ -5003,12 +5288,12 @@
         <v>227</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
         <v>305</v>
@@ -5020,12 +5305,12 @@
         <v>229</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B128" t="s">
         <v>305</v>
@@ -5037,12 +5322,12 @@
         <v>231</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B129" t="s">
         <v>305</v>
@@ -5054,12 +5339,12 @@
         <v>233</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B130" t="s">
         <v>305</v>
@@ -5071,12 +5356,12 @@
         <v>235</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B131" t="s">
         <v>305</v>
@@ -5088,12 +5373,12 @@
         <v>237</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B132" t="s">
         <v>305</v>
@@ -5105,12 +5390,12 @@
         <v>239</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
         <v>305</v>
@@ -5122,12 +5407,12 @@
         <v>241</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B134" t="s">
         <v>305</v>
@@ -5139,12 +5424,12 @@
         <v>243</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B135" t="s">
         <v>305</v>
@@ -5156,15 +5441,15 @@
         <v>245</v>
       </c>
       <c r="F135" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B136" t="s">
         <v>305</v>
@@ -5176,12 +5461,12 @@
         <v>247</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B137" t="s">
         <v>305</v>
@@ -5193,12 +5478,12 @@
         <v>249</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B138" t="s">
         <v>305</v>
@@ -5210,12 +5495,12 @@
         <v>251</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B139" t="s">
         <v>305</v>
@@ -5227,12 +5512,12 @@
         <v>253</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B140" t="s">
         <v>305</v>
@@ -5244,12 +5529,12 @@
         <v>255</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B141" t="s">
         <v>305</v>
@@ -5261,12 +5546,12 @@
         <v>257</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
         <v>305</v>
@@ -5278,12 +5563,12 @@
         <v>259</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B143" t="s">
         <v>305</v>
@@ -5295,12 +5580,12 @@
         <v>261</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
         <v>305</v>
@@ -5312,12 +5597,12 @@
         <v>263</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
         <v>305</v>
@@ -5329,12 +5614,12 @@
         <v>265</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B146" t="s">
         <v>305</v>
@@ -5346,12 +5631,12 @@
         <v>267</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
         <v>305</v>
@@ -5363,12 +5648,12 @@
         <v>269</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B148" t="s">
         <v>305</v>
@@ -5380,12 +5665,12 @@
         <v>271</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B149" t="s">
         <v>305</v>
@@ -5397,12 +5682,12 @@
         <v>273</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B150" t="s">
         <v>305</v>
@@ -5414,12 +5699,12 @@
         <v>275</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
         <v>305</v>
@@ -5431,15 +5716,15 @@
         <v>277</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B152" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C152" t="s">
         <v>278</v>
@@ -5448,15 +5733,15 @@
         <v>279</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C153" t="s">
         <v>205</v>
@@ -5465,15 +5750,15 @@
         <v>280</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C154" t="s">
         <v>281</v>
@@ -5482,15 +5767,15 @@
         <v>282</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C155" t="s">
         <v>283</v>
@@ -5499,15 +5784,15 @@
         <v>284</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B156" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C156" t="s">
         <v>121</v>
@@ -5516,15 +5801,15 @@
         <v>285</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C157" t="s">
         <v>286</v>
@@ -5533,15 +5818,15 @@
         <v>287</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C158" t="s">
         <v>288</v>
@@ -5550,15 +5835,15 @@
         <v>289</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C159" t="s">
         <v>290</v>
@@ -5567,15 +5852,15 @@
         <v>291</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B160" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C160" t="s">
         <v>292</v>
@@ -5584,18 +5869,18 @@
         <v>293</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C161" t="s">
         <v>232</v>
@@ -5604,15 +5889,15 @@
         <v>294</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B162" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C162" t="s">
         <v>295</v>
@@ -5621,18 +5906,18 @@
         <v>296</v>
       </c>
       <c r="F162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B163" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C163" t="s">
         <v>297</v>
@@ -5641,15 +5926,15 @@
         <v>298</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B164" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C164" t="s">
         <v>299</v>
@@ -5658,12 +5943,12 @@
         <v>300</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B165" t="s">
         <v>306</v>
@@ -5675,760 +5960,760 @@
         <v>302</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B166" t="s">
+        <v>473</v>
+      </c>
+      <c r="C166" t="s">
         <v>474</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E166" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C167" t="s">
+        <v>501</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C168" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F168" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C169" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>289</v>
       </c>
       <c r="F169" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B170" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C170" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F170" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B171" t="s">
         <v>459</v>
       </c>
-      <c r="B171" t="s">
-        <v>460</v>
-      </c>
       <c r="C171" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="F171" t="s">
-        <v>748</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>749</v>
+        <v>734</v>
+      </c>
+      <c r="G171" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B172" t="s">
         <v>459</v>
       </c>
-      <c r="B172" t="s">
-        <v>460</v>
-      </c>
       <c r="C172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="G172" s="4"/>
     </row>
     <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B173" t="s">
         <v>459</v>
       </c>
-      <c r="B173" t="s">
-        <v>460</v>
-      </c>
       <c r="C173" t="s">
+        <v>517</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F173" t="s">
         <v>518</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="F173" t="s">
-        <v>519</v>
       </c>
       <c r="G173" s="4"/>
     </row>
     <row r="174" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B174" t="s">
         <v>459</v>
       </c>
-      <c r="B174" t="s">
-        <v>460</v>
-      </c>
       <c r="C174" t="s">
+        <v>468</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="G174" s="4"/>
     </row>
     <row r="175" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B175" t="s">
         <v>459</v>
       </c>
-      <c r="B175" t="s">
-        <v>460</v>
-      </c>
       <c r="C175" t="s">
+        <v>471</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="G175" s="4"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B176" t="s">
         <v>459</v>
       </c>
-      <c r="B176" t="s">
-        <v>460</v>
-      </c>
       <c r="C176" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F176" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B177" t="s">
         <v>459</v>
       </c>
-      <c r="B177" t="s">
-        <v>460</v>
-      </c>
       <c r="C177" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F177" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G177" s="4"/>
     </row>
     <row r="178" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B178" t="s">
         <v>459</v>
       </c>
-      <c r="B178" t="s">
-        <v>460</v>
-      </c>
       <c r="C178" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F178" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B179" t="s">
         <v>459</v>
       </c>
-      <c r="B179" t="s">
-        <v>460</v>
-      </c>
       <c r="C179" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F179" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B180" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C180" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="F180" t="s">
-        <v>610</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>604</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B181" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C181" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F181" t="s">
-        <v>611</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>613</v>
+        <v>605</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B182" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C182" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F182" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G182" s="4"/>
     </row>
     <row r="183" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B183" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C183" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F183" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B184" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B185" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C185" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F185" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B186" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C186" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F186" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B187" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C187" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F187" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B188" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C188" t="s">
+        <v>623</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F188" t="s">
         <v>629</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F188" t="s">
-        <v>635</v>
-      </c>
       <c r="G188" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B189" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C189" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F189" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B190" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C190" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F190" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B191" t="s">
+        <v>675</v>
+      </c>
+      <c r="C191" t="s">
         <v>678</v>
       </c>
-      <c r="B191" t="s">
-        <v>682</v>
-      </c>
-      <c r="C191" t="s">
-        <v>685</v>
-      </c>
       <c r="E191" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F191" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B192" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C192" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F192" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B193" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C193" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F193" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B194" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C194" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F194" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B195" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C195" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F195" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B196" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C196" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F196" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B197" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C197" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F197" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B198" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C198" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F198" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B199" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C199" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F199" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B200" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C200" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F200" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B201" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C201" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B202" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C202" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B203" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C203" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F203" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B204" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C204" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>738</v>
+        <v>796</v>
       </c>
       <c r="F204" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B205" t="s">
+        <v>715</v>
+      </c>
+      <c r="C205" t="s">
         <v>717</v>
       </c>
-      <c r="B205" t="s">
-        <v>722</v>
-      </c>
-      <c r="C205" t="s">
-        <v>724</v>
-      </c>
       <c r="E205" s="3" t="s">
-        <v>739</v>
+        <v>801</v>
       </c>
       <c r="F205" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6438,1720 +6723,2284 @@
     </row>
     <row r="207" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B207" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C207" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>740</v>
+        <v>803</v>
       </c>
       <c r="F207" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B208" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C208" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
       <c r="F208" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B209" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C209" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>742</v>
+        <v>804</v>
       </c>
       <c r="F209" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B210" t="s">
+        <v>722</v>
+      </c>
+      <c r="C210" t="s">
+        <v>727</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F210" t="s">
         <v>729</v>
       </c>
-      <c r="C210" t="s">
-        <v>734</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="F210" t="s">
-        <v>736</v>
-      </c>
       <c r="G210" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B211" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C211" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="E211" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F211" t="s">
+        <v>730</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B212" t="s">
+        <v>459</v>
+      </c>
+      <c r="C212" t="s">
+        <v>743</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F212" t="s">
         <v>744</v>
       </c>
-      <c r="F211" t="s">
-        <v>737</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="1" t="s">
+      <c r="G212" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B213" t="s">
+        <v>746</v>
+      </c>
+      <c r="C213" t="s">
+        <v>747</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B212" t="s">
-        <v>460</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="F213" t="s">
+        <v>793</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B214" t="s">
+        <v>746</v>
+      </c>
+      <c r="C214" t="s">
+        <v>747</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F214" t="s">
+        <v>795</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B215" t="s">
+        <v>746</v>
+      </c>
+      <c r="C215" t="s">
+        <v>749</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F215" t="s">
+        <v>758</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B216" t="s">
+        <v>746</v>
+      </c>
+      <c r="C216" t="s">
+        <v>750</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F216" t="s">
+        <v>756</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B217" t="s">
+        <v>746</v>
+      </c>
+      <c r="C217" t="s">
+        <v>754</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F217" t="s">
+        <v>757</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B218" t="s">
+        <v>746</v>
+      </c>
+      <c r="C218" t="s">
+        <v>751</v>
+      </c>
+      <c r="E218" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="F218" t="s">
+        <v>752</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B219" t="s">
         <v>761</v>
       </c>
-      <c r="F212" t="s">
+      <c r="E219" s="3"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B220" t="s">
         <v>762</v>
       </c>
-      <c r="G212" s="4" t="s">
+      <c r="C220" t="s">
+        <v>764</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F220" t="s">
+        <v>830</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B221" t="s">
+        <v>762</v>
+      </c>
+      <c r="C221" t="s">
+        <v>765</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F221" t="s">
+        <v>832</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B222" t="s">
+        <v>762</v>
+      </c>
+      <c r="C222" t="s">
+        <v>768</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F222" t="s">
+        <v>829</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B223" t="s">
+        <v>762</v>
+      </c>
+      <c r="C223" t="s">
+        <v>769</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F223" t="s">
+        <v>833</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B224" t="s">
+        <v>762</v>
+      </c>
+      <c r="C224" t="s">
+        <v>772</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F224" t="s">
+        <v>831</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B225" t="s">
+        <v>762</v>
+      </c>
+      <c r="C225" t="s">
+        <v>773</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F225" t="s">
+        <v>834</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B226" t="s">
+        <v>762</v>
+      </c>
+      <c r="C226" t="s">
+        <v>776</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F226" t="s">
+        <v>835</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B227" t="s">
+        <v>762</v>
+      </c>
+      <c r="C227" t="s">
+        <v>778</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F227" t="s">
+        <v>836</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B228" t="s">
+        <v>762</v>
+      </c>
+      <c r="C228" t="s">
+        <v>785</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F228" t="s">
+        <v>786</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B229" t="s">
+        <v>762</v>
+      </c>
+      <c r="C229" t="s">
+        <v>781</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F229" t="s">
+        <v>783</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B230" t="s">
+        <v>762</v>
+      </c>
+      <c r="C230" t="s">
+        <v>784</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F230" t="s">
+        <v>837</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B231" t="s">
+        <v>762</v>
+      </c>
+      <c r="C231" t="s">
+        <v>790</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F231" t="s">
+        <v>838</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B232" t="s">
+        <v>762</v>
+      </c>
+      <c r="C232" t="s">
+        <v>789</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F232" t="s">
+        <v>839</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B233" t="s">
+        <v>762</v>
+      </c>
+      <c r="C233" t="s">
+        <v>791</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F233" t="s">
+        <v>840</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B234" t="s">
+        <v>762</v>
+      </c>
+      <c r="C234" t="s">
+        <v>792</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F234" t="s">
+        <v>841</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B235" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213" t="s">
+      <c r="C235" t="s">
+        <v>857</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F235" t="s">
+        <v>855</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B236" t="s">
+        <v>763</v>
+      </c>
+      <c r="C236" t="s">
+        <v>858</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F236" t="s">
+        <v>858</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B237" t="s">
+        <v>763</v>
+      </c>
+      <c r="C237" t="s">
+        <v>860</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" t="s">
+        <v>354</v>
+      </c>
+      <c r="B238" t="s">
+        <v>358</v>
+      </c>
+      <c r="C238" t="s">
+        <v>359</v>
+      </c>
+      <c r="E238" t="s">
+        <v>318</v>
+      </c>
+      <c r="F238" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" t="s">
+        <v>354</v>
+      </c>
+      <c r="B239" t="s">
+        <v>358</v>
+      </c>
+      <c r="C239" t="s">
+        <v>360</v>
+      </c>
+      <c r="E239" t="s">
+        <v>528</v>
+      </c>
+      <c r="F239" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" t="s">
         <v>355</v>
       </c>
-      <c r="B213" t="s">
-        <v>359</v>
-      </c>
-      <c r="C213" t="s">
-        <v>360</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="B240" t="s">
+        <v>58</v>
+      </c>
+      <c r="C240" t="s">
+        <v>454</v>
+      </c>
+      <c r="E240" t="s">
         <v>319</v>
-      </c>
-      <c r="F213" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" t="s">
-        <v>355</v>
-      </c>
-      <c r="B214" t="s">
-        <v>359</v>
-      </c>
-      <c r="C214" t="s">
-        <v>361</v>
-      </c>
-      <c r="E214" t="s">
-        <v>529</v>
-      </c>
-      <c r="F214" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" t="s">
-        <v>356</v>
-      </c>
-      <c r="B215" t="s">
-        <v>58</v>
-      </c>
-      <c r="C215" t="s">
-        <v>455</v>
-      </c>
-      <c r="E215" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" t="s">
-        <v>356</v>
-      </c>
-      <c r="B216" t="s">
-        <v>58</v>
-      </c>
-      <c r="C216" t="s">
-        <v>456</v>
-      </c>
-      <c r="E216" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" t="s">
-        <v>356</v>
-      </c>
-      <c r="B217" t="s">
-        <v>321</v>
-      </c>
-      <c r="C217" t="s">
-        <v>321</v>
-      </c>
-      <c r="E217" t="s">
-        <v>528</v>
-      </c>
-      <c r="F217" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" t="s">
-        <v>356</v>
-      </c>
-      <c r="B218" t="s">
-        <v>358</v>
-      </c>
-      <c r="C218" t="s">
-        <v>322</v>
-      </c>
-      <c r="E218" t="s">
-        <v>323</v>
-      </c>
-      <c r="F218" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" t="s">
-        <v>356</v>
-      </c>
-      <c r="B219" t="s">
-        <v>358</v>
-      </c>
-      <c r="C219" t="s">
-        <v>324</v>
-      </c>
-      <c r="E219" t="s">
-        <v>325</v>
-      </c>
-      <c r="F219" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" t="s">
-        <v>356</v>
-      </c>
-      <c r="B220" t="s">
-        <v>358</v>
-      </c>
-      <c r="C220" t="s">
-        <v>326</v>
-      </c>
-      <c r="E220" t="s">
-        <v>327</v>
-      </c>
-      <c r="F220" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" t="s">
-        <v>356</v>
-      </c>
-      <c r="B221" t="s">
-        <v>358</v>
-      </c>
-      <c r="C221" t="s">
-        <v>328</v>
-      </c>
-      <c r="E221" t="s">
-        <v>329</v>
-      </c>
-      <c r="F221" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" t="s">
-        <v>356</v>
-      </c>
-      <c r="B222" t="s">
-        <v>358</v>
-      </c>
-      <c r="C222" t="s">
-        <v>330</v>
-      </c>
-      <c r="E222" t="s">
-        <v>331</v>
-      </c>
-      <c r="F222" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223" t="s">
-        <v>356</v>
-      </c>
-      <c r="B223" t="s">
-        <v>358</v>
-      </c>
-      <c r="C223" t="s">
-        <v>332</v>
-      </c>
-      <c r="E223" t="s">
-        <v>333</v>
-      </c>
-      <c r="F223" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224" t="s">
-        <v>356</v>
-      </c>
-      <c r="B224" t="s">
-        <v>358</v>
-      </c>
-      <c r="C224" t="s">
-        <v>334</v>
-      </c>
-      <c r="E224" t="s">
-        <v>335</v>
-      </c>
-      <c r="F224" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225" t="s">
-        <v>356</v>
-      </c>
-      <c r="B225" t="s">
-        <v>358</v>
-      </c>
-      <c r="C225" t="s">
-        <v>336</v>
-      </c>
-      <c r="E225" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" t="s">
-        <v>356</v>
-      </c>
-      <c r="B226" t="s">
-        <v>358</v>
-      </c>
-      <c r="C226" t="s">
-        <v>338</v>
-      </c>
-      <c r="E226" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" t="s">
-        <v>478</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>2</v>
-      </c>
-      <c r="E227" t="s">
-        <v>340</v>
-      </c>
-      <c r="F227" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" t="s">
-        <v>478</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" t="s">
-        <v>362</v>
-      </c>
-      <c r="E228" t="s">
-        <v>341</v>
-      </c>
-      <c r="F228" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" t="s">
-        <v>478</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>215</v>
-      </c>
-      <c r="E229" t="s">
-        <v>342</v>
-      </c>
-      <c r="F229" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" t="s">
-        <v>478</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>22</v>
-      </c>
-      <c r="E230" t="s">
-        <v>343</v>
-      </c>
-      <c r="F230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" t="s">
-        <v>478</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>363</v>
-      </c>
-      <c r="E231" t="s">
-        <v>344</v>
-      </c>
-      <c r="F231" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" t="s">
-        <v>478</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>364</v>
-      </c>
-      <c r="E232" t="s">
-        <v>345</v>
-      </c>
-      <c r="F232" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" t="s">
-        <v>357</v>
-      </c>
-      <c r="B233" t="s">
-        <v>303</v>
-      </c>
-      <c r="C233" t="s">
-        <v>112</v>
-      </c>
-      <c r="E233" t="s">
-        <v>387</v>
-      </c>
-      <c r="F233" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" t="s">
-        <v>357</v>
-      </c>
-      <c r="B234" t="s">
-        <v>303</v>
-      </c>
-      <c r="C234" t="s">
-        <v>54</v>
-      </c>
-      <c r="E234" t="s">
-        <v>389</v>
-      </c>
-      <c r="F234" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" t="s">
-        <v>357</v>
-      </c>
-      <c r="B235" t="s">
-        <v>303</v>
-      </c>
-      <c r="C235" t="s">
-        <v>56</v>
-      </c>
-      <c r="E235" t="s">
-        <v>391</v>
-      </c>
-      <c r="F235" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A236" t="s">
-        <v>357</v>
-      </c>
-      <c r="B236" t="s">
-        <v>303</v>
-      </c>
-      <c r="C236" t="s">
-        <v>426</v>
-      </c>
-      <c r="E236" t="s">
-        <v>393</v>
-      </c>
-      <c r="F236" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237" t="s">
-        <v>357</v>
-      </c>
-      <c r="B237" t="s">
-        <v>303</v>
-      </c>
-      <c r="C237" t="s">
-        <v>58</v>
-      </c>
-      <c r="E237" t="s">
-        <v>395</v>
-      </c>
-      <c r="F237" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" t="s">
-        <v>357</v>
-      </c>
-      <c r="B238" t="s">
-        <v>303</v>
-      </c>
-      <c r="C238" t="s">
-        <v>428</v>
-      </c>
-      <c r="E238" t="s">
-        <v>397</v>
-      </c>
-      <c r="F238" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" t="s">
-        <v>357</v>
-      </c>
-      <c r="B239" t="s">
-        <v>303</v>
-      </c>
-      <c r="C239" t="s">
-        <v>427</v>
-      </c>
-      <c r="E239" t="s">
-        <v>399</v>
-      </c>
-      <c r="F239" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" t="s">
-        <v>357</v>
-      </c>
-      <c r="B240" t="s">
-        <v>303</v>
-      </c>
-      <c r="C240" t="s">
-        <v>174</v>
-      </c>
-      <c r="E240" t="s">
-        <v>401</v>
-      </c>
-      <c r="F240" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B241" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="C241" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="E241" t="s">
-        <v>403</v>
-      </c>
-      <c r="F241" t="s">
-        <v>404</v>
+        <v>529</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B242" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C242" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="E242" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="F242" t="s">
-        <v>406</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
+        <v>355</v>
+      </c>
+      <c r="B243" t="s">
         <v>357</v>
       </c>
-      <c r="B243" t="s">
-        <v>304</v>
-      </c>
       <c r="C243" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="E243" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="F243" t="s">
-        <v>366</v>
+        <v>531</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
+        <v>355</v>
+      </c>
+      <c r="B244" t="s">
         <v>357</v>
       </c>
-      <c r="B244" t="s">
-        <v>304</v>
-      </c>
       <c r="C244" t="s">
-        <v>54</v>
+        <v>323</v>
       </c>
       <c r="E244" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="F244" t="s">
-        <v>368</v>
+        <v>535</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
+        <v>355</v>
+      </c>
+      <c r="B245" t="s">
         <v>357</v>
       </c>
-      <c r="B245" t="s">
-        <v>304</v>
-      </c>
       <c r="C245" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="E245" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="F245" t="s">
-        <v>370</v>
+        <v>534</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
+        <v>355</v>
+      </c>
+      <c r="B246" t="s">
         <v>357</v>
       </c>
-      <c r="B246" t="s">
-        <v>304</v>
-      </c>
       <c r="C246" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="E246" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="F246" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
+        <v>355</v>
+      </c>
+      <c r="B247" t="s">
         <v>357</v>
       </c>
-      <c r="B247" t="s">
-        <v>304</v>
-      </c>
       <c r="C247" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="E247" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="F247" t="s">
-        <v>374</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
+        <v>355</v>
+      </c>
+      <c r="B248" t="s">
         <v>357</v>
       </c>
-      <c r="B248" t="s">
-        <v>304</v>
-      </c>
       <c r="C248" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="E248" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="F248" t="s">
-        <v>376</v>
+        <v>538</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
+        <v>355</v>
+      </c>
+      <c r="B249" t="s">
         <v>357</v>
       </c>
-      <c r="B249" t="s">
-        <v>304</v>
-      </c>
       <c r="C249" t="s">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="E249" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="F249" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
+        <v>355</v>
+      </c>
+      <c r="B250" t="s">
         <v>357</v>
       </c>
-      <c r="B250" t="s">
-        <v>304</v>
-      </c>
       <c r="C250" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="E250" t="s">
-        <v>379</v>
-      </c>
-      <c r="F250" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
+        <v>355</v>
+      </c>
+      <c r="B251" t="s">
         <v>357</v>
       </c>
-      <c r="B251" t="s">
-        <v>304</v>
-      </c>
       <c r="C251" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="E251" t="s">
-        <v>381</v>
-      </c>
-      <c r="F251" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B252" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="F252" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B253" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="E253" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="F253" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B254" t="s">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E254" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F254" t="s">
-        <v>439</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B255" t="s">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E255" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B256" t="s">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="E256" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F256" t="s">
-        <v>437</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>213</v>
+        <v>363</v>
       </c>
       <c r="E257" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F257" t="s">
-        <v>436</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B258" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C258" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="E258" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="F258" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="E259" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F259" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B260" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C260" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="E260" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="F260" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B261" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C261" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="E261" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="F261" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B262" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C262" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="E262" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="F262" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B263" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="C263" t="s">
-        <v>278</v>
+        <v>427</v>
       </c>
       <c r="E263" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F263" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B264" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="C264" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="E264" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F264" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B265" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="C265" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="E265" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F265" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B266" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="C266" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="E266" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F266" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B267" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="C267" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="E267" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F267" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B268" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="C268" t="s">
-        <v>430</v>
+        <v>112</v>
       </c>
       <c r="E268" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="F268" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B269" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C269" t="s">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="E269" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="F269" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="B270" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="C270" t="s">
-        <v>429</v>
+        <v>115</v>
       </c>
       <c r="E270" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="F270" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="B271" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="C271" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="E271" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="F271" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
+        <v>356</v>
+      </c>
+      <c r="B272" t="s">
+        <v>304</v>
+      </c>
+      <c r="C272" t="s">
+        <v>131</v>
+      </c>
+      <c r="E272" t="s">
+        <v>372</v>
+      </c>
+      <c r="F272" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" t="s">
+        <v>356</v>
+      </c>
+      <c r="B273" t="s">
+        <v>304</v>
+      </c>
+      <c r="C273" t="s">
+        <v>141</v>
+      </c>
+      <c r="E273" t="s">
+        <v>374</v>
+      </c>
+      <c r="F273" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" t="s">
+        <v>356</v>
+      </c>
+      <c r="B274" t="s">
+        <v>304</v>
+      </c>
+      <c r="C274" t="s">
+        <v>90</v>
+      </c>
+      <c r="E274" t="s">
+        <v>376</v>
+      </c>
+      <c r="F274" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" t="s">
+        <v>356</v>
+      </c>
+      <c r="B275" t="s">
+        <v>304</v>
+      </c>
+      <c r="C275" t="s">
+        <v>162</v>
+      </c>
+      <c r="E275" t="s">
+        <v>378</v>
+      </c>
+      <c r="F275" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" t="s">
+        <v>356</v>
+      </c>
+      <c r="B276" t="s">
+        <v>304</v>
+      </c>
+      <c r="C276" t="s">
+        <v>166</v>
+      </c>
+      <c r="E276" t="s">
+        <v>380</v>
+      </c>
+      <c r="F276" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" t="s">
+        <v>356</v>
+      </c>
+      <c r="B277" t="s">
+        <v>304</v>
+      </c>
+      <c r="C277" t="s">
+        <v>174</v>
+      </c>
+      <c r="E277" t="s">
+        <v>382</v>
+      </c>
+      <c r="F277" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>356</v>
+      </c>
+      <c r="B278" t="s">
+        <v>304</v>
+      </c>
+      <c r="C278" t="s">
+        <v>177</v>
+      </c>
+      <c r="E278" t="s">
+        <v>384</v>
+      </c>
+      <c r="F278" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" t="s">
+        <v>356</v>
+      </c>
+      <c r="B279" t="s">
+        <v>305</v>
+      </c>
+      <c r="C279" t="s">
+        <v>190</v>
+      </c>
+      <c r="E279" t="s">
+        <v>345</v>
+      </c>
+      <c r="F279" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" t="s">
+        <v>356</v>
+      </c>
+      <c r="B280" t="s">
+        <v>305</v>
+      </c>
+      <c r="C280" t="s">
+        <v>112</v>
+      </c>
+      <c r="E280" t="s">
+        <v>346</v>
+      </c>
+      <c r="F280" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" t="s">
+        <v>356</v>
+      </c>
+      <c r="B281" t="s">
+        <v>305</v>
+      </c>
+      <c r="C281" t="s">
+        <v>205</v>
+      </c>
+      <c r="E281" t="s">
+        <v>347</v>
+      </c>
+      <c r="F281" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" t="s">
+        <v>356</v>
+      </c>
+      <c r="B282" t="s">
+        <v>305</v>
+      </c>
+      <c r="C282" t="s">
+        <v>213</v>
+      </c>
+      <c r="E282" t="s">
+        <v>348</v>
+      </c>
+      <c r="F282" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" t="s">
+        <v>356</v>
+      </c>
+      <c r="B283" t="s">
+        <v>305</v>
+      </c>
+      <c r="C283" t="s">
+        <v>217</v>
+      </c>
+      <c r="E283" t="s">
+        <v>349</v>
+      </c>
+      <c r="F283" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" t="s">
+        <v>356</v>
+      </c>
+      <c r="B284" t="s">
+        <v>305</v>
+      </c>
+      <c r="C284" t="s">
+        <v>226</v>
+      </c>
+      <c r="E284" t="s">
+        <v>350</v>
+      </c>
+      <c r="F284" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" t="s">
+        <v>356</v>
+      </c>
+      <c r="B285" t="s">
+        <v>305</v>
+      </c>
+      <c r="C285" t="s">
+        <v>234</v>
+      </c>
+      <c r="E285" t="s">
+        <v>351</v>
+      </c>
+      <c r="F285" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" t="s">
+        <v>356</v>
+      </c>
+      <c r="B286" t="s">
+        <v>305</v>
+      </c>
+      <c r="C286" t="s">
+        <v>230</v>
+      </c>
+      <c r="E286" t="s">
+        <v>352</v>
+      </c>
+      <c r="F286" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" t="s">
+        <v>356</v>
+      </c>
+      <c r="B287" t="s">
+        <v>305</v>
+      </c>
+      <c r="C287" t="s">
+        <v>262</v>
+      </c>
+      <c r="E287" t="s">
+        <v>353</v>
+      </c>
+      <c r="F287" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" t="s">
+        <v>422</v>
+      </c>
+      <c r="B288" t="s">
         <v>424</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C288" t="s">
+        <v>278</v>
+      </c>
+      <c r="E288" t="s">
+        <v>408</v>
+      </c>
+      <c r="F288" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" t="s">
+        <v>422</v>
+      </c>
+      <c r="B289" t="s">
+        <v>424</v>
+      </c>
+      <c r="C289" t="s">
+        <v>205</v>
+      </c>
+      <c r="E289" t="s">
+        <v>410</v>
+      </c>
+      <c r="F289" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" t="s">
+        <v>422</v>
+      </c>
+      <c r="B290" t="s">
+        <v>424</v>
+      </c>
+      <c r="C290" t="s">
+        <v>281</v>
+      </c>
+      <c r="E290" t="s">
+        <v>412</v>
+      </c>
+      <c r="F290" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" t="s">
+        <v>422</v>
+      </c>
+      <c r="B291" t="s">
+        <v>424</v>
+      </c>
+      <c r="C291" t="s">
+        <v>283</v>
+      </c>
+      <c r="E291" t="s">
+        <v>414</v>
+      </c>
+      <c r="F291" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" t="s">
+        <v>422</v>
+      </c>
+      <c r="B292" t="s">
+        <v>424</v>
+      </c>
+      <c r="C292" t="s">
+        <v>290</v>
+      </c>
+      <c r="E292" t="s">
+        <v>416</v>
+      </c>
+      <c r="F292" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" t="s">
+        <v>422</v>
+      </c>
+      <c r="B293" t="s">
+        <v>424</v>
+      </c>
+      <c r="C293" t="s">
+        <v>429</v>
+      </c>
+      <c r="E293" t="s">
+        <v>418</v>
+      </c>
+      <c r="F293" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" t="s">
+        <v>422</v>
+      </c>
+      <c r="B294" t="s">
+        <v>306</v>
+      </c>
+      <c r="C294" t="s">
+        <v>306</v>
+      </c>
+      <c r="E294" t="s">
+        <v>420</v>
+      </c>
+      <c r="F294" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" t="s">
+        <v>423</v>
+      </c>
+      <c r="B295" t="s">
+        <v>428</v>
+      </c>
+      <c r="C295" t="s">
+        <v>428</v>
+      </c>
+      <c r="E295" t="s">
+        <v>406</v>
+      </c>
+      <c r="F295" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" t="s">
+        <v>423</v>
+      </c>
+      <c r="B296" t="s">
+        <v>441</v>
+      </c>
+      <c r="C296" t="s">
         <v>442</v>
       </c>
-      <c r="C272" t="s">
+      <c r="E296" t="s">
+        <v>443</v>
+      </c>
+      <c r="F296" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" t="s">
+        <v>423</v>
+      </c>
+      <c r="B297" t="s">
+        <v>441</v>
+      </c>
+      <c r="C297" t="s">
+        <v>447</v>
+      </c>
+      <c r="E297" t="s">
+        <v>445</v>
+      </c>
+      <c r="F297" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" t="s">
+        <v>423</v>
+      </c>
+      <c r="B298" t="s">
+        <v>441</v>
+      </c>
+      <c r="C298" t="s">
         <v>448</v>
       </c>
-      <c r="E272" t="s">
-        <v>446</v>
-      </c>
-      <c r="F272" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A273" t="s">
-        <v>424</v>
-      </c>
-      <c r="B273" t="s">
-        <v>442</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="E298" t="s">
         <v>449</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F298" t="s">
         <v>450</v>
       </c>
-      <c r="F273" t="s">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" t="s">
+        <v>423</v>
+      </c>
+      <c r="B299" t="s">
+        <v>441</v>
+      </c>
+      <c r="C299" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274" t="s">
-        <v>424</v>
-      </c>
-      <c r="B274" t="s">
-        <v>442</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="E299" t="s">
         <v>452</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F299" t="s">
         <v>453</v>
       </c>
-      <c r="F274" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275" t="s">
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" t="s">
+        <v>463</v>
+      </c>
+      <c r="B300" t="s">
+        <v>461</v>
+      </c>
+      <c r="C300" t="s">
+        <v>462</v>
+      </c>
+      <c r="E300" t="s">
         <v>464</v>
       </c>
-      <c r="B275" t="s">
-        <v>462</v>
-      </c>
-      <c r="C275" t="s">
-        <v>463</v>
-      </c>
-      <c r="E275" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A276" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B276" t="s">
-        <v>462</v>
-      </c>
-      <c r="C276" t="s">
-        <v>468</v>
-      </c>
-      <c r="E276" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A277" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B277" t="s">
-        <v>481</v>
-      </c>
-      <c r="C277" t="s">
-        <v>482</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F277" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" t="s">
-        <v>484</v>
-      </c>
-      <c r="B278" t="s">
-        <v>481</v>
-      </c>
-      <c r="C278" t="s">
-        <v>483</v>
-      </c>
-      <c r="E278" t="s">
-        <v>495</v>
-      </c>
-      <c r="F278" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B279" t="s">
-        <v>462</v>
-      </c>
-      <c r="C279" t="s">
-        <v>599</v>
-      </c>
-      <c r="E279" t="s">
-        <v>467</v>
-      </c>
-      <c r="F279" t="s">
-        <v>584</v>
-      </c>
-      <c r="G279" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A280" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B280" t="s">
-        <v>462</v>
-      </c>
-      <c r="C280" t="s">
-        <v>600</v>
-      </c>
-      <c r="E280" t="s">
-        <v>586</v>
-      </c>
-      <c r="F280" t="s">
-        <v>585</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A281" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B281" t="s">
-        <v>462</v>
-      </c>
-      <c r="C281" t="s">
-        <v>601</v>
-      </c>
-      <c r="E281" t="s">
-        <v>587</v>
-      </c>
-      <c r="F281" t="s">
-        <v>588</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A282" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B282" t="s">
-        <v>462</v>
-      </c>
-      <c r="C282" t="s">
-        <v>602</v>
-      </c>
-      <c r="E282" t="s">
-        <v>589</v>
-      </c>
-      <c r="F282" t="s">
-        <v>590</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A283" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B283" t="s">
-        <v>462</v>
-      </c>
-      <c r="C283" t="s">
-        <v>603</v>
-      </c>
-      <c r="E283" t="s">
-        <v>547</v>
-      </c>
-      <c r="F283" t="s">
-        <v>591</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A284" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B284" t="s">
-        <v>462</v>
-      </c>
-      <c r="C284" t="s">
-        <v>604</v>
-      </c>
-      <c r="E284" t="s">
-        <v>592</v>
-      </c>
-      <c r="F284" t="s">
-        <v>593</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B285" t="s">
-        <v>462</v>
-      </c>
-      <c r="C285" t="s">
-        <v>605</v>
-      </c>
-      <c r="E285" t="s">
-        <v>594</v>
-      </c>
-      <c r="F285" t="s">
-        <v>595</v>
-      </c>
-      <c r="G285" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B286" t="s">
-        <v>462</v>
-      </c>
-      <c r="C286" t="s">
-        <v>606</v>
-      </c>
-      <c r="E286" t="s">
-        <v>596</v>
-      </c>
-      <c r="F286" t="s">
-        <v>597</v>
-      </c>
-      <c r="G286" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B287" t="s">
-        <v>616</v>
-      </c>
-      <c r="C287" t="s">
-        <v>607</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="F287" t="s">
-        <v>597</v>
-      </c>
-      <c r="G287" s="4" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B288" t="s">
-        <v>480</v>
-      </c>
-      <c r="C288" t="s">
-        <v>488</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F288" t="s">
-        <v>490</v>
-      </c>
-      <c r="G288" s="4"/>
-    </row>
-    <row r="289" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B289" t="s">
-        <v>480</v>
-      </c>
-      <c r="C289" t="s">
-        <v>489</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F289" t="s">
-        <v>487</v>
-      </c>
-      <c r="G289" s="4"/>
-    </row>
-    <row r="290" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B290" t="s">
-        <v>480</v>
-      </c>
-      <c r="C290" t="s">
-        <v>491</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="G290" s="4"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B291" t="s">
-        <v>481</v>
-      </c>
-      <c r="C291" t="s">
-        <v>482</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F291" t="s">
-        <v>485</v>
-      </c>
-      <c r="G291" s="4"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B292" t="s">
-        <v>481</v>
-      </c>
-      <c r="C292" t="s">
-        <v>483</v>
-      </c>
-      <c r="E292" t="s">
-        <v>493</v>
-      </c>
-      <c r="F292" t="s">
-        <v>486</v>
-      </c>
-      <c r="G292" s="4"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B293" t="s">
-        <v>498</v>
-      </c>
-      <c r="C293" t="s">
-        <v>499</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F293" t="s">
-        <v>501</v>
-      </c>
-      <c r="G293" s="4"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A294" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B294" t="s">
-        <v>559</v>
-      </c>
-      <c r="C294" t="s">
-        <v>556</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F294" t="s">
-        <v>557</v>
-      </c>
-      <c r="G294" s="4"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A295" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B295" t="s">
-        <v>552</v>
-      </c>
-      <c r="C295" t="s">
-        <v>553</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F295" t="s">
-        <v>555</v>
-      </c>
-      <c r="G295" s="4"/>
-    </row>
-    <row r="296" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B296" t="s">
-        <v>505</v>
-      </c>
-      <c r="C296" t="s">
-        <v>507</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F296" t="s">
-        <v>506</v>
-      </c>
-      <c r="G296" s="4"/>
-    </row>
-    <row r="297" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B297" t="s">
-        <v>505</v>
-      </c>
-      <c r="C297" t="s">
-        <v>508</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G297" s="4"/>
-    </row>
-    <row r="298" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B298" t="s">
-        <v>504</v>
-      </c>
-      <c r="C298" t="s">
-        <v>510</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F298" t="s">
-        <v>551</v>
-      </c>
-      <c r="G298" s="4"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B299" t="s">
-        <v>505</v>
-      </c>
-      <c r="C299" t="s">
-        <v>512</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F299" t="s">
-        <v>513</v>
-      </c>
-      <c r="G299" s="4"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B300" t="s">
-        <v>504</v>
-      </c>
-      <c r="C300" t="s">
-        <v>514</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F300" t="s">
-        <v>521</v>
-      </c>
-      <c r="G300" s="4"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B301" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="C301" t="s">
-        <v>520</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F301" t="s">
-        <v>522</v>
-      </c>
-      <c r="G301" s="4"/>
+        <v>467</v>
+      </c>
+      <c r="E301" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B302" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C302" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F302" t="s">
-        <v>753</v>
-      </c>
-      <c r="G302" s="4"/>
+        <v>484</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="1" t="s">
-        <v>479</v>
+      <c r="A303" t="s">
+        <v>483</v>
       </c>
       <c r="B303" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C303" t="s">
-        <v>523</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>579</v>
+        <v>482</v>
+      </c>
+      <c r="E303" t="s">
+        <v>494</v>
       </c>
       <c r="F303" t="s">
-        <v>524</v>
-      </c>
-      <c r="G303" s="4"/>
+        <v>485</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B304" t="s">
+        <v>461</v>
+      </c>
+      <c r="C304" t="s">
+        <v>594</v>
+      </c>
+      <c r="E304" t="s">
+        <v>466</v>
+      </c>
+      <c r="F304" t="s">
+        <v>579</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B305" t="s">
+        <v>461</v>
+      </c>
+      <c r="C305" t="s">
+        <v>595</v>
+      </c>
+      <c r="E305" t="s">
+        <v>581</v>
+      </c>
+      <c r="F305" t="s">
+        <v>580</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B306" t="s">
+        <v>461</v>
+      </c>
+      <c r="C306" t="s">
+        <v>596</v>
+      </c>
+      <c r="E306" t="s">
+        <v>582</v>
+      </c>
+      <c r="F306" t="s">
+        <v>583</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B307" t="s">
+        <v>461</v>
+      </c>
+      <c r="C307" t="s">
+        <v>597</v>
+      </c>
+      <c r="E307" t="s">
+        <v>584</v>
+      </c>
+      <c r="F307" t="s">
+        <v>585</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B308" t="s">
+        <v>461</v>
+      </c>
+      <c r="C308" t="s">
+        <v>598</v>
+      </c>
+      <c r="E308" t="s">
+        <v>545</v>
+      </c>
+      <c r="F308" t="s">
+        <v>586</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B309" t="s">
+        <v>461</v>
+      </c>
+      <c r="C309" t="s">
+        <v>599</v>
+      </c>
+      <c r="E309" t="s">
+        <v>587</v>
+      </c>
+      <c r="F309" t="s">
+        <v>588</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B310" t="s">
+        <v>461</v>
+      </c>
+      <c r="C310" t="s">
+        <v>600</v>
+      </c>
+      <c r="E310" t="s">
+        <v>589</v>
+      </c>
+      <c r="F310" t="s">
+        <v>590</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B311" t="s">
+        <v>461</v>
+      </c>
+      <c r="C311" t="s">
+        <v>601</v>
+      </c>
+      <c r="E311" t="s">
+        <v>591</v>
+      </c>
+      <c r="F311" t="s">
+        <v>592</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B312" t="s">
+        <v>610</v>
+      </c>
+      <c r="C312" t="s">
+        <v>818</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F312" t="s">
+        <v>809</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B313" t="s">
+        <v>610</v>
+      </c>
+      <c r="C313" t="s">
+        <v>817</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F313" t="s">
+        <v>810</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B314" t="s">
+        <v>610</v>
+      </c>
+      <c r="C314" t="s">
+        <v>815</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F314" t="s">
+        <v>811</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B315" t="s">
+        <v>610</v>
+      </c>
+      <c r="C315" t="s">
+        <v>812</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F315" t="s">
+        <v>811</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B316" t="s">
+        <v>610</v>
+      </c>
+      <c r="C316" t="s">
+        <v>819</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F316" t="s">
+        <v>821</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B317" t="s">
         <v>479</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C317" t="s">
+        <v>487</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F317" t="s">
+        <v>489</v>
+      </c>
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B318" t="s">
+        <v>479</v>
+      </c>
+      <c r="C318" t="s">
+        <v>488</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F318" t="s">
+        <v>486</v>
+      </c>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B319" t="s">
+        <v>479</v>
+      </c>
+      <c r="C319" t="s">
+        <v>490</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B320" t="s">
+        <v>480</v>
+      </c>
+      <c r="C320" t="s">
+        <v>481</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F320" t="s">
+        <v>484</v>
+      </c>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B321" t="s">
+        <v>480</v>
+      </c>
+      <c r="C321" t="s">
+        <v>482</v>
+      </c>
+      <c r="E321" t="s">
+        <v>492</v>
+      </c>
+      <c r="F321" t="s">
+        <v>485</v>
+      </c>
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B322" t="s">
+        <v>497</v>
+      </c>
+      <c r="C322" t="s">
+        <v>498</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F322" t="s">
+        <v>500</v>
+      </c>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B323" t="s">
+        <v>555</v>
+      </c>
+      <c r="C323" t="s">
+        <v>552</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F323" t="s">
+        <v>553</v>
+      </c>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B324" t="s">
+        <v>548</v>
+      </c>
+      <c r="C324" t="s">
+        <v>549</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F324" t="s">
+        <v>551</v>
+      </c>
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B325" t="s">
+        <v>504</v>
+      </c>
+      <c r="C325" t="s">
+        <v>506</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F325" t="s">
         <v>505</v>
       </c>
-      <c r="C304" t="s">
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="1:7" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B326" t="s">
+        <v>504</v>
+      </c>
+      <c r="C326" t="s">
+        <v>507</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B327" t="s">
+        <v>503</v>
+      </c>
+      <c r="C327" t="s">
+        <v>509</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F327" t="s">
+        <v>547</v>
+      </c>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B328" t="s">
+        <v>504</v>
+      </c>
+      <c r="C328" t="s">
+        <v>511</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F328" t="s">
+        <v>512</v>
+      </c>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B329" t="s">
+        <v>503</v>
+      </c>
+      <c r="C329" t="s">
+        <v>513</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F329" t="s">
+        <v>520</v>
+      </c>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B330" t="s">
+        <v>503</v>
+      </c>
+      <c r="C330" t="s">
+        <v>519</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F330" t="s">
+        <v>521</v>
+      </c>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B331" t="s">
+        <v>503</v>
+      </c>
+      <c r="C331" t="s">
+        <v>515</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F331" t="s">
+        <v>738</v>
+      </c>
+      <c r="G331" s="4"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B332" t="s">
+        <v>503</v>
+      </c>
+      <c r="C332" t="s">
+        <v>522</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F332" t="s">
+        <v>523</v>
+      </c>
+      <c r="G332" s="4"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B333" t="s">
+        <v>504</v>
+      </c>
+      <c r="C333" t="s">
+        <v>524</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F333" t="s">
         <v>525</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F304" t="s">
-        <v>526</v>
-      </c>
-      <c r="G304" s="4"/>
+      <c r="G333" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G171" r:id="rId1" xr:uid="{84390A21-0E01-461B-ACC3-8E5293FEC94F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>